--- a/Sprint-1_Mecanicas.xlsx
+++ b/Sprint-1_Mecanicas.xlsx
@@ -342,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,8 +361,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -835,11 +853,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -935,33 +979,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1017,19 +1034,10 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1037,21 +1045,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1069,15 +1065,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1087,11 +1074,14 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1111,17 +1101,221 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1917,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1945,49 +2139,49 @@
       <c r="B1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
     <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-    </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+    </row>
+    <row r="3" spans="1:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
@@ -2009,10 +2203,10 @@
       <c r="H3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="51">
         <v>43151</v>
       </c>
       <c r="K3" s="15">
@@ -2036,60 +2230,60 @@
       <c r="Q3" s="10">
         <v>43158</v>
       </c>
-      <c r="R3" s="56"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
     </row>
     <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="117"/>
+      <c r="E4" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="26">
         <v>4</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="24">
         <v>1</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="59">
         <f t="shared" ref="I4:I30" si="0">SUM(J4:AK4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="57"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="48"/>
       <c r="S4" s="25"/>
       <c r="T4" s="25"/>
       <c r="U4" s="25"/>
@@ -2111,15 +2305,15 @@
       <c r="AK4" s="25"/>
     </row>
     <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="82"/>
-      <c r="C5" s="68" t="s">
+      <c r="B5" s="119"/>
+      <c r="C5" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="121"/>
+      <c r="E5" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="122" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="27">
@@ -2139,10 +2333,10 @@
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="57"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="48"/>
       <c r="S5" s="25"/>
-      <c r="T5" s="47"/>
+      <c r="T5" s="38"/>
       <c r="U5" s="25"/>
       <c r="V5" s="25"/>
       <c r="W5" s="25"/>
@@ -2162,15 +2356,15 @@
       <c r="AK5" s="25"/>
     </row>
     <row r="6" spans="1:37" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="82"/>
-      <c r="C6" s="68" t="s">
+      <c r="B6" s="119"/>
+      <c r="C6" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="121"/>
+      <c r="E6" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="122" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="27">
@@ -2190,8 +2384,8 @@
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="57"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="48"/>
       <c r="S6" s="25"/>
       <c r="T6" s="25"/>
       <c r="U6" s="25"/>
@@ -2212,37 +2406,37 @@
       <c r="AJ6" s="25"/>
       <c r="AK6" s="25"/>
     </row>
-    <row r="7" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="83"/>
-      <c r="C7" s="68" t="s">
+    <row r="7" spans="1:37" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="123"/>
+      <c r="C7" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25" t="s">
+      <c r="D7" s="125"/>
+      <c r="E7" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="98">
         <v>2</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="97">
         <v>0.1</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="57"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="48"/>
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
       <c r="U7" s="25"/>
@@ -2261,43 +2455,43 @@
       <c r="AH7" s="25"/>
       <c r="AI7" s="25"/>
       <c r="AJ7" s="25"/>
-      <c r="AK7" s="46"/>
+      <c r="AK7" s="37"/>
     </row>
     <row r="8" spans="1:37" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="26">
         <v>5</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="24">
         <v>0.5</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="57"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="48"/>
       <c r="S8" s="25"/>
       <c r="T8" s="25"/>
       <c r="U8" s="25"/>
@@ -2319,15 +2513,15 @@
       <c r="AK8" s="25"/>
     </row>
     <row r="9" spans="1:37" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="87"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="25" t="s">
+      <c r="B9" s="130"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="132" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="27">
@@ -2347,8 +2541,8 @@
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="57"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="48"/>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
       <c r="U9" s="25"/>
@@ -2370,15 +2564,15 @@
       <c r="AK9" s="25"/>
     </row>
     <row r="10" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="87"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="25" t="s">
+      <c r="B10" s="130"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="132" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="27">
@@ -2398,8 +2592,8 @@
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="57"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="48"/>
       <c r="S10" s="25"/>
       <c r="T10" s="25"/>
       <c r="U10" s="25"/>
@@ -2420,37 +2614,37 @@
       <c r="AJ10" s="25"/>
       <c r="AK10" s="25"/>
     </row>
-    <row r="11" spans="1:37" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="87"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="25" t="s">
+    <row r="11" spans="1:37" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="133"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="98">
         <v>2</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="97">
         <v>0.3</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="57"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="48"/>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
       <c r="U11" s="25"/>
@@ -2471,39 +2665,39 @@
       <c r="AJ11" s="25"/>
       <c r="AK11" s="25"/>
     </row>
-    <row r="12" spans="1:37" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="34" t="s">
+    <row r="12" spans="1:37" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="138"/>
+      <c r="E12" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="101">
         <v>6</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="100">
         <v>3</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="57"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="48"/>
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
       <c r="U12" s="25"/>
@@ -2525,40 +2719,40 @@
       <c r="AK12" s="25"/>
     </row>
     <row r="13" spans="1:37" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="26">
         <v>6</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="24">
         <v>0.2</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="57"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="48"/>
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
       <c r="U13" s="25"/>
@@ -2580,15 +2774,15 @@
       <c r="AK13" s="25"/>
     </row>
     <row r="14" spans="1:37" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="90"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="25" t="s">
+      <c r="B14" s="72"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="121" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="27">
@@ -2608,8 +2802,8 @@
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="57"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="48"/>
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
       <c r="U14" s="25"/>
@@ -2631,15 +2825,15 @@
       <c r="AK14" s="25"/>
     </row>
     <row r="15" spans="1:37" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="90"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="25" t="s">
+      <c r="B15" s="72"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="141" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="27">
@@ -2659,8 +2853,8 @@
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="57"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="48"/>
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
       <c r="U15" s="25"/>
@@ -2682,15 +2876,15 @@
       <c r="AK15" s="25"/>
     </row>
     <row r="16" spans="1:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="90"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="25" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="121" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="27">
@@ -2710,38 +2904,38 @@
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="57"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="48"/>
       <c r="S16" s="25"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="46"/>
-      <c r="AD16" s="46"/>
-      <c r="AE16" s="46"/>
-      <c r="AF16" s="46"/>
-      <c r="AG16" s="46"/>
-      <c r="AH16" s="46"/>
-      <c r="AI16" s="46"/>
-      <c r="AJ16" s="46"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="37"/>
       <c r="AK16" s="25"/>
     </row>
     <row r="17" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="90"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="25" t="s">
+      <c r="B17" s="72"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="121" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="27">
@@ -2761,144 +2955,144 @@
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="57"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="48"/>
       <c r="S17" s="25"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="46"/>
-      <c r="AD17" s="46"/>
-      <c r="AE17" s="46"/>
-      <c r="AF17" s="46"/>
-      <c r="AG17" s="46"/>
-      <c r="AH17" s="46"/>
-      <c r="AI17" s="46"/>
-      <c r="AJ17" s="46"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
       <c r="AK17" s="25"/>
     </row>
-    <row r="18" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="91"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="25" t="s">
+    <row r="18" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="105"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="98">
         <v>4</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="97">
         <v>0.2</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="57"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="48"/>
       <c r="S18" s="25"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="46"/>
-      <c r="AJ18" s="46"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
       <c r="AK18" s="25"/>
     </row>
     <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="26">
         <v>2</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="24">
         <v>2</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="57"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="48"/>
       <c r="S19" s="25"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="46"/>
-      <c r="AE19" s="46"/>
-      <c r="AF19" s="46"/>
-      <c r="AG19" s="46"/>
-      <c r="AH19" s="46"/>
-      <c r="AI19" s="46"/>
-      <c r="AJ19" s="46"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="37"/>
+      <c r="AI19" s="37"/>
+      <c r="AJ19" s="37"/>
       <c r="AK19" s="25"/>
     </row>
     <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="90"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="25" t="s">
+      <c r="B20" s="72"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="132" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="27">
@@ -2918,38 +3112,38 @@
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="57"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="48"/>
       <c r="S20" s="25"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="46"/>
-      <c r="AF20" s="46"/>
-      <c r="AG20" s="46"/>
-      <c r="AH20" s="46"/>
-      <c r="AI20" s="46"/>
-      <c r="AJ20" s="46"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="37"/>
       <c r="AK20" s="25"/>
     </row>
     <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="90"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="25" t="s">
+      <c r="B21" s="72"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="132" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="27">
@@ -2969,140 +3163,140 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
       <c r="P21" s="25"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="57"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="48"/>
       <c r="S21" s="25"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="46"/>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="46"/>
-      <c r="AI21" s="46"/>
-      <c r="AJ21" s="46"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="37"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="37"/>
       <c r="AK21" s="25"/>
     </row>
-    <row r="22" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="91"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="25" t="s">
+    <row r="22" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="105"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="98">
         <v>5</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="97">
         <v>0.4</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="57"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="48"/>
       <c r="S22" s="25"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="46"/>
-      <c r="AB22" s="46"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="46"/>
-      <c r="AE22" s="46"/>
-      <c r="AF22" s="46"/>
-      <c r="AG22" s="46"/>
-      <c r="AH22" s="46"/>
-      <c r="AI22" s="46"/>
-      <c r="AJ22" s="46"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="37"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="37"/>
+      <c r="AI22" s="37"/>
+      <c r="AJ22" s="37"/>
       <c r="AK22" s="25"/>
     </row>
     <row r="23" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="68" t="s">
+      <c r="D23" s="140"/>
+      <c r="E23" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="70" t="s">
+      <c r="F23" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="98">
+      <c r="G23" s="108">
         <v>2</v>
       </c>
-      <c r="H23" s="70">
+      <c r="H23" s="107">
         <v>2</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="57"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="48"/>
       <c r="S23" s="25"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="46"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="46"/>
-      <c r="AH23" s="46"/>
-      <c r="AI23" s="46"/>
-      <c r="AJ23" s="46"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="37"/>
       <c r="AK23" s="25"/>
     </row>
     <row r="24" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="90"/>
-      <c r="C24" s="80" t="s">
+      <c r="B24" s="72"/>
+      <c r="C24" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25" t="s">
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="27">
@@ -3122,36 +3316,36 @@
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="57"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="48"/>
       <c r="S24" s="25"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="46"/>
-      <c r="AB24" s="46"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="46"/>
-      <c r="AE24" s="46"/>
-      <c r="AF24" s="46"/>
-      <c r="AG24" s="46"/>
-      <c r="AH24" s="46"/>
-      <c r="AI24" s="46"/>
-      <c r="AJ24" s="46"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
       <c r="AK24" s="25"/>
     </row>
     <row r="25" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="90"/>
-      <c r="C25" s="95" t="s">
+      <c r="B25" s="72"/>
+      <c r="C25" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25" t="s">
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="27">
@@ -3171,8 +3365,8 @@
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="57"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="48"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="25"/>
@@ -3190,119 +3384,119 @@
       <c r="AG25" s="25"/>
       <c r="AH25" s="25"/>
       <c r="AI25" s="25"/>
-      <c r="AJ25" s="47"/>
-      <c r="AK25" s="46"/>
-    </row>
-    <row r="26" spans="2:37" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="91"/>
-      <c r="C26" s="79" t="s">
+      <c r="AJ25" s="38"/>
+      <c r="AK25" s="37"/>
+    </row>
+    <row r="26" spans="2:37" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="105"/>
+      <c r="C26" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25" t="s">
+      <c r="D26" s="145"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="27">
-        <v>7.9814327894132703E+27</v>
-      </c>
-      <c r="H26" s="25">
+      <c r="G26" s="98">
+        <v>7</v>
+      </c>
+      <c r="H26" s="97">
         <v>0.75</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="57"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="48"/>
       <c r="S26" s="25"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="46"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="46"/>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="46"/>
-      <c r="AJ26" s="46"/>
-      <c r="AK26" s="46"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
+      <c r="AK26" s="37"/>
     </row>
     <row r="27" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25" t="s">
+      <c r="E27" s="129"/>
+      <c r="F27" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="26">
         <v>6</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="24">
         <v>0.2</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="57"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="48"/>
       <c r="S27" s="25"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="46"/>
-      <c r="AA27" s="46"/>
-      <c r="AB27" s="46"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="46"/>
-      <c r="AE27" s="46"/>
-      <c r="AF27" s="46"/>
-      <c r="AG27" s="46"/>
-      <c r="AH27" s="46"/>
-      <c r="AI27" s="46"/>
-      <c r="AJ27" s="46"/>
-      <c r="AK27" s="46"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="37"/>
+      <c r="AJ27" s="37"/>
+      <c r="AK27" s="37"/>
     </row>
     <row r="28" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="90"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="25" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25" t="s">
+      <c r="E28" s="132"/>
+      <c r="F28" s="132" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="27">
@@ -3322,36 +3516,36 @@
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="57"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="48"/>
       <c r="S28" s="25"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="46"/>
-      <c r="AA28" s="46"/>
-      <c r="AB28" s="46"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="46"/>
-      <c r="AE28" s="46"/>
-      <c r="AF28" s="46"/>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="46"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="46"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="37"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="37"/>
+      <c r="AI28" s="37"/>
+      <c r="AJ28" s="37"/>
+      <c r="AK28" s="37"/>
     </row>
     <row r="29" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="90"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="25" t="s">
+      <c r="B29" s="72"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25" t="s">
+      <c r="E29" s="132"/>
+      <c r="F29" s="132" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="27">
@@ -3371,146 +3565,146 @@
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
       <c r="P29" s="25"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="57"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="48"/>
       <c r="S29" s="25"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="46"/>
-      <c r="AB29" s="46"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="46"/>
-      <c r="AE29" s="46"/>
-      <c r="AF29" s="46"/>
-      <c r="AG29" s="46"/>
-      <c r="AH29" s="46"/>
-      <c r="AI29" s="46"/>
-      <c r="AJ29" s="46"/>
-      <c r="AK29" s="46"/>
-    </row>
-    <row r="30" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="90"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="25" t="s">
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="37"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
+      <c r="AK29" s="37"/>
+    </row>
+    <row r="30" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="105"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25" t="s">
+      <c r="E30" s="135"/>
+      <c r="F30" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="98">
         <v>4</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="97">
         <v>2</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="57"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="97"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="97"/>
+      <c r="O30" s="97"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="48"/>
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="46"/>
-      <c r="AB30" s="46"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="46"/>
-      <c r="AE30" s="46"/>
-      <c r="AF30" s="46"/>
-      <c r="AG30" s="46"/>
-      <c r="AH30" s="46"/>
-      <c r="AI30" s="46"/>
-      <c r="AJ30" s="46"/>
-      <c r="AK30" s="46"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="37"/>
+      <c r="AF30" s="37"/>
+      <c r="AG30" s="37"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" s="37"/>
+      <c r="AJ30" s="37"/>
+      <c r="AK30" s="37"/>
     </row>
     <row r="31" spans="2:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="76">
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="111">
         <f>SUM(H4:H30)</f>
         <v>19.8</v>
       </c>
-      <c r="I31" s="76">
+      <c r="I31" s="111">
         <f>SUM(I4:I30)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="76">
+      <c r="J31" s="111">
         <f>SUM(J4:J30)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="76">
+      <c r="K31" s="111">
         <f>SUM(K4:K30)</f>
         <v>0</v>
       </c>
-      <c r="L31" s="76">
+      <c r="L31" s="111">
         <f t="shared" ref="L31:Q31" si="1">SUM(L4:L30)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="76">
+      <c r="M31" s="111">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N31" s="76">
+      <c r="N31" s="111">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O31" s="76">
+      <c r="O31" s="111">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P31" s="76">
+      <c r="P31" s="111">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="76">
+      <c r="Q31" s="111">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R31" s="59"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="44"/>
-      <c r="AE31" s="44"/>
-      <c r="AF31" s="44"/>
-      <c r="AG31" s="44"/>
-      <c r="AH31" s="44"/>
-      <c r="AI31" s="44"/>
-      <c r="AJ31" s="44"/>
-      <c r="AK31" s="44"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="35"/>
+      <c r="AE31" s="35"/>
+      <c r="AF31" s="35"/>
+      <c r="AG31" s="35"/>
+      <c r="AH31" s="35"/>
+      <c r="AI31" s="35"/>
+      <c r="AJ31" s="35"/>
+      <c r="AK31" s="35"/>
     </row>
     <row r="32" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
@@ -3521,36 +3715,36 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="35" t="s">
+      <c r="J32" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="51"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="51"/>
-      <c r="Z32" s="51"/>
-      <c r="AA32" s="51"/>
-      <c r="AB32" s="51"/>
-      <c r="AC32" s="51"/>
-      <c r="AD32" s="51"/>
-      <c r="AE32" s="51"/>
-      <c r="AF32" s="51"/>
-      <c r="AG32" s="51"/>
-      <c r="AH32" s="51"/>
-      <c r="AI32" s="51"/>
-      <c r="AJ32" s="51"/>
-      <c r="AK32" s="51"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="42"/>
+      <c r="AB32" s="42"/>
+      <c r="AC32" s="42"/>
+      <c r="AD32" s="42"/>
+      <c r="AE32" s="42"/>
+      <c r="AF32" s="42"/>
+      <c r="AG32" s="42"/>
+      <c r="AH32" s="42"/>
+      <c r="AI32" s="42"/>
+      <c r="AJ32" s="42"/>
+      <c r="AK32" s="42"/>
     </row>
     <row r="33" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="16" t="s">
@@ -3575,29 +3769,29 @@
       <c r="M33" s="3"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="54"/>
-      <c r="Z33" s="54"/>
-      <c r="AA33" s="54"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="54"/>
-      <c r="AD33" s="54"/>
-      <c r="AE33" s="54"/>
-      <c r="AF33" s="54"/>
-      <c r="AG33" s="54"/>
-      <c r="AH33" s="54"/>
-      <c r="AI33" s="54"/>
-      <c r="AJ33" s="54"/>
-      <c r="AK33" s="54"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="45"/>
+      <c r="AD33" s="45"/>
+      <c r="AE33" s="45"/>
+      <c r="AF33" s="45"/>
+      <c r="AG33" s="45"/>
+      <c r="AH33" s="45"/>
+      <c r="AI33" s="45"/>
+      <c r="AJ33" s="45"/>
+      <c r="AK33" s="45"/>
     </row>
     <row r="34" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="112" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="21">
@@ -3614,10 +3808,10 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="35" t="s">
+      <c r="H34" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="I34" s="36"/>
+      <c r="I34" s="83"/>
       <c r="J34" s="9">
         <f>SUM(H31,-J31)</f>
         <v>19.8</v>
@@ -3650,29 +3844,29 @@
         <f t="shared" si="2"/>
         <v>19.8</v>
       </c>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="44"/>
-      <c r="W34" s="44"/>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="44"/>
-      <c r="Z34" s="44"/>
-      <c r="AA34" s="44"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="44"/>
-      <c r="AD34" s="44"/>
-      <c r="AE34" s="44"/>
-      <c r="AF34" s="44"/>
-      <c r="AG34" s="44"/>
-      <c r="AH34" s="44"/>
-      <c r="AI34" s="44"/>
-      <c r="AJ34" s="44"/>
-      <c r="AK34" s="44"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="35"/>
+      <c r="AE34" s="35"/>
+      <c r="AF34" s="35"/>
+      <c r="AG34" s="35"/>
+      <c r="AH34" s="35"/>
+      <c r="AI34" s="35"/>
+      <c r="AJ34" s="35"/>
+      <c r="AK34" s="35"/>
     </row>
     <row r="35" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="113" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="19">
@@ -3695,29 +3889,29 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="54"/>
-      <c r="Z35" s="54"/>
-      <c r="AA35" s="54"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="54"/>
-      <c r="AD35" s="54"/>
-      <c r="AE35" s="54"/>
-      <c r="AF35" s="54"/>
-      <c r="AG35" s="54"/>
-      <c r="AH35" s="54"/>
-      <c r="AI35" s="54"/>
-      <c r="AJ35" s="54"/>
-      <c r="AK35" s="54"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="45"/>
+      <c r="AB35" s="45"/>
+      <c r="AC35" s="45"/>
+      <c r="AD35" s="45"/>
+      <c r="AE35" s="45"/>
+      <c r="AF35" s="45"/>
+      <c r="AG35" s="45"/>
+      <c r="AH35" s="45"/>
+      <c r="AI35" s="45"/>
+      <c r="AJ35" s="45"/>
+      <c r="AK35" s="45"/>
     </row>
     <row r="36" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="114" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="30">
@@ -3733,41 +3927,41 @@
         <v>6.3</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="H36" s="35" t="s">
+      <c r="H36" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="37"/>
-      <c r="J36" s="35">
+      <c r="I36" s="78"/>
+      <c r="J36" s="77">
         <f>H31-I31</f>
         <v>19.8</v>
       </c>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="51"/>
-      <c r="W36" s="51"/>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51"/>
-      <c r="Z36" s="51"/>
-      <c r="AA36" s="51"/>
-      <c r="AB36" s="51"/>
-      <c r="AC36" s="51"/>
-      <c r="AD36" s="51"/>
-      <c r="AE36" s="51"/>
-      <c r="AF36" s="51"/>
-      <c r="AG36" s="51"/>
-      <c r="AH36" s="51"/>
-      <c r="AI36" s="51"/>
-      <c r="AJ36" s="51"/>
-      <c r="AK36" s="51"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="78"/>
+      <c r="Q36" s="83"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="42"/>
+      <c r="AB36" s="42"/>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="42"/>
+      <c r="AE36" s="42"/>
+      <c r="AF36" s="42"/>
+      <c r="AG36" s="42"/>
+      <c r="AH36" s="42"/>
+      <c r="AI36" s="42"/>
+      <c r="AJ36" s="42"/>
+      <c r="AK36" s="42"/>
     </row>
     <row r="37" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
@@ -3847,11 +4041,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="H34:I34"/>
@@ -3864,6 +4053,11 @@
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3905,36 +4099,36 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
     </row>
     <row r="3" spans="1:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
@@ -3958,10 +4152,10 @@
       <c r="H3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="51">
         <v>43151</v>
       </c>
       <c r="K3" s="15">
@@ -3985,40 +4179,40 @@
       <c r="Q3" s="10">
         <v>43158</v>
       </c>
-      <c r="R3" s="56"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
     </row>
     <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="26"/>
       <c r="H4" s="24"/>
-      <c r="I4" s="72">
+      <c r="I4" s="59">
         <f t="shared" ref="I4:I36" si="0">SUM(J4:AK4)</f>
         <v>0</v>
       </c>
@@ -4029,8 +4223,8 @@
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="57"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="48"/>
       <c r="S4" s="25"/>
       <c r="T4" s="25"/>
       <c r="U4" s="25"/>
@@ -4052,13 +4246,13 @@
       <c r="AK4" s="25"/>
     </row>
     <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="86" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
       <c r="G5" s="27"/>
       <c r="H5" s="25"/>
       <c r="I5" s="14">
@@ -4072,8 +4266,8 @@
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="57"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="48"/>
       <c r="S5" s="25"/>
       <c r="T5" s="25"/>
       <c r="U5" s="25"/>
@@ -4095,13 +4289,13 @@
       <c r="AK5" s="25"/>
     </row>
     <row r="6" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
-      <c r="C6" s="68" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="56" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="25"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="27"/>
       <c r="H6" s="25"/>
       <c r="I6" s="14">
@@ -4115,8 +4309,8 @@
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="57"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="48"/>
       <c r="S6" s="25"/>
       <c r="T6" s="25"/>
       <c r="U6" s="25"/>
@@ -4138,13 +4332,13 @@
       <c r="AK6" s="25"/>
     </row>
     <row r="7" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="40"/>
-      <c r="C7" s="68" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="56" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="25"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="27"/>
       <c r="H7" s="25"/>
       <c r="I7" s="14">
@@ -4158,8 +4352,8 @@
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="57"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="48"/>
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
       <c r="U7" s="25"/>
@@ -4181,13 +4375,13 @@
       <c r="AK7" s="25"/>
     </row>
     <row r="8" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="40"/>
-      <c r="C8" s="68" t="s">
+      <c r="B8" s="95"/>
+      <c r="C8" s="56" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="25"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="27"/>
       <c r="H8" s="25"/>
       <c r="I8" s="14"/>
@@ -4198,8 +4392,8 @@
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="57"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="48"/>
       <c r="S8" s="25"/>
       <c r="T8" s="25"/>
       <c r="U8" s="25"/>
@@ -4221,13 +4415,13 @@
       <c r="AK8" s="25"/>
     </row>
     <row r="9" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
-      <c r="C9" s="68" t="s">
+      <c r="B9" s="95"/>
+      <c r="C9" s="56" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="25"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="27"/>
       <c r="H9" s="25"/>
       <c r="I9" s="14"/>
@@ -4238,8 +4432,8 @@
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="57"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="48"/>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
       <c r="U9" s="25"/>
@@ -4261,13 +4455,13 @@
       <c r="AK9" s="25"/>
     </row>
     <row r="10" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="40"/>
-      <c r="C10" s="68" t="s">
+      <c r="B10" s="95"/>
+      <c r="C10" s="56" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="25"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="27"/>
       <c r="H10" s="25"/>
       <c r="I10" s="14">
@@ -4281,9 +4475,9 @@
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="44"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="35"/>
       <c r="T10" s="25"/>
       <c r="U10" s="25"/>
       <c r="V10" s="25"/>
@@ -4304,13 +4498,13 @@
       <c r="AK10" s="25"/>
     </row>
     <row r="11" spans="1:37" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="40"/>
-      <c r="C11" s="68" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="56" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="25"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="27"/>
       <c r="H11" s="25"/>
       <c r="I11" s="14">
@@ -4324,8 +4518,8 @@
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="57"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="48"/>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
       <c r="U11" s="25"/>
@@ -4347,15 +4541,15 @@
       <c r="AK11" s="25"/>
     </row>
     <row r="12" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="56" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="25"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="27"/>
       <c r="H12" s="25"/>
       <c r="I12" s="14">
@@ -4369,8 +4563,8 @@
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="57"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="48"/>
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
       <c r="U12" s="25"/>
@@ -4392,13 +4586,13 @@
       <c r="AK12" s="25"/>
     </row>
     <row r="13" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
-      <c r="C13" s="68" t="s">
+      <c r="B13" s="81"/>
+      <c r="C13" s="56" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="25"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="27"/>
       <c r="H13" s="25"/>
       <c r="I13" s="14">
@@ -4412,10 +4606,10 @@
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="57"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="48"/>
       <c r="S13" s="25"/>
-      <c r="T13" s="47"/>
+      <c r="T13" s="38"/>
       <c r="U13" s="25"/>
       <c r="V13" s="25"/>
       <c r="W13" s="25"/>
@@ -4435,13 +4629,13 @@
       <c r="AK13" s="25"/>
     </row>
     <row r="14" spans="1:37" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="82"/>
-      <c r="C14" s="68" t="s">
+      <c r="B14" s="81"/>
+      <c r="C14" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="25"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="27"/>
       <c r="H14" s="25"/>
       <c r="I14" s="14">
@@ -4455,8 +4649,8 @@
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="57"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="48"/>
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
       <c r="U14" s="25"/>
@@ -4478,8 +4672,8 @@
       <c r="AK14" s="25"/>
     </row>
     <row r="15" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="83"/>
-      <c r="C15" s="68" t="s">
+      <c r="B15" s="82"/>
+      <c r="C15" s="56" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="25"/>
@@ -4498,8 +4692,8 @@
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="57"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="48"/>
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
       <c r="U15" s="25"/>
@@ -4518,13 +4712,13 @@
       <c r="AH15" s="25"/>
       <c r="AI15" s="25"/>
       <c r="AJ15" s="25"/>
-      <c r="AK15" s="46"/>
+      <c r="AK15" s="37"/>
     </row>
     <row r="16" spans="1:37" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="88" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -4545,8 +4739,8 @@
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="57"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="48"/>
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
       <c r="U16" s="25"/>
@@ -4569,7 +4763,7 @@
     </row>
     <row r="17" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
+      <c r="C17" s="89"/>
       <c r="D17" s="25" t="s">
         <v>36</v>
       </c>
@@ -4588,8 +4782,8 @@
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="57"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="48"/>
       <c r="S17" s="25"/>
       <c r="T17" s="25"/>
       <c r="U17" s="25"/>
@@ -4612,7 +4806,7 @@
     </row>
     <row r="18" spans="2:37" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="87"/>
-      <c r="C18" s="63"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="25" t="s">
         <v>37</v>
       </c>
@@ -4631,8 +4825,8 @@
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="57"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="48"/>
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
       <c r="U18" s="25"/>
@@ -4655,7 +4849,7 @@
     </row>
     <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="87"/>
-      <c r="C19" s="78"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
@@ -4672,8 +4866,8 @@
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
       <c r="P19" s="25"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="57"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="48"/>
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
       <c r="U19" s="25"/>
@@ -4696,7 +4890,7 @@
     </row>
     <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="87"/>
-      <c r="C20" s="78"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
@@ -4713,8 +4907,8 @@
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="57"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="48"/>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
       <c r="U20" s="25"/>
@@ -4737,7 +4931,7 @@
     </row>
     <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="87"/>
-      <c r="C21" s="78"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
@@ -4754,10 +4948,10 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
       <c r="P21" s="25"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="57"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="48"/>
       <c r="S21" s="25"/>
-      <c r="T21" s="46"/>
+      <c r="T21" s="37"/>
       <c r="U21" s="25"/>
       <c r="V21" s="25"/>
       <c r="W21" s="25"/>
@@ -4777,8 +4971,8 @@
       <c r="AK21" s="25"/>
     </row>
     <row r="22" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="39"/>
-      <c r="C22" s="78"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
@@ -4795,10 +4989,10 @@
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
       <c r="P22" s="25"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="57"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="48"/>
       <c r="S22" s="25"/>
-      <c r="T22" s="46"/>
+      <c r="T22" s="37"/>
       <c r="U22" s="25"/>
       <c r="V22" s="25"/>
       <c r="W22" s="25"/>
@@ -4821,7 +5015,7 @@
       <c r="B23" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="56" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="25"/>
@@ -4840,8 +5034,8 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
       <c r="P23" s="25"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="57"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="48"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="25"/>
@@ -4863,10 +5057,10 @@
       <c r="AK23" s="25"/>
     </row>
     <row r="24" spans="2:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="92" t="s">
+      <c r="C24" s="74" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -4887,31 +5081,31 @@
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="57"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="48"/>
       <c r="S24" s="25"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="46"/>
-      <c r="AB24" s="46"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="46"/>
-      <c r="AE24" s="46"/>
-      <c r="AF24" s="46"/>
-      <c r="AG24" s="46"/>
-      <c r="AH24" s="46"/>
-      <c r="AI24" s="46"/>
-      <c r="AJ24" s="46"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
       <c r="AK24" s="25"/>
     </row>
     <row r="25" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="90"/>
-      <c r="C25" s="93"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="25" t="s">
         <v>41</v>
       </c>
@@ -4930,31 +5124,31 @@
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="57"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="48"/>
       <c r="S25" s="25"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="46"/>
-      <c r="AA25" s="46"/>
-      <c r="AB25" s="46"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="46"/>
-      <c r="AE25" s="46"/>
-      <c r="AF25" s="46"/>
-      <c r="AG25" s="46"/>
-      <c r="AH25" s="46"/>
-      <c r="AI25" s="46"/>
-      <c r="AJ25" s="46"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="37"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="37"/>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="37"/>
       <c r="AK25" s="25"/>
     </row>
     <row r="26" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="91"/>
-      <c r="C26" s="94"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="25" t="s">
         <v>48</v>
       </c>
@@ -4973,33 +5167,33 @@
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="57"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="48"/>
       <c r="S26" s="25"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="46"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="46"/>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="46"/>
-      <c r="AJ26" s="46"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
       <c r="AK26" s="25"/>
     </row>
     <row r="27" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="96" t="s">
+      <c r="C27" s="69" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="25"/>
@@ -5018,31 +5212,31 @@
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
       <c r="P27" s="25"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="57"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="48"/>
       <c r="S27" s="25"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="46"/>
-      <c r="AA27" s="46"/>
-      <c r="AB27" s="46"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="46"/>
-      <c r="AE27" s="46"/>
-      <c r="AF27" s="46"/>
-      <c r="AG27" s="46"/>
-      <c r="AH27" s="46"/>
-      <c r="AI27" s="46"/>
-      <c r="AJ27" s="46"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="37"/>
+      <c r="AJ27" s="37"/>
       <c r="AK27" s="25"/>
     </row>
     <row r="28" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="90"/>
-      <c r="C28" s="80" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="64" t="s">
         <v>54</v>
       </c>
       <c r="D28" s="25"/>
@@ -5058,31 +5252,31 @@
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="57"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="48"/>
       <c r="S28" s="25"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="46"/>
-      <c r="AA28" s="46"/>
-      <c r="AB28" s="46"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="46"/>
-      <c r="AE28" s="46"/>
-      <c r="AF28" s="46"/>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="46"/>
-      <c r="AJ28" s="46"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="37"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="37"/>
+      <c r="AI28" s="37"/>
+      <c r="AJ28" s="37"/>
       <c r="AK28" s="25"/>
     </row>
     <row r="29" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="90"/>
-      <c r="C29" s="95" t="s">
+      <c r="B29" s="72"/>
+      <c r="C29" s="68" t="s">
         <v>44</v>
       </c>
       <c r="D29" s="25"/>
@@ -5101,8 +5295,8 @@
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
       <c r="P29" s="25"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="57"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="48"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="25"/>
@@ -5120,12 +5314,12 @@
       <c r="AG29" s="25"/>
       <c r="AH29" s="25"/>
       <c r="AI29" s="25"/>
-      <c r="AJ29" s="47"/>
-      <c r="AK29" s="46"/>
+      <c r="AJ29" s="38"/>
+      <c r="AK29" s="37"/>
     </row>
     <row r="30" spans="2:37" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="91"/>
-      <c r="C30" s="79" t="s">
+      <c r="B30" s="73"/>
+      <c r="C30" s="63" t="s">
         <v>53</v>
       </c>
       <c r="D30" s="25"/>
@@ -5144,33 +5338,33 @@
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="57"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="48"/>
       <c r="S30" s="25"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="46"/>
-      <c r="AB30" s="46"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="46"/>
-      <c r="AE30" s="46"/>
-      <c r="AF30" s="46"/>
-      <c r="AG30" s="46"/>
-      <c r="AH30" s="46"/>
-      <c r="AI30" s="46"/>
-      <c r="AJ30" s="46"/>
-      <c r="AK30" s="46"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="37"/>
+      <c r="AF30" s="37"/>
+      <c r="AG30" s="37"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" s="37"/>
+      <c r="AJ30" s="37"/>
+      <c r="AK30" s="37"/>
     </row>
     <row r="31" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="92" t="s">
+      <c r="C31" s="74" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="25" t="s">
@@ -5191,31 +5385,31 @@
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="57"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="48"/>
       <c r="S31" s="25"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="46"/>
-      <c r="AA31" s="46"/>
-      <c r="AB31" s="46"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="46"/>
-      <c r="AE31" s="46"/>
-      <c r="AF31" s="46"/>
-      <c r="AG31" s="46"/>
-      <c r="AH31" s="46"/>
-      <c r="AI31" s="46"/>
-      <c r="AJ31" s="46"/>
-      <c r="AK31" s="46"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="37"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="37"/>
+      <c r="AE31" s="37"/>
+      <c r="AF31" s="37"/>
+      <c r="AG31" s="37"/>
+      <c r="AH31" s="37"/>
+      <c r="AI31" s="37"/>
+      <c r="AJ31" s="37"/>
+      <c r="AK31" s="37"/>
     </row>
     <row r="32" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="90"/>
-      <c r="C32" s="93"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="25" t="s">
         <v>46</v>
       </c>
@@ -5234,31 +5428,31 @@
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="57"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="48"/>
       <c r="S32" s="25"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="46"/>
-      <c r="AB32" s="46"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="46"/>
-      <c r="AE32" s="46"/>
-      <c r="AF32" s="46"/>
-      <c r="AG32" s="46"/>
-      <c r="AH32" s="46"/>
-      <c r="AI32" s="46"/>
-      <c r="AJ32" s="46"/>
-      <c r="AK32" s="46"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="37"/>
+      <c r="AI32" s="37"/>
+      <c r="AJ32" s="37"/>
+      <c r="AK32" s="37"/>
     </row>
     <row r="33" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="90"/>
-      <c r="C33" s="94"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="25" t="s">
         <v>47</v>
       </c>
@@ -5277,31 +5471,31 @@
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
       <c r="P33" s="25"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="57"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="48"/>
       <c r="S33" s="25"/>
       <c r="T33" s="25"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="46"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="46"/>
-      <c r="AE33" s="46"/>
-      <c r="AF33" s="46"/>
-      <c r="AG33" s="46"/>
-      <c r="AH33" s="46"/>
-      <c r="AI33" s="46"/>
-      <c r="AJ33" s="46"/>
-      <c r="AK33" s="46"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="37"/>
+      <c r="AI33" s="37"/>
+      <c r="AJ33" s="37"/>
+      <c r="AK33" s="37"/>
     </row>
     <row r="34" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="91"/>
-      <c r="C34" s="79"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
@@ -5318,33 +5512,33 @@
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
       <c r="P34" s="25"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="57"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="48"/>
       <c r="S34" s="25"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="46"/>
-      <c r="V34" s="46"/>
-      <c r="W34" s="46"/>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="46"/>
-      <c r="Z34" s="46"/>
-      <c r="AA34" s="46"/>
-      <c r="AB34" s="46"/>
-      <c r="AC34" s="46"/>
-      <c r="AD34" s="46"/>
-      <c r="AE34" s="46"/>
-      <c r="AF34" s="46"/>
-      <c r="AG34" s="46"/>
-      <c r="AH34" s="46"/>
-      <c r="AI34" s="46"/>
-      <c r="AJ34" s="46"/>
-      <c r="AK34" s="46"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+      <c r="AA34" s="37"/>
+      <c r="AB34" s="37"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="37"/>
+      <c r="AE34" s="37"/>
+      <c r="AF34" s="37"/>
+      <c r="AG34" s="37"/>
+      <c r="AH34" s="37"/>
+      <c r="AI34" s="37"/>
+      <c r="AJ34" s="37"/>
+      <c r="AK34" s="37"/>
     </row>
     <row r="35" spans="2:37" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="89" t="s">
+      <c r="B35" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="79" t="s">
+      <c r="C35" s="63" t="s">
         <v>50</v>
       </c>
       <c r="D35" s="25"/>
@@ -5363,31 +5557,31 @@
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
       <c r="P35" s="25"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="57"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="48"/>
       <c r="S35" s="25"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="46"/>
-      <c r="AA35" s="46"/>
-      <c r="AB35" s="46"/>
-      <c r="AC35" s="46"/>
-      <c r="AD35" s="46"/>
-      <c r="AE35" s="46"/>
-      <c r="AF35" s="46"/>
-      <c r="AG35" s="46"/>
-      <c r="AH35" s="46"/>
-      <c r="AI35" s="46"/>
-      <c r="AJ35" s="46"/>
-      <c r="AK35" s="46"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="37"/>
+      <c r="AA35" s="37"/>
+      <c r="AB35" s="37"/>
+      <c r="AC35" s="37"/>
+      <c r="AD35" s="37"/>
+      <c r="AE35" s="37"/>
+      <c r="AF35" s="37"/>
+      <c r="AG35" s="37"/>
+      <c r="AH35" s="37"/>
+      <c r="AI35" s="37"/>
+      <c r="AJ35" s="37"/>
+      <c r="AK35" s="37"/>
     </row>
     <row r="36" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="90"/>
-      <c r="C36" s="71" t="s">
+      <c r="B36" s="72"/>
+      <c r="C36" s="58" t="s">
         <v>51</v>
       </c>
       <c r="D36" s="25"/>
@@ -5406,13 +5600,13 @@
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="57"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="48"/>
       <c r="S36" s="25"/>
       <c r="T36" s="25"/>
       <c r="U36" s="25"/>
       <c r="V36" s="25"/>
-      <c r="W36" s="46"/>
+      <c r="W36" s="37"/>
       <c r="X36" s="25"/>
       <c r="Y36" s="25"/>
       <c r="Z36" s="25"/>
@@ -5426,11 +5620,11 @@
       <c r="AH36" s="25"/>
       <c r="AI36" s="25"/>
       <c r="AJ36" s="25"/>
-      <c r="AK36" s="46"/>
+      <c r="AK36" s="37"/>
     </row>
     <row r="37" spans="2:37" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="90"/>
-      <c r="C37" s="71"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
@@ -5447,8 +5641,8 @@
       <c r="N37" s="25"/>
       <c r="O37" s="25"/>
       <c r="P37" s="25"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="57"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="48"/>
       <c r="S37" s="25"/>
       <c r="T37" s="25"/>
       <c r="U37" s="25"/>
@@ -5467,11 +5661,11 @@
       <c r="AH37" s="25"/>
       <c r="AI37" s="25"/>
       <c r="AJ37" s="25"/>
-      <c r="AK37" s="46"/>
+      <c r="AK37" s="37"/>
     </row>
     <row r="38" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="91"/>
-      <c r="C38" s="65"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
@@ -5488,31 +5682,31 @@
       <c r="N38" s="25"/>
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="57"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="48"/>
       <c r="S38" s="25"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="46"/>
-      <c r="V38" s="46"/>
-      <c r="W38" s="46"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="46"/>
-      <c r="Z38" s="46"/>
-      <c r="AA38" s="46"/>
-      <c r="AB38" s="46"/>
-      <c r="AC38" s="46"/>
-      <c r="AD38" s="46"/>
-      <c r="AE38" s="46"/>
-      <c r="AF38" s="46"/>
-      <c r="AG38" s="46"/>
-      <c r="AH38" s="46"/>
-      <c r="AI38" s="46"/>
-      <c r="AJ38" s="46"/>
-      <c r="AK38" s="46"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="37"/>
+      <c r="AE38" s="37"/>
+      <c r="AF38" s="37"/>
+      <c r="AG38" s="37"/>
+      <c r="AH38" s="37"/>
+      <c r="AI38" s="37"/>
+      <c r="AJ38" s="37"/>
+      <c r="AK38" s="37"/>
     </row>
     <row r="39" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="84"/>
-      <c r="C39" s="71"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
@@ -5529,31 +5723,31 @@
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="57"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="48"/>
       <c r="S39" s="25"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="47"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="47"/>
-      <c r="Z39" s="47"/>
-      <c r="AA39" s="47"/>
-      <c r="AB39" s="47"/>
-      <c r="AC39" s="47"/>
-      <c r="AD39" s="47"/>
-      <c r="AE39" s="47"/>
-      <c r="AF39" s="47"/>
-      <c r="AG39" s="47"/>
-      <c r="AH39" s="47"/>
-      <c r="AI39" s="47"/>
-      <c r="AJ39" s="47"/>
-      <c r="AK39" s="46"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="38"/>
+      <c r="AA39" s="38"/>
+      <c r="AB39" s="38"/>
+      <c r="AC39" s="38"/>
+      <c r="AD39" s="38"/>
+      <c r="AE39" s="38"/>
+      <c r="AF39" s="38"/>
+      <c r="AG39" s="38"/>
+      <c r="AH39" s="38"/>
+      <c r="AI39" s="38"/>
+      <c r="AJ39" s="38"/>
+      <c r="AK39" s="37"/>
     </row>
     <row r="40" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="84"/>
-      <c r="C40" s="71"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
@@ -5570,8 +5764,8 @@
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="57"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="48"/>
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
       <c r="U40" s="25"/>
@@ -5590,11 +5784,11 @@
       <c r="AH40" s="25"/>
       <c r="AI40" s="25"/>
       <c r="AJ40" s="25"/>
-      <c r="AK40" s="46"/>
+      <c r="AK40" s="37"/>
     </row>
     <row r="41" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="84"/>
-      <c r="C41" s="71"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
       <c r="F41" s="25"/>
@@ -5611,8 +5805,8 @@
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="57"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="48"/>
       <c r="S41" s="25"/>
       <c r="T41" s="25"/>
       <c r="U41" s="25"/>
@@ -5631,11 +5825,11 @@
       <c r="AH41" s="25"/>
       <c r="AI41" s="25"/>
       <c r="AJ41" s="25"/>
-      <c r="AK41" s="46"/>
+      <c r="AK41" s="37"/>
     </row>
     <row r="42" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="84"/>
-      <c r="C42" s="71"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="58"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
       <c r="F42" s="25"/>
@@ -5652,8 +5846,8 @@
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="57"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="48"/>
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
       <c r="U42" s="25"/>
@@ -5672,11 +5866,11 @@
       <c r="AH42" s="25"/>
       <c r="AI42" s="25"/>
       <c r="AJ42" s="25"/>
-      <c r="AK42" s="46"/>
+      <c r="AK42" s="37"/>
     </row>
     <row r="43" spans="2:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="84"/>
-      <c r="C43" s="71"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="58"/>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
@@ -5693,8 +5887,8 @@
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="57"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="48"/>
       <c r="S43" s="25"/>
       <c r="T43" s="25"/>
       <c r="U43" s="25"/>
@@ -5713,11 +5907,11 @@
       <c r="AH43" s="25"/>
       <c r="AI43" s="25"/>
       <c r="AJ43" s="25"/>
-      <c r="AK43" s="46"/>
+      <c r="AK43" s="37"/>
     </row>
     <row r="44" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="84"/>
-      <c r="C44" s="71"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
       <c r="F44" s="25"/>
@@ -5734,8 +5928,8 @@
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
       <c r="P44" s="25"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="57"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="48"/>
       <c r="S44" s="25"/>
       <c r="T44" s="25"/>
       <c r="U44" s="25"/>
@@ -5754,11 +5948,11 @@
       <c r="AH44" s="25"/>
       <c r="AI44" s="25"/>
       <c r="AJ44" s="25"/>
-      <c r="AK44" s="46"/>
+      <c r="AK44" s="37"/>
     </row>
     <row r="45" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="84"/>
-      <c r="C45" s="80"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
       <c r="F45" s="25"/>
@@ -5775,8 +5969,8 @@
       <c r="N45" s="25"/>
       <c r="O45" s="25"/>
       <c r="P45" s="25"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="57"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="48"/>
       <c r="S45" s="25"/>
       <c r="T45" s="25"/>
       <c r="U45" s="25"/>
@@ -5794,12 +5988,12 @@
       <c r="AG45" s="25"/>
       <c r="AH45" s="25"/>
       <c r="AI45" s="25"/>
-      <c r="AJ45" s="47"/>
-      <c r="AK45" s="47"/>
+      <c r="AJ45" s="38"/>
+      <c r="AK45" s="38"/>
     </row>
     <row r="46" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="84"/>
-      <c r="C46" s="80"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
       <c r="F46" s="25"/>
@@ -5816,8 +6010,8 @@
       <c r="N46" s="25"/>
       <c r="O46" s="25"/>
       <c r="P46" s="25"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="57"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="48"/>
       <c r="S46" s="25"/>
       <c r="T46" s="25"/>
       <c r="U46" s="25"/>
@@ -5835,12 +6029,12 @@
       <c r="AG46" s="25"/>
       <c r="AH46" s="25"/>
       <c r="AI46" s="25"/>
-      <c r="AJ46" s="47"/>
-      <c r="AK46" s="47"/>
+      <c r="AJ46" s="38"/>
+      <c r="AK46" s="38"/>
     </row>
     <row r="47" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="84"/>
-      <c r="C47" s="66"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="55"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
@@ -5857,8 +6051,8 @@
       <c r="N47" s="25"/>
       <c r="O47" s="25"/>
       <c r="P47" s="25"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="57"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="48"/>
       <c r="S47" s="25"/>
       <c r="T47" s="25"/>
       <c r="U47" s="25"/>
@@ -5877,11 +6071,11 @@
       <c r="AH47" s="25"/>
       <c r="AI47" s="25"/>
       <c r="AJ47" s="25"/>
-      <c r="AK47" s="46"/>
+      <c r="AK47" s="37"/>
     </row>
     <row r="48" spans="2:37" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="84"/>
-      <c r="C48" s="71"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="58"/>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
@@ -5898,8 +6092,8 @@
       <c r="N48" s="25"/>
       <c r="O48" s="25"/>
       <c r="P48" s="25"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="57"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="48"/>
       <c r="S48" s="25"/>
       <c r="T48" s="25"/>
       <c r="U48" s="25"/>
@@ -5915,17 +6109,17 @@
       <c r="AE48" s="25"/>
       <c r="AF48" s="25"/>
       <c r="AG48" s="25"/>
-      <c r="AH48" s="46"/>
-      <c r="AI48" s="46"/>
-      <c r="AJ48" s="46"/>
-      <c r="AK48" s="46"/>
+      <c r="AH48" s="37"/>
+      <c r="AI48" s="37"/>
+      <c r="AJ48" s="37"/>
+      <c r="AK48" s="37"/>
     </row>
     <row r="49" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="67"/>
-      <c r="C49" s="46"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="25"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
       <c r="G49" s="27"/>
       <c r="H49" s="4"/>
       <c r="I49" s="14">
@@ -5939,8 +6133,8 @@
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
       <c r="P49" s="25"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="57"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="48"/>
       <c r="S49" s="25"/>
       <c r="T49" s="25"/>
       <c r="U49" s="25"/>
@@ -5962,11 +6156,11 @@
       <c r="AK49" s="25"/>
     </row>
     <row r="50" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="67"/>
-      <c r="C50" s="46"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="25"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
       <c r="G50" s="27"/>
       <c r="H50" s="4"/>
       <c r="I50" s="14">
@@ -5980,8 +6174,8 @@
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
       <c r="P50" s="25"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="57"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="48"/>
       <c r="S50" s="25"/>
       <c r="T50" s="25"/>
       <c r="U50" s="25"/>
@@ -6003,11 +6197,11 @@
       <c r="AK50" s="25"/>
     </row>
     <row r="51" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="67"/>
-      <c r="C51" s="78"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="25"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
       <c r="G51" s="27"/>
       <c r="H51" s="4"/>
       <c r="I51" s="14">
@@ -6021,8 +6215,8 @@
       <c r="N51" s="25"/>
       <c r="O51" s="25"/>
       <c r="P51" s="25"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="57"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="48"/>
       <c r="S51" s="25"/>
       <c r="T51" s="25"/>
       <c r="U51" s="25"/>
@@ -6044,11 +6238,11 @@
       <c r="AK51" s="25"/>
     </row>
     <row r="52" spans="2:37" ht="21" x14ac:dyDescent="0.3">
-      <c r="B52" s="73"/>
-      <c r="C52" s="78"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="25"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
       <c r="G52" s="27"/>
       <c r="H52" s="4"/>
       <c r="I52" s="14">
@@ -6062,8 +6256,8 @@
       <c r="N52" s="25"/>
       <c r="O52" s="25"/>
       <c r="P52" s="25"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="57"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="48"/>
       <c r="S52" s="25"/>
       <c r="T52" s="25"/>
       <c r="U52" s="25"/>
@@ -6085,11 +6279,11 @@
       <c r="AK52" s="25"/>
     </row>
     <row r="53" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="42"/>
-      <c r="C53" s="68"/>
+      <c r="B53" s="93"/>
+      <c r="C53" s="56"/>
       <c r="D53" s="25"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
       <c r="G53" s="27"/>
       <c r="H53" s="25"/>
       <c r="I53" s="14">
@@ -6103,8 +6297,8 @@
       <c r="N53" s="25"/>
       <c r="O53" s="25"/>
       <c r="P53" s="25"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="57"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="48"/>
       <c r="S53" s="25"/>
       <c r="T53" s="25"/>
       <c r="U53" s="25"/>
@@ -6126,11 +6320,11 @@
       <c r="AK53" s="25"/>
     </row>
     <row r="54" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="42"/>
-      <c r="C54" s="68"/>
+      <c r="B54" s="93"/>
+      <c r="C54" s="56"/>
       <c r="D54" s="25"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
       <c r="G54" s="27"/>
       <c r="H54" s="25"/>
       <c r="I54" s="14">
@@ -6144,8 +6338,8 @@
       <c r="N54" s="25"/>
       <c r="O54" s="25"/>
       <c r="P54" s="25"/>
-      <c r="Q54" s="45"/>
-      <c r="R54" s="57"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="48"/>
       <c r="S54" s="25"/>
       <c r="T54" s="25"/>
       <c r="U54" s="25"/>
@@ -6167,11 +6361,11 @@
       <c r="AK54" s="25"/>
     </row>
     <row r="55" spans="2:37" ht="21" x14ac:dyDescent="0.3">
-      <c r="B55" s="42"/>
-      <c r="C55" s="46"/>
+      <c r="B55" s="93"/>
+      <c r="C55" s="37"/>
       <c r="D55" s="25"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
       <c r="G55" s="27"/>
       <c r="H55" s="25"/>
       <c r="I55" s="14">
@@ -6185,8 +6379,8 @@
       <c r="N55" s="25"/>
       <c r="O55" s="25"/>
       <c r="P55" s="25"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="57"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="48"/>
       <c r="S55" s="25"/>
       <c r="T55" s="25"/>
       <c r="U55" s="25"/>
@@ -6208,11 +6402,11 @@
       <c r="AK55" s="25"/>
     </row>
     <row r="56" spans="2:37" ht="21" x14ac:dyDescent="0.3">
-      <c r="B56" s="42"/>
-      <c r="C56" s="46"/>
+      <c r="B56" s="93"/>
+      <c r="C56" s="37"/>
       <c r="D56" s="25"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
       <c r="G56" s="27"/>
       <c r="H56" s="25"/>
       <c r="I56" s="14">
@@ -6225,74 +6419,74 @@
       <c r="M56" s="25"/>
       <c r="N56" s="25"/>
       <c r="O56" s="25"/>
-      <c r="P56" s="47"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="58"/>
-      <c r="S56" s="47"/>
-      <c r="T56" s="47"/>
-      <c r="U56" s="47"/>
-      <c r="V56" s="47"/>
-      <c r="W56" s="47"/>
-      <c r="X56" s="47"/>
-      <c r="Y56" s="47"/>
-      <c r="Z56" s="47"/>
-      <c r="AA56" s="47"/>
-      <c r="AB56" s="47"/>
-      <c r="AC56" s="47"/>
-      <c r="AD56" s="47"/>
-      <c r="AE56" s="47"/>
-      <c r="AF56" s="47"/>
-      <c r="AG56" s="47"/>
-      <c r="AH56" s="47"/>
-      <c r="AI56" s="47"/>
-      <c r="AJ56" s="47"/>
-      <c r="AK56" s="47"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="49"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="38"/>
+      <c r="V56" s="38"/>
+      <c r="W56" s="38"/>
+      <c r="X56" s="38"/>
+      <c r="Y56" s="38"/>
+      <c r="Z56" s="38"/>
+      <c r="AA56" s="38"/>
+      <c r="AB56" s="38"/>
+      <c r="AC56" s="38"/>
+      <c r="AD56" s="38"/>
+      <c r="AE56" s="38"/>
+      <c r="AF56" s="38"/>
+      <c r="AG56" s="38"/>
+      <c r="AH56" s="38"/>
+      <c r="AI56" s="38"/>
+      <c r="AJ56" s="38"/>
+      <c r="AK56" s="38"/>
     </row>
     <row r="57" spans="2:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="74" t="s">
+      <c r="B57" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="76">
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="60">
         <f t="shared" ref="H57:I57" si="2">SUM(H4:H56)</f>
         <v>0</v>
       </c>
-      <c r="I57" s="76">
+      <c r="I57" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="76"/>
-      <c r="O57" s="76"/>
-      <c r="P57" s="76"/>
-      <c r="Q57" s="77"/>
-      <c r="R57" s="59"/>
-      <c r="S57" s="44"/>
-      <c r="T57" s="44"/>
-      <c r="U57" s="44"/>
-      <c r="V57" s="44"/>
-      <c r="W57" s="44"/>
-      <c r="X57" s="44"/>
-      <c r="Y57" s="44"/>
-      <c r="Z57" s="44"/>
-      <c r="AA57" s="44"/>
-      <c r="AB57" s="44"/>
-      <c r="AC57" s="44"/>
-      <c r="AD57" s="44"/>
-      <c r="AE57" s="44"/>
-      <c r="AF57" s="44"/>
-      <c r="AG57" s="44"/>
-      <c r="AH57" s="44"/>
-      <c r="AI57" s="44"/>
-      <c r="AJ57" s="44"/>
-      <c r="AK57" s="44"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="60"/>
+      <c r="N57" s="60"/>
+      <c r="O57" s="60"/>
+      <c r="P57" s="60"/>
+      <c r="Q57" s="61"/>
+      <c r="R57" s="50"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="35"/>
+      <c r="U57" s="35"/>
+      <c r="V57" s="35"/>
+      <c r="W57" s="35"/>
+      <c r="X57" s="35"/>
+      <c r="Y57" s="35"/>
+      <c r="Z57" s="35"/>
+      <c r="AA57" s="35"/>
+      <c r="AB57" s="35"/>
+      <c r="AC57" s="35"/>
+      <c r="AD57" s="35"/>
+      <c r="AE57" s="35"/>
+      <c r="AF57" s="35"/>
+      <c r="AG57" s="35"/>
+      <c r="AH57" s="35"/>
+      <c r="AI57" s="35"/>
+      <c r="AJ57" s="35"/>
+      <c r="AK57" s="35"/>
     </row>
     <row r="58" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="2"/>
@@ -6303,36 +6497,36 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
-      <c r="J58" s="69" t="s">
+      <c r="J58" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="52"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="52"/>
-      <c r="N58" s="52"/>
-      <c r="O58" s="52"/>
-      <c r="P58" s="52"/>
-      <c r="Q58" s="52"/>
-      <c r="R58" s="51"/>
-      <c r="S58" s="51"/>
-      <c r="T58" s="51"/>
-      <c r="U58" s="51"/>
-      <c r="V58" s="51"/>
-      <c r="W58" s="51"/>
-      <c r="X58" s="51"/>
-      <c r="Y58" s="51"/>
-      <c r="Z58" s="51"/>
-      <c r="AA58" s="51"/>
-      <c r="AB58" s="51"/>
-      <c r="AC58" s="51"/>
-      <c r="AD58" s="51"/>
-      <c r="AE58" s="51"/>
-      <c r="AF58" s="51"/>
-      <c r="AG58" s="51"/>
-      <c r="AH58" s="51"/>
-      <c r="AI58" s="51"/>
-      <c r="AJ58" s="51"/>
-      <c r="AK58" s="51"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="43"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="42"/>
+      <c r="U58" s="42"/>
+      <c r="V58" s="42"/>
+      <c r="W58" s="42"/>
+      <c r="X58" s="42"/>
+      <c r="Y58" s="42"/>
+      <c r="Z58" s="42"/>
+      <c r="AA58" s="42"/>
+      <c r="AB58" s="42"/>
+      <c r="AC58" s="42"/>
+      <c r="AD58" s="42"/>
+      <c r="AE58" s="42"/>
+      <c r="AF58" s="42"/>
+      <c r="AG58" s="42"/>
+      <c r="AH58" s="42"/>
+      <c r="AI58" s="42"/>
+      <c r="AJ58" s="42"/>
+      <c r="AK58" s="42"/>
     </row>
     <row r="59" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="16" t="s">
@@ -6357,26 +6551,26 @@
       <c r="M59" s="3"/>
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
-      <c r="R59" s="54"/>
-      <c r="S59" s="54"/>
-      <c r="T59" s="54"/>
-      <c r="U59" s="54"/>
-      <c r="V59" s="54"/>
-      <c r="W59" s="54"/>
-      <c r="X59" s="54"/>
-      <c r="Y59" s="54"/>
-      <c r="Z59" s="54"/>
-      <c r="AA59" s="54"/>
-      <c r="AB59" s="54"/>
-      <c r="AC59" s="54"/>
-      <c r="AD59" s="54"/>
-      <c r="AE59" s="54"/>
-      <c r="AF59" s="54"/>
-      <c r="AG59" s="54"/>
-      <c r="AH59" s="54"/>
-      <c r="AI59" s="54"/>
-      <c r="AJ59" s="54"/>
-      <c r="AK59" s="54"/>
+      <c r="R59" s="45"/>
+      <c r="S59" s="45"/>
+      <c r="T59" s="45"/>
+      <c r="U59" s="45"/>
+      <c r="V59" s="45"/>
+      <c r="W59" s="45"/>
+      <c r="X59" s="45"/>
+      <c r="Y59" s="45"/>
+      <c r="Z59" s="45"/>
+      <c r="AA59" s="45"/>
+      <c r="AB59" s="45"/>
+      <c r="AC59" s="45"/>
+      <c r="AD59" s="45"/>
+      <c r="AE59" s="45"/>
+      <c r="AF59" s="45"/>
+      <c r="AG59" s="45"/>
+      <c r="AH59" s="45"/>
+      <c r="AI59" s="45"/>
+      <c r="AJ59" s="45"/>
+      <c r="AK59" s="45"/>
     </row>
     <row r="60" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="22" t="s">
@@ -6387,10 +6581,10 @@
       <c r="E60" s="29"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="35" t="s">
+      <c r="H60" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="I60" s="36"/>
+      <c r="I60" s="83"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -6398,27 +6592,27 @@
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
-      <c r="Q60" s="53"/>
-      <c r="R60" s="44"/>
-      <c r="S60" s="44"/>
-      <c r="T60" s="44"/>
-      <c r="U60" s="44"/>
-      <c r="V60" s="44"/>
-      <c r="W60" s="44"/>
-      <c r="X60" s="44"/>
-      <c r="Y60" s="44"/>
-      <c r="Z60" s="44"/>
-      <c r="AA60" s="44"/>
-      <c r="AB60" s="44"/>
-      <c r="AC60" s="44"/>
-      <c r="AD60" s="44"/>
-      <c r="AE60" s="44"/>
-      <c r="AF60" s="44"/>
-      <c r="AG60" s="44"/>
-      <c r="AH60" s="44"/>
-      <c r="AI60" s="44"/>
-      <c r="AJ60" s="44"/>
-      <c r="AK60" s="44"/>
+      <c r="Q60" s="44"/>
+      <c r="R60" s="35"/>
+      <c r="S60" s="35"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="35"/>
+      <c r="V60" s="35"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="35"/>
+      <c r="Y60" s="35"/>
+      <c r="Z60" s="35"/>
+      <c r="AA60" s="35"/>
+      <c r="AB60" s="35"/>
+      <c r="AC60" s="35"/>
+      <c r="AD60" s="35"/>
+      <c r="AE60" s="35"/>
+      <c r="AF60" s="35"/>
+      <c r="AG60" s="35"/>
+      <c r="AH60" s="35"/>
+      <c r="AI60" s="35"/>
+      <c r="AJ60" s="35"/>
+      <c r="AK60" s="35"/>
     </row>
     <row r="61" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="20" t="s">
@@ -6435,26 +6629,26 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
-      <c r="R61" s="54"/>
-      <c r="S61" s="54"/>
-      <c r="T61" s="54"/>
-      <c r="U61" s="54"/>
-      <c r="V61" s="54"/>
-      <c r="W61" s="54"/>
-      <c r="X61" s="54"/>
-      <c r="Y61" s="54"/>
-      <c r="Z61" s="54"/>
-      <c r="AA61" s="54"/>
-      <c r="AB61" s="54"/>
-      <c r="AC61" s="54"/>
-      <c r="AD61" s="54"/>
-      <c r="AE61" s="54"/>
-      <c r="AF61" s="54"/>
-      <c r="AG61" s="54"/>
-      <c r="AH61" s="54"/>
-      <c r="AI61" s="54"/>
-      <c r="AJ61" s="54"/>
-      <c r="AK61" s="54"/>
+      <c r="R61" s="45"/>
+      <c r="S61" s="45"/>
+      <c r="T61" s="45"/>
+      <c r="U61" s="45"/>
+      <c r="V61" s="45"/>
+      <c r="W61" s="45"/>
+      <c r="X61" s="45"/>
+      <c r="Y61" s="45"/>
+      <c r="Z61" s="45"/>
+      <c r="AA61" s="45"/>
+      <c r="AB61" s="45"/>
+      <c r="AC61" s="45"/>
+      <c r="AD61" s="45"/>
+      <c r="AE61" s="45"/>
+      <c r="AF61" s="45"/>
+      <c r="AG61" s="45"/>
+      <c r="AH61" s="45"/>
+      <c r="AI61" s="45"/>
+      <c r="AJ61" s="45"/>
+      <c r="AK61" s="45"/>
     </row>
     <row r="62" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="20" t="s">
@@ -6464,41 +6658,41 @@
       <c r="D62" s="31"/>
       <c r="E62" s="32"/>
       <c r="F62" s="3"/>
-      <c r="H62" s="35" t="s">
+      <c r="H62" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="I62" s="37"/>
-      <c r="J62" s="35">
+      <c r="I62" s="78"/>
+      <c r="J62" s="77">
         <f>H57-I57</f>
         <v>0</v>
       </c>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="51"/>
-      <c r="S62" s="51"/>
-      <c r="T62" s="51"/>
-      <c r="U62" s="51"/>
-      <c r="V62" s="51"/>
-      <c r="W62" s="51"/>
-      <c r="X62" s="51"/>
-      <c r="Y62" s="51"/>
-      <c r="Z62" s="51"/>
-      <c r="AA62" s="51"/>
-      <c r="AB62" s="51"/>
-      <c r="AC62" s="51"/>
-      <c r="AD62" s="51"/>
-      <c r="AE62" s="51"/>
-      <c r="AF62" s="51"/>
-      <c r="AG62" s="51"/>
-      <c r="AH62" s="51"/>
-      <c r="AI62" s="51"/>
-      <c r="AJ62" s="51"/>
-      <c r="AK62" s="51"/>
+      <c r="K62" s="78"/>
+      <c r="L62" s="78"/>
+      <c r="M62" s="78"/>
+      <c r="N62" s="78"/>
+      <c r="O62" s="78"/>
+      <c r="P62" s="78"/>
+      <c r="Q62" s="83"/>
+      <c r="R62" s="42"/>
+      <c r="S62" s="42"/>
+      <c r="T62" s="42"/>
+      <c r="U62" s="42"/>
+      <c r="V62" s="42"/>
+      <c r="W62" s="42"/>
+      <c r="X62" s="42"/>
+      <c r="Y62" s="42"/>
+      <c r="Z62" s="42"/>
+      <c r="AA62" s="42"/>
+      <c r="AB62" s="42"/>
+      <c r="AC62" s="42"/>
+      <c r="AD62" s="42"/>
+      <c r="AE62" s="42"/>
+      <c r="AF62" s="42"/>
+      <c r="AG62" s="42"/>
+      <c r="AH62" s="42"/>
+      <c r="AI62" s="42"/>
+      <c r="AJ62" s="42"/>
+      <c r="AK62" s="42"/>
     </row>
     <row r="63" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B63" s="3"/>
@@ -6578,6 +6772,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="B57:G57"/>
     <mergeCell ref="H60:I60"/>
     <mergeCell ref="H62:I62"/>
@@ -6588,13 +6789,6 @@
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B56"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Sprint-1_Mecanicas.xlsx
+++ b/Sprint-1_Mecanicas.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI-D\Documents\MecanicasAvanzao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_ENTI\Mecanicas avanzadas\Mix_Mecanicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -342,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +379,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="38">
     <border>
@@ -883,7 +889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1080,13 +1086,184 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1095,19 +1272,13 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1119,7 +1290,22 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1128,21 +1314,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1152,170 +1323,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1417,28 +1429,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>19.8</c:v>
+                  <c:v>19.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.8</c:v>
+                  <c:v>19.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.8</c:v>
+                  <c:v>19.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.8</c:v>
+                  <c:v>19.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.8</c:v>
+                  <c:v>19.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.8</c:v>
+                  <c:v>19.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.8</c:v>
+                  <c:v>19.05</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.8</c:v>
+                  <c:v>19.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1505,6 +1517,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1602,28 +1615,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>19.8</c:v>
+                  <c:v>19.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.8</c:v>
+                  <c:v>19.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.8</c:v>
+                  <c:v>19.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.8</c:v>
+                  <c:v>19.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.8</c:v>
+                  <c:v>19.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.8</c:v>
+                  <c:v>19.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.8</c:v>
+                  <c:v>19.05</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.8</c:v>
+                  <c:v>19.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1864,23 +1877,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1916,23 +1912,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2111,55 +2090,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:F30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.77734375" customWidth="1"/>
-    <col min="4" max="4" width="55.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="55.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="46.8" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:37" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-    </row>
-    <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="77" t="s">
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+    </row>
+    <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="79"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="106"/>
       <c r="R2" s="52"/>
       <c r="S2" s="42"/>
       <c r="T2" s="42"/>
@@ -2181,7 +2160,7 @@
       <c r="AJ2" s="42"/>
       <c r="AK2" s="42"/>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
@@ -2251,18 +2230,18 @@
       <c r="AJ3" s="41"/>
       <c r="AK3" s="41"/>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="115" t="s">
+    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117" t="s">
+      <c r="D4" s="83"/>
+      <c r="E4" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="84" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="26">
@@ -2304,16 +2283,16 @@
       <c r="AJ4" s="25"/>
       <c r="AK4" s="25"/>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="119"/>
-      <c r="C5" s="120" t="s">
+    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="108"/>
+      <c r="C5" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121" t="s">
+      <c r="D5" s="86"/>
+      <c r="E5" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="122" t="s">
+      <c r="F5" s="87" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="27">
@@ -2355,16 +2334,16 @@
       <c r="AJ5" s="25"/>
       <c r="AK5" s="25"/>
     </row>
-    <row r="6" spans="1:37" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="119"/>
-      <c r="C6" s="120" t="s">
+    <row r="6" spans="1:37" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="108"/>
+      <c r="C6" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121" t="s">
+      <c r="D6" s="86"/>
+      <c r="E6" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="122" t="s">
+      <c r="F6" s="87" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="27">
@@ -2406,36 +2385,36 @@
       <c r="AJ6" s="25"/>
       <c r="AK6" s="25"/>
     </row>
-    <row r="7" spans="1:37" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="123"/>
-      <c r="C7" s="124" t="s">
+    <row r="7" spans="1:37" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="109"/>
+      <c r="C7" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125" t="s">
+      <c r="D7" s="89"/>
+      <c r="E7" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="126" t="s">
+      <c r="F7" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="98">
+      <c r="G7" s="71">
         <v>2</v>
       </c>
-      <c r="H7" s="97">
+      <c r="H7" s="70">
         <v>0.1</v>
       </c>
       <c r="I7" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="99"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="72"/>
       <c r="R7" s="48"/>
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
@@ -2457,20 +2436,20 @@
       <c r="AJ7" s="25"/>
       <c r="AK7" s="37"/>
     </row>
-    <row r="8" spans="1:37" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="127" t="s">
+    <row r="8" spans="1:37" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="128" t="s">
+      <c r="C8" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="129" t="s">
+      <c r="D8" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="129" t="s">
+      <c r="E8" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="129" t="s">
+      <c r="F8" s="91" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="26">
@@ -2512,16 +2491,16 @@
       <c r="AJ8" s="25"/>
       <c r="AK8" s="25"/>
     </row>
-    <row r="9" spans="1:37" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="130"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="132" t="s">
+    <row r="9" spans="1:37" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="114"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="132" t="s">
+      <c r="E9" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="132" t="s">
+      <c r="F9" s="92" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="27">
@@ -2563,16 +2542,16 @@
       <c r="AJ9" s="25"/>
       <c r="AK9" s="25"/>
     </row>
-    <row r="10" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="130"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="132" t="s">
+    <row r="10" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="114"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="132" t="s">
+      <c r="E10" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="132" t="s">
+      <c r="F10" s="92" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="27">
@@ -2614,36 +2593,36 @@
       <c r="AJ10" s="25"/>
       <c r="AK10" s="25"/>
     </row>
-    <row r="11" spans="1:37" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="133"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="135" t="s">
+    <row r="11" spans="1:37" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="115"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="135" t="s">
+      <c r="E11" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="135" t="s">
+      <c r="F11" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="98">
+      <c r="G11" s="71">
         <v>2</v>
       </c>
-      <c r="H11" s="97">
+      <c r="H11" s="70">
         <v>0.3</v>
       </c>
       <c r="I11" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="99"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="72"/>
       <c r="R11" s="48"/>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
@@ -2665,38 +2644,38 @@
       <c r="AJ11" s="25"/>
       <c r="AK11" s="25"/>
     </row>
-    <row r="12" spans="1:37" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="136" t="s">
+    <row r="12" spans="1:37" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138" t="s">
+      <c r="D12" s="96"/>
+      <c r="E12" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="138" t="s">
+      <c r="F12" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="74">
         <v>6</v>
       </c>
-      <c r="H12" s="100">
+      <c r="H12" s="73">
         <v>3</v>
       </c>
       <c r="I12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="102"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="75"/>
       <c r="R12" s="48"/>
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
@@ -2718,20 +2697,20 @@
       <c r="AJ12" s="25"/>
       <c r="AK12" s="25"/>
     </row>
-    <row r="13" spans="1:37" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="103" t="s">
+    <row r="13" spans="1:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="117" t="s">
+      <c r="D13" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="117" t="s">
+      <c r="E13" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="117" t="s">
+      <c r="F13" s="83" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="26">
@@ -2773,16 +2752,16 @@
       <c r="AJ13" s="25"/>
       <c r="AK13" s="25"/>
     </row>
-    <row r="14" spans="1:37" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="72"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="121" t="s">
+    <row r="14" spans="1:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="120"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="121" t="s">
+      <c r="E14" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="121" t="s">
+      <c r="F14" s="86" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="27">
@@ -2824,16 +2803,16 @@
       <c r="AJ14" s="25"/>
       <c r="AK14" s="25"/>
     </row>
-    <row r="15" spans="1:37" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="72"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="141" t="s">
+    <row r="15" spans="1:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="120"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="141" t="s">
+      <c r="E15" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="141" t="s">
+      <c r="F15" s="99" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="27">
@@ -2875,16 +2854,16 @@
       <c r="AJ15" s="25"/>
       <c r="AK15" s="25"/>
     </row>
-    <row r="16" spans="1:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="72"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="121" t="s">
+    <row r="16" spans="1:37" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="120"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="121" t="s">
+      <c r="E16" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="121" t="s">
+      <c r="F16" s="86" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="27">
@@ -2926,16 +2905,16 @@
       <c r="AJ16" s="37"/>
       <c r="AK16" s="25"/>
     </row>
-    <row r="17" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="72"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="121" t="s">
+    <row r="17" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="120"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="121" t="s">
+      <c r="E17" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="121" t="s">
+      <c r="F17" s="86" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="27">
@@ -2977,36 +2956,36 @@
       <c r="AJ17" s="37"/>
       <c r="AK17" s="25"/>
     </row>
-    <row r="18" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="105"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="125" t="s">
+    <row r="18" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="121"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="125" t="s">
+      <c r="E18" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="125" t="s">
+      <c r="F18" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="98">
+      <c r="G18" s="71">
         <v>4</v>
       </c>
-      <c r="H18" s="97">
+      <c r="H18" s="70">
         <v>0.2</v>
       </c>
       <c r="I18" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="99"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="72"/>
       <c r="R18" s="48"/>
       <c r="S18" s="25"/>
       <c r="T18" s="37"/>
@@ -3028,20 +3007,20 @@
       <c r="AJ18" s="37"/>
       <c r="AK18" s="25"/>
     </row>
-    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="103" t="s">
+    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="104" t="s">
+      <c r="C19" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="117" t="s">
+      <c r="D19" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="117" t="s">
+      <c r="E19" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="117" t="s">
+      <c r="F19" s="83" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="26">
@@ -3083,16 +3062,16 @@
       <c r="AJ19" s="37"/>
       <c r="AK19" s="25"/>
     </row>
-    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="72"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="132" t="s">
+    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="120"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="132" t="s">
+      <c r="E20" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="132" t="s">
+      <c r="F20" s="92" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="27">
@@ -3134,16 +3113,16 @@
       <c r="AJ20" s="37"/>
       <c r="AK20" s="25"/>
     </row>
-    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="72"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="132" t="s">
+    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="120"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="132" t="s">
+      <c r="E21" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="132" t="s">
+      <c r="F21" s="92" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="27">
@@ -3185,36 +3164,36 @@
       <c r="AJ21" s="37"/>
       <c r="AK21" s="25"/>
     </row>
-    <row r="22" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="105"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="135" t="s">
+    <row r="22" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="121"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="135" t="s">
+      <c r="E22" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="135" t="s">
+      <c r="F22" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="98">
+      <c r="G22" s="71">
         <v>5</v>
       </c>
-      <c r="H22" s="97">
+      <c r="H22" s="70">
         <v>0.4</v>
       </c>
       <c r="I22" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="99"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="72"/>
       <c r="R22" s="48"/>
       <c r="S22" s="25"/>
       <c r="T22" s="37"/>
@@ -3236,24 +3215,24 @@
       <c r="AJ22" s="37"/>
       <c r="AK22" s="25"/>
     </row>
-    <row r="23" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="103" t="s">
+    <row r="23" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="139" t="s">
+      <c r="C23" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="140"/>
-      <c r="E23" s="116" t="s">
+      <c r="D23" s="98"/>
+      <c r="E23" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="108">
+      <c r="G23" s="77">
         <v>2</v>
       </c>
-      <c r="H23" s="107">
+      <c r="H23" s="76">
         <v>2</v>
       </c>
       <c r="I23" s="59">
@@ -3289,14 +3268,14 @@
       <c r="AJ23" s="37"/>
       <c r="AK23" s="25"/>
     </row>
-    <row r="24" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="72"/>
-      <c r="C24" s="142" t="s">
+    <row r="24" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="120"/>
+      <c r="C24" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141" t="s">
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="27">
@@ -3338,14 +3317,14 @@
       <c r="AJ24" s="37"/>
       <c r="AK24" s="25"/>
     </row>
-    <row r="25" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="72"/>
-      <c r="C25" s="143" t="s">
+    <row r="25" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="120"/>
+      <c r="C25" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141" t="s">
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="27">
@@ -3387,34 +3366,36 @@
       <c r="AJ25" s="38"/>
       <c r="AK25" s="37"/>
     </row>
-    <row r="26" spans="2:37" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="105"/>
-      <c r="C26" s="144" t="s">
+    <row r="26" spans="2:37" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="121"/>
+      <c r="C26" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145" t="s">
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="98">
+      <c r="G26" s="71">
         <v>7</v>
       </c>
-      <c r="H26" s="97">
+      <c r="H26" s="70">
         <v>0.75</v>
       </c>
       <c r="I26" s="60">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="99"/>
+        <v>0.75</v>
+      </c>
+      <c r="J26" s="149">
+        <v>0.75</v>
+      </c>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
+      <c r="N26" s="149"/>
+      <c r="O26" s="149"/>
+      <c r="P26" s="149"/>
+      <c r="Q26" s="150"/>
       <c r="R26" s="48"/>
       <c r="S26" s="25"/>
       <c r="T26" s="37"/>
@@ -3436,18 +3417,18 @@
       <c r="AJ26" s="37"/>
       <c r="AK26" s="37"/>
     </row>
-    <row r="27" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="103" t="s">
+    <row r="27" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="146" t="s">
+      <c r="C27" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="129" t="s">
+      <c r="D27" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129" t="s">
+      <c r="E27" s="91"/>
+      <c r="F27" s="91" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="26">
@@ -3489,14 +3470,14 @@
       <c r="AJ27" s="37"/>
       <c r="AK27" s="37"/>
     </row>
-    <row r="28" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="72"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="132" t="s">
+    <row r="28" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="120"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132" t="s">
+      <c r="E28" s="92"/>
+      <c r="F28" s="92" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="27">
@@ -3538,14 +3519,14 @@
       <c r="AJ28" s="37"/>
       <c r="AK28" s="37"/>
     </row>
-    <row r="29" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="72"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="132" t="s">
+    <row r="29" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="120"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132" t="s">
+      <c r="E29" s="92"/>
+      <c r="F29" s="92" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="27">
@@ -3587,34 +3568,34 @@
       <c r="AJ29" s="37"/>
       <c r="AK29" s="37"/>
     </row>
-    <row r="30" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="105"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="135" t="s">
+    <row r="30" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="121"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135" t="s">
+      <c r="E30" s="93"/>
+      <c r="F30" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="98">
+      <c r="G30" s="71">
         <v>4</v>
       </c>
-      <c r="H30" s="97">
+      <c r="H30" s="70">
         <v>2</v>
       </c>
       <c r="I30" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="97"/>
-      <c r="O30" s="97"/>
-      <c r="P30" s="97"/>
-      <c r="Q30" s="99"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="72"/>
       <c r="R30" s="48"/>
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
@@ -3636,52 +3617,52 @@
       <c r="AJ30" s="37"/>
       <c r="AK30" s="37"/>
     </row>
-    <row r="31" spans="2:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="109" t="s">
+    <row r="31" spans="2:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="111">
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="78">
         <f>SUM(H4:H30)</f>
         <v>19.8</v>
       </c>
-      <c r="I31" s="111">
+      <c r="I31" s="78">
         <f>SUM(I4:I30)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="111">
+        <v>0.75</v>
+      </c>
+      <c r="J31" s="78">
         <f>SUM(J4:J30)</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="111">
+        <v>0.75</v>
+      </c>
+      <c r="K31" s="78">
         <f>SUM(K4:K30)</f>
         <v>0</v>
       </c>
-      <c r="L31" s="111">
+      <c r="L31" s="78">
         <f t="shared" ref="L31:Q31" si="1">SUM(L4:L30)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="111">
+      <c r="M31" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N31" s="111">
+      <c r="N31" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O31" s="111">
+      <c r="O31" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P31" s="111">
+      <c r="P31" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="111">
+      <c r="Q31" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3706,7 +3687,7 @@
       <c r="AJ31" s="35"/>
       <c r="AK31" s="35"/>
     </row>
-    <row r="32" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3715,16 +3696,16 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="77" t="s">
+      <c r="J32" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="83"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="105"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="110"/>
       <c r="R32" s="42"/>
       <c r="S32" s="42"/>
       <c r="T32" s="42"/>
@@ -3746,7 +3727,7 @@
       <c r="AJ32" s="42"/>
       <c r="AK32" s="42"/>
     </row>
-    <row r="33" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>19</v>
       </c>
@@ -3790,8 +3771,8 @@
       <c r="AJ33" s="45"/>
       <c r="AK33" s="45"/>
     </row>
-    <row r="34" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="112" t="s">
+    <row r="34" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="79" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="21">
@@ -3808,41 +3789,41 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="77" t="s">
+      <c r="H34" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="I34" s="83"/>
+      <c r="I34" s="110"/>
       <c r="J34" s="9">
         <f>SUM(H31,-J31)</f>
-        <v>19.8</v>
+        <v>19.05</v>
       </c>
       <c r="K34" s="9">
         <f>SUM(J34,-K31)</f>
-        <v>19.8</v>
+        <v>19.05</v>
       </c>
       <c r="L34" s="9">
         <f t="shared" ref="L34:Q34" si="2">SUM(K34,-L31)</f>
-        <v>19.8</v>
+        <v>19.05</v>
       </c>
       <c r="M34" s="9">
         <f t="shared" si="2"/>
-        <v>19.8</v>
+        <v>19.05</v>
       </c>
       <c r="N34" s="9">
         <f t="shared" si="2"/>
-        <v>19.8</v>
+        <v>19.05</v>
       </c>
       <c r="O34" s="9">
         <f t="shared" si="2"/>
-        <v>19.8</v>
+        <v>19.05</v>
       </c>
       <c r="P34" s="9">
         <f t="shared" si="2"/>
-        <v>19.8</v>
+        <v>19.05</v>
       </c>
       <c r="Q34" s="9">
         <f t="shared" si="2"/>
-        <v>19.8</v>
+        <v>19.05</v>
       </c>
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
@@ -3865,8 +3846,8 @@
       <c r="AJ34" s="35"/>
       <c r="AK34" s="35"/>
     </row>
-    <row r="35" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="113" t="s">
+    <row r="35" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="80" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="19">
@@ -3910,8 +3891,8 @@
       <c r="AJ35" s="45"/>
       <c r="AK35" s="45"/>
     </row>
-    <row r="36" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="114" t="s">
+    <row r="36" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="81" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="30">
@@ -3920,28 +3901,28 @@
       </c>
       <c r="D36" s="31">
         <f>SUM(I12,I15,I24:I26)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E36" s="29">
         <f t="shared" si="3"/>
-        <v>6.3</v>
+        <v>5.55</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="H36" s="77" t="s">
+      <c r="H36" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="78"/>
-      <c r="J36" s="77">
+      <c r="I36" s="105"/>
+      <c r="J36" s="104">
         <f>H31-I31</f>
-        <v>19.8</v>
-      </c>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="78"/>
-      <c r="Q36" s="83"/>
+        <v>19.05</v>
+      </c>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="105"/>
+      <c r="N36" s="105"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="110"/>
       <c r="R36" s="42"/>
       <c r="S36" s="42"/>
       <c r="T36" s="42"/>
@@ -3963,7 +3944,7 @@
       <c r="AJ36" s="42"/>
       <c r="AK36" s="42"/>
     </row>
-    <row r="37" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -3977,7 +3958,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -3991,7 +3972,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -4005,42 +3986,47 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
     </row>
-    <row r="53" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
     </row>
-    <row r="55" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="H34:I34"/>
@@ -4053,11 +4039,6 @@
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4073,24 +4054,24 @@
       <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.77734375" customWidth="1"/>
-    <col min="4" max="4" width="55.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="55.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -4098,17 +4079,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="77" t="s">
+    <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="79"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="106"/>
       <c r="R2" s="52"/>
       <c r="S2" s="42"/>
       <c r="T2" s="42"/>
@@ -4130,7 +4111,7 @@
       <c r="AJ2" s="42"/>
       <c r="AK2" s="42"/>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
@@ -4200,8 +4181,8 @@
       <c r="AJ3" s="41"/>
       <c r="AK3" s="41"/>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="94" t="s">
+    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="133" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="66" t="s">
@@ -4245,8 +4226,8 @@
       <c r="AJ4" s="25"/>
       <c r="AK4" s="25"/>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="95"/>
+    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="134"/>
       <c r="C5" s="67" t="s">
         <v>24</v>
       </c>
@@ -4288,8 +4269,8 @@
       <c r="AJ5" s="25"/>
       <c r="AK5" s="25"/>
     </row>
-    <row r="6" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="95"/>
+    <row r="6" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="134"/>
       <c r="C6" s="56" t="s">
         <v>25</v>
       </c>
@@ -4331,8 +4312,8 @@
       <c r="AJ6" s="25"/>
       <c r="AK6" s="25"/>
     </row>
-    <row r="7" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="95"/>
+    <row r="7" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="134"/>
       <c r="C7" s="56" t="s">
         <v>26</v>
       </c>
@@ -4374,8 +4355,8 @@
       <c r="AJ7" s="25"/>
       <c r="AK7" s="25"/>
     </row>
-    <row r="8" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="95"/>
+    <row r="8" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="134"/>
       <c r="C8" s="56" t="s">
         <v>56</v>
       </c>
@@ -4414,8 +4395,8 @@
       <c r="AJ8" s="25"/>
       <c r="AK8" s="25"/>
     </row>
-    <row r="9" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="95"/>
+    <row r="9" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="134"/>
       <c r="C9" s="56" t="s">
         <v>55</v>
       </c>
@@ -4454,8 +4435,8 @@
       <c r="AJ9" s="25"/>
       <c r="AK9" s="25"/>
     </row>
-    <row r="10" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="95"/>
+    <row r="10" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="134"/>
       <c r="C10" s="56" t="s">
         <v>27</v>
       </c>
@@ -4497,8 +4478,8 @@
       <c r="AJ10" s="25"/>
       <c r="AK10" s="25"/>
     </row>
-    <row r="11" spans="1:37" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="95"/>
+    <row r="11" spans="1:37" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="134"/>
       <c r="C11" s="56" t="s">
         <v>52</v>
       </c>
@@ -4540,8 +4521,8 @@
       <c r="AJ11" s="25"/>
       <c r="AK11" s="25"/>
     </row>
-    <row r="12" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="80" t="s">
+    <row r="12" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="135" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="56" t="s">
@@ -4585,8 +4566,8 @@
       <c r="AJ12" s="25"/>
       <c r="AK12" s="25"/>
     </row>
-    <row r="13" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="81"/>
+    <row r="13" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="136"/>
       <c r="C13" s="56" t="s">
         <v>31</v>
       </c>
@@ -4628,8 +4609,8 @@
       <c r="AJ13" s="25"/>
       <c r="AK13" s="25"/>
     </row>
-    <row r="14" spans="1:37" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="81"/>
+    <row r="14" spans="1:37" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="136"/>
       <c r="C14" s="56" t="s">
         <v>30</v>
       </c>
@@ -4671,8 +4652,8 @@
       <c r="AJ14" s="25"/>
       <c r="AK14" s="25"/>
     </row>
-    <row r="15" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="82"/>
+    <row r="15" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="137"/>
       <c r="C15" s="56" t="s">
         <v>32</v>
       </c>
@@ -4714,11 +4695,11 @@
       <c r="AJ15" s="25"/>
       <c r="AK15" s="37"/>
     </row>
-    <row r="16" spans="1:37" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="86" t="s">
+    <row r="16" spans="1:37" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="141" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -4761,9 +4742,9 @@
       <c r="AJ16" s="25"/>
       <c r="AK16" s="25"/>
     </row>
-    <row r="17" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="87"/>
-      <c r="C17" s="89"/>
+    <row r="17" spans="2:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="139"/>
+      <c r="C17" s="142"/>
       <c r="D17" s="25" t="s">
         <v>36</v>
       </c>
@@ -4804,9 +4785,9 @@
       <c r="AJ17" s="25"/>
       <c r="AK17" s="25"/>
     </row>
-    <row r="18" spans="2:37" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="87"/>
-      <c r="C18" s="90"/>
+    <row r="18" spans="2:37" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="139"/>
+      <c r="C18" s="143"/>
       <c r="D18" s="25" t="s">
         <v>37</v>
       </c>
@@ -4847,8 +4828,8 @@
       <c r="AJ18" s="25"/>
       <c r="AK18" s="25"/>
     </row>
-    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="87"/>
+    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="139"/>
       <c r="C19" s="62"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -4888,8 +4869,8 @@
       <c r="AJ19" s="25"/>
       <c r="AK19" s="25"/>
     </row>
-    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="87"/>
+    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="139"/>
       <c r="C20" s="62"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -4929,8 +4910,8 @@
       <c r="AJ20" s="25"/>
       <c r="AK20" s="25"/>
     </row>
-    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="87"/>
+    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="139"/>
       <c r="C21" s="62"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -4970,8 +4951,8 @@
       <c r="AJ21" s="25"/>
       <c r="AK21" s="25"/>
     </row>
-    <row r="22" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="96"/>
+    <row r="22" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="140"/>
       <c r="C22" s="62"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -5011,7 +4992,7 @@
       <c r="AJ22" s="25"/>
       <c r="AK22" s="25"/>
     </row>
-    <row r="23" spans="2:37" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:37" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="34" t="s">
         <v>38</v>
       </c>
@@ -5056,11 +5037,11 @@
       <c r="AJ23" s="25"/>
       <c r="AK23" s="25"/>
     </row>
-    <row r="24" spans="2:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="71" t="s">
+    <row r="24" spans="2:37" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="131" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -5103,9 +5084,9 @@
       <c r="AJ24" s="37"/>
       <c r="AK24" s="25"/>
     </row>
-    <row r="25" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="72"/>
-      <c r="C25" s="75"/>
+    <row r="25" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="120"/>
+      <c r="C25" s="127"/>
       <c r="D25" s="25" t="s">
         <v>41</v>
       </c>
@@ -5146,9 +5127,9 @@
       <c r="AJ25" s="37"/>
       <c r="AK25" s="25"/>
     </row>
-    <row r="26" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="73"/>
-      <c r="C26" s="76"/>
+    <row r="26" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="130"/>
+      <c r="C26" s="132"/>
       <c r="D26" s="25" t="s">
         <v>48</v>
       </c>
@@ -5189,8 +5170,8 @@
       <c r="AJ26" s="37"/>
       <c r="AK26" s="25"/>
     </row>
-    <row r="27" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="71" t="s">
+    <row r="27" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="129" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="69" t="s">
@@ -5234,8 +5215,8 @@
       <c r="AJ27" s="37"/>
       <c r="AK27" s="25"/>
     </row>
-    <row r="28" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="72"/>
+    <row r="28" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="120"/>
       <c r="C28" s="64" t="s">
         <v>54</v>
       </c>
@@ -5274,8 +5255,8 @@
       <c r="AJ28" s="37"/>
       <c r="AK28" s="25"/>
     </row>
-    <row r="29" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="72"/>
+    <row r="29" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="120"/>
       <c r="C29" s="68" t="s">
         <v>44</v>
       </c>
@@ -5317,8 +5298,8 @@
       <c r="AJ29" s="38"/>
       <c r="AK29" s="37"/>
     </row>
-    <row r="30" spans="2:37" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="73"/>
+    <row r="30" spans="2:37" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="130"/>
       <c r="C30" s="63" t="s">
         <v>53</v>
       </c>
@@ -5360,11 +5341,11 @@
       <c r="AJ30" s="37"/>
       <c r="AK30" s="37"/>
     </row>
-    <row r="31" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="71" t="s">
+    <row r="31" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="131" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="25" t="s">
@@ -5407,9 +5388,9 @@
       <c r="AJ31" s="37"/>
       <c r="AK31" s="37"/>
     </row>
-    <row r="32" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="72"/>
-      <c r="C32" s="75"/>
+    <row r="32" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="120"/>
+      <c r="C32" s="127"/>
       <c r="D32" s="25" t="s">
         <v>46</v>
       </c>
@@ -5450,9 +5431,9 @@
       <c r="AJ32" s="37"/>
       <c r="AK32" s="37"/>
     </row>
-    <row r="33" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="72"/>
-      <c r="C33" s="76"/>
+    <row r="33" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="120"/>
+      <c r="C33" s="132"/>
       <c r="D33" s="25" t="s">
         <v>47</v>
       </c>
@@ -5493,8 +5474,8 @@
       <c r="AJ33" s="37"/>
       <c r="AK33" s="37"/>
     </row>
-    <row r="34" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="73"/>
+    <row r="34" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="130"/>
       <c r="C34" s="63"/>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
@@ -5534,8 +5515,8 @@
       <c r="AJ34" s="37"/>
       <c r="AK34" s="37"/>
     </row>
-    <row r="35" spans="2:37" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="71" t="s">
+    <row r="35" spans="2:37" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="129" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="63" t="s">
@@ -5579,8 +5560,8 @@
       <c r="AJ35" s="37"/>
       <c r="AK35" s="37"/>
     </row>
-    <row r="36" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="72"/>
+    <row r="36" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="120"/>
       <c r="C36" s="58" t="s">
         <v>51</v>
       </c>
@@ -5622,8 +5603,8 @@
       <c r="AJ36" s="25"/>
       <c r="AK36" s="37"/>
     </row>
-    <row r="37" spans="2:37" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="72"/>
+    <row r="37" spans="2:37" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="120"/>
       <c r="C37" s="58"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
@@ -5663,8 +5644,8 @@
       <c r="AJ37" s="25"/>
       <c r="AK37" s="37"/>
     </row>
-    <row r="38" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="73"/>
+    <row r="38" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="130"/>
       <c r="C38" s="54"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -5704,7 +5685,7 @@
       <c r="AJ38" s="37"/>
       <c r="AK38" s="37"/>
     </row>
-    <row r="39" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="65"/>
       <c r="C39" s="58"/>
       <c r="D39" s="25"/>
@@ -5745,7 +5726,7 @@
       <c r="AJ39" s="38"/>
       <c r="AK39" s="37"/>
     </row>
-    <row r="40" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="65"/>
       <c r="C40" s="58"/>
       <c r="D40" s="25"/>
@@ -5786,7 +5767,7 @@
       <c r="AJ40" s="25"/>
       <c r="AK40" s="37"/>
     </row>
-    <row r="41" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="65"/>
       <c r="C41" s="58"/>
       <c r="D41" s="25"/>
@@ -5827,7 +5808,7 @@
       <c r="AJ41" s="25"/>
       <c r="AK41" s="37"/>
     </row>
-    <row r="42" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="65"/>
       <c r="C42" s="58"/>
       <c r="D42" s="25"/>
@@ -5868,7 +5849,7 @@
       <c r="AJ42" s="25"/>
       <c r="AK42" s="37"/>
     </row>
-    <row r="43" spans="2:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:37" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="65"/>
       <c r="C43" s="58"/>
       <c r="D43" s="25"/>
@@ -5909,7 +5890,7 @@
       <c r="AJ43" s="25"/>
       <c r="AK43" s="37"/>
     </row>
-    <row r="44" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="65"/>
       <c r="C44" s="58"/>
       <c r="D44" s="25"/>
@@ -5950,7 +5931,7 @@
       <c r="AJ44" s="25"/>
       <c r="AK44" s="37"/>
     </row>
-    <row r="45" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="65"/>
       <c r="C45" s="64"/>
       <c r="D45" s="25"/>
@@ -5991,7 +5972,7 @@
       <c r="AJ45" s="38"/>
       <c r="AK45" s="38"/>
     </row>
-    <row r="46" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="65"/>
       <c r="C46" s="64"/>
       <c r="D46" s="25"/>
@@ -6032,7 +6013,7 @@
       <c r="AJ46" s="38"/>
       <c r="AK46" s="38"/>
     </row>
-    <row r="47" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="65"/>
       <c r="C47" s="55"/>
       <c r="D47" s="25"/>
@@ -6073,7 +6054,7 @@
       <c r="AJ47" s="25"/>
       <c r="AK47" s="37"/>
     </row>
-    <row r="48" spans="2:37" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:37" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="65"/>
       <c r="C48" s="58"/>
       <c r="D48" s="25"/>
@@ -6114,8 +6095,8 @@
       <c r="AJ48" s="37"/>
       <c r="AK48" s="37"/>
     </row>
-    <row r="49" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="91"/>
+    <row r="49" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="146"/>
       <c r="C49" s="37"/>
       <c r="D49" s="25"/>
       <c r="E49" s="37"/>
@@ -6155,8 +6136,8 @@
       <c r="AJ49" s="25"/>
       <c r="AK49" s="25"/>
     </row>
-    <row r="50" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="91"/>
+    <row r="50" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="146"/>
       <c r="C50" s="37"/>
       <c r="D50" s="25"/>
       <c r="E50" s="37"/>
@@ -6196,8 +6177,8 @@
       <c r="AJ50" s="25"/>
       <c r="AK50" s="25"/>
     </row>
-    <row r="51" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="91"/>
+    <row r="51" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="146"/>
       <c r="C51" s="62"/>
       <c r="D51" s="25"/>
       <c r="E51" s="37"/>
@@ -6237,8 +6218,8 @@
       <c r="AJ51" s="25"/>
       <c r="AK51" s="25"/>
     </row>
-    <row r="52" spans="2:37" ht="21" x14ac:dyDescent="0.3">
-      <c r="B52" s="92"/>
+    <row r="52" spans="2:37" ht="21" x14ac:dyDescent="0.25">
+      <c r="B52" s="147"/>
       <c r="C52" s="62"/>
       <c r="D52" s="25"/>
       <c r="E52" s="37"/>
@@ -6278,8 +6259,8 @@
       <c r="AJ52" s="25"/>
       <c r="AK52" s="25"/>
     </row>
-    <row r="53" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="93"/>
+    <row r="53" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="148"/>
       <c r="C53" s="56"/>
       <c r="D53" s="25"/>
       <c r="E53" s="37"/>
@@ -6319,8 +6300,8 @@
       <c r="AJ53" s="25"/>
       <c r="AK53" s="25"/>
     </row>
-    <row r="54" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="93"/>
+    <row r="54" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="148"/>
       <c r="C54" s="56"/>
       <c r="D54" s="25"/>
       <c r="E54" s="37"/>
@@ -6360,8 +6341,8 @@
       <c r="AJ54" s="25"/>
       <c r="AK54" s="25"/>
     </row>
-    <row r="55" spans="2:37" ht="21" x14ac:dyDescent="0.3">
-      <c r="B55" s="93"/>
+    <row r="55" spans="2:37" ht="21" x14ac:dyDescent="0.25">
+      <c r="B55" s="148"/>
       <c r="C55" s="37"/>
       <c r="D55" s="25"/>
       <c r="E55" s="37"/>
@@ -6401,8 +6382,8 @@
       <c r="AJ55" s="25"/>
       <c r="AK55" s="25"/>
     </row>
-    <row r="56" spans="2:37" ht="21" x14ac:dyDescent="0.3">
-      <c r="B56" s="93"/>
+    <row r="56" spans="2:37" ht="21" x14ac:dyDescent="0.25">
+      <c r="B56" s="148"/>
       <c r="C56" s="37"/>
       <c r="D56" s="25"/>
       <c r="E56" s="37"/>
@@ -6442,15 +6423,15 @@
       <c r="AJ56" s="38"/>
       <c r="AK56" s="38"/>
     </row>
-    <row r="57" spans="2:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="84" t="s">
+    <row r="57" spans="2:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="85"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
+      <c r="G57" s="145"/>
       <c r="H57" s="60">
         <f t="shared" ref="H57:I57" si="2">SUM(H4:H56)</f>
         <v>0</v>
@@ -6488,7 +6469,7 @@
       <c r="AJ57" s="35"/>
       <c r="AK57" s="35"/>
     </row>
-    <row r="58" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -6528,7 +6509,7 @@
       <c r="AJ58" s="42"/>
       <c r="AK58" s="42"/>
     </row>
-    <row r="59" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="16" t="s">
         <v>19</v>
       </c>
@@ -6572,7 +6553,7 @@
       <c r="AJ59" s="45"/>
       <c r="AK59" s="45"/>
     </row>
-    <row r="60" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="22" t="s">
         <v>14</v>
       </c>
@@ -6581,10 +6562,10 @@
       <c r="E60" s="29"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="77" t="s">
+      <c r="H60" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="I60" s="83"/>
+      <c r="I60" s="110"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -6614,7 +6595,7 @@
       <c r="AJ60" s="35"/>
       <c r="AK60" s="35"/>
     </row>
-    <row r="61" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="20" t="s">
         <v>13</v>
       </c>
@@ -6650,7 +6631,7 @@
       <c r="AJ61" s="45"/>
       <c r="AK61" s="45"/>
     </row>
-    <row r="62" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="20" t="s">
         <v>15</v>
       </c>
@@ -6658,21 +6639,21 @@
       <c r="D62" s="31"/>
       <c r="E62" s="32"/>
       <c r="F62" s="3"/>
-      <c r="H62" s="77" t="s">
+      <c r="H62" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="I62" s="78"/>
-      <c r="J62" s="77">
+      <c r="I62" s="105"/>
+      <c r="J62" s="104">
         <f>H57-I57</f>
         <v>0</v>
       </c>
-      <c r="K62" s="78"/>
-      <c r="L62" s="78"/>
-      <c r="M62" s="78"/>
-      <c r="N62" s="78"/>
-      <c r="O62" s="78"/>
-      <c r="P62" s="78"/>
-      <c r="Q62" s="83"/>
+      <c r="K62" s="105"/>
+      <c r="L62" s="105"/>
+      <c r="M62" s="105"/>
+      <c r="N62" s="105"/>
+      <c r="O62" s="105"/>
+      <c r="P62" s="105"/>
+      <c r="Q62" s="110"/>
       <c r="R62" s="42"/>
       <c r="S62" s="42"/>
       <c r="T62" s="42"/>
@@ -6694,7 +6675,7 @@
       <c r="AJ62" s="42"/>
       <c r="AK62" s="42"/>
     </row>
-    <row r="63" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -6708,7 +6689,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -6722,7 +6703,7 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -6736,49 +6717,42 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
     </row>
-    <row r="73" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
     </row>
-    <row r="74" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
     </row>
-    <row r="79" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
     </row>
-    <row r="80" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
     </row>
-    <row r="81" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="C16:C18"/>
     <mergeCell ref="B57:G57"/>
     <mergeCell ref="H60:I60"/>
     <mergeCell ref="H62:I62"/>
@@ -6789,6 +6763,13 @@
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6801,7 +6782,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sprint-1_Mecanicas.xlsx
+++ b/Sprint-1_Mecanicas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_ENTI\Mecanicas avanzadas\Mix_Mecanicas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Enti\Mecanicas avanzadas\Definetly not pong\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -342,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,6 +385,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="38">
     <border>
@@ -889,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1188,6 +1200,33 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1231,15 +1270,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1251,17 +1281,11 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1275,6 +1299,15 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1308,25 +1341,16 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1438,19 +1462,19 @@
                   <c:v>19.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.05</c:v>
+                  <c:v>18.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.05</c:v>
+                  <c:v>17.88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.05</c:v>
+                  <c:v>17.88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.05</c:v>
+                  <c:v>17.88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.05</c:v>
+                  <c:v>17.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1624,19 +1648,19 @@
                   <c:v>19.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.05</c:v>
+                  <c:v>18.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.05</c:v>
+                  <c:v>17.88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.05</c:v>
+                  <c:v>17.88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.05</c:v>
+                  <c:v>17.88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.05</c:v>
+                  <c:v>17.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2091,7 +2115,7 @@
   <dimension ref="A1:AK56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,27 +2142,27 @@
       <c r="B1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="104" t="s">
+      <c r="J2" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="106"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="115"/>
       <c r="R2" s="52"/>
       <c r="S2" s="42"/>
       <c r="T2" s="42"/>
@@ -2230,8 +2254,8 @@
       <c r="AJ3" s="41"/>
       <c r="AK3" s="41"/>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="107" t="s">
+    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="116" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="82" t="s">
@@ -2254,10 +2278,18 @@
         <f t="shared" ref="I4:I30" si="0">SUM(J4:AK4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="J4" s="151">
+        <v>0</v>
+      </c>
+      <c r="K4" s="151">
+        <v>0</v>
+      </c>
+      <c r="L4" s="151">
+        <v>0</v>
+      </c>
+      <c r="M4" s="151">
+        <v>0</v>
+      </c>
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
@@ -2283,8 +2315,8 @@
       <c r="AJ4" s="25"/>
       <c r="AK4" s="25"/>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="108"/>
+    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="117"/>
       <c r="C5" s="85" t="s">
         <v>31</v>
       </c>
@@ -2305,10 +2337,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="J5" s="151">
+        <v>0</v>
+      </c>
+      <c r="K5" s="151">
+        <v>0</v>
+      </c>
+      <c r="L5" s="151">
+        <v>0</v>
+      </c>
+      <c r="M5" s="151">
+        <v>0</v>
+      </c>
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
@@ -2334,8 +2374,8 @@
       <c r="AJ5" s="25"/>
       <c r="AK5" s="25"/>
     </row>
-    <row r="6" spans="1:37" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="108"/>
+    <row r="6" spans="1:37" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="117"/>
       <c r="C6" s="85" t="s">
         <v>30</v>
       </c>
@@ -2356,10 +2396,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="J6" s="151">
+        <v>0</v>
+      </c>
+      <c r="K6" s="151">
+        <v>0</v>
+      </c>
+      <c r="L6" s="151">
+        <v>0</v>
+      </c>
+      <c r="M6" s="151">
+        <v>0</v>
+      </c>
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
@@ -2386,7 +2434,7 @@
       <c r="AK6" s="25"/>
     </row>
     <row r="7" spans="1:37" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="109"/>
+      <c r="B7" s="118"/>
       <c r="C7" s="88" t="s">
         <v>32</v>
       </c>
@@ -2407,10 +2455,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
+      <c r="J7" s="151">
+        <v>0</v>
+      </c>
+      <c r="K7" s="151">
+        <v>0</v>
+      </c>
+      <c r="L7" s="151">
+        <v>0</v>
+      </c>
+      <c r="M7" s="151">
+        <v>0</v>
+      </c>
       <c r="N7" s="70"/>
       <c r="O7" s="70"/>
       <c r="P7" s="70"/>
@@ -2436,11 +2492,11 @@
       <c r="AJ7" s="25"/>
       <c r="AK7" s="37"/>
     </row>
-    <row r="8" spans="1:37" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="113" t="s">
+    <row r="8" spans="1:37" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="125" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="91" t="s">
@@ -2462,10 +2518,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
+      <c r="J8" s="151">
+        <v>0</v>
+      </c>
+      <c r="K8" s="151">
+        <v>0</v>
+      </c>
+      <c r="L8" s="151">
+        <v>0</v>
+      </c>
+      <c r="M8" s="151">
+        <v>0</v>
+      </c>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
@@ -2491,9 +2555,9 @@
       <c r="AJ8" s="25"/>
       <c r="AK8" s="25"/>
     </row>
-    <row r="9" spans="1:37" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="114"/>
-      <c r="C9" s="117"/>
+    <row r="9" spans="1:37" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="123"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="92" t="s">
         <v>59</v>
       </c>
@@ -2513,10 +2577,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
+      <c r="J9" s="151">
+        <v>0</v>
+      </c>
+      <c r="K9" s="151">
+        <v>0</v>
+      </c>
+      <c r="L9" s="151">
+        <v>0</v>
+      </c>
+      <c r="M9" s="151">
+        <v>0</v>
+      </c>
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
@@ -2542,9 +2614,9 @@
       <c r="AJ9" s="25"/>
       <c r="AK9" s="25"/>
     </row>
-    <row r="10" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="114"/>
-      <c r="C10" s="117"/>
+    <row r="10" spans="1:37" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="123"/>
+      <c r="C10" s="126"/>
       <c r="D10" s="92" t="s">
         <v>36</v>
       </c>
@@ -2564,10 +2636,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
+      <c r="J10" s="151">
+        <v>0</v>
+      </c>
+      <c r="K10" s="151">
+        <v>0</v>
+      </c>
+      <c r="L10" s="151">
+        <v>0</v>
+      </c>
+      <c r="M10" s="151">
+        <v>0</v>
+      </c>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
@@ -2594,8 +2674,8 @@
       <c r="AK10" s="25"/>
     </row>
     <row r="11" spans="1:37" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="115"/>
-      <c r="C11" s="118"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="127"/>
       <c r="D11" s="93" t="s">
         <v>66</v>
       </c>
@@ -2615,10 +2695,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
+      <c r="J11" s="151">
+        <v>0</v>
+      </c>
+      <c r="K11" s="151">
+        <v>0</v>
+      </c>
+      <c r="L11" s="151">
+        <v>0</v>
+      </c>
+      <c r="M11" s="151">
+        <v>0</v>
+      </c>
       <c r="N11" s="70"/>
       <c r="O11" s="70"/>
       <c r="P11" s="70"/>
@@ -2666,13 +2754,23 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
+        <v>1.17</v>
+      </c>
+      <c r="J12" s="151">
+        <v>0</v>
+      </c>
+      <c r="K12" s="151">
+        <v>0</v>
+      </c>
+      <c r="L12" s="151">
+        <v>0</v>
+      </c>
+      <c r="M12" s="152">
+        <v>0.67</v>
+      </c>
+      <c r="N12" s="152">
+        <v>0.5</v>
+      </c>
       <c r="O12" s="73"/>
       <c r="P12" s="73"/>
       <c r="Q12" s="75"/>
@@ -2698,10 +2796,10 @@
       <c r="AK12" s="25"/>
     </row>
     <row r="13" spans="1:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="110" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="83" t="s">
@@ -2723,10 +2821,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
+      <c r="J13" s="153">
+        <v>0</v>
+      </c>
+      <c r="K13" s="153">
+        <v>0</v>
+      </c>
+      <c r="L13" s="153">
+        <v>0</v>
+      </c>
+      <c r="M13" s="153">
+        <v>0</v>
+      </c>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
@@ -2753,8 +2859,8 @@
       <c r="AK13" s="25"/>
     </row>
     <row r="14" spans="1:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="120"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="86" t="s">
         <v>65</v>
       </c>
@@ -2774,10 +2880,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
+      <c r="J14" s="153">
+        <v>0</v>
+      </c>
+      <c r="K14" s="153">
+        <v>0</v>
+      </c>
+      <c r="L14" s="153">
+        <v>0</v>
+      </c>
+      <c r="M14" s="153">
+        <v>0</v>
+      </c>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
@@ -2804,8 +2918,8 @@
       <c r="AK14" s="25"/>
     </row>
     <row r="15" spans="1:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="120"/>
-      <c r="C15" s="127"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="111"/>
       <c r="D15" s="99" t="s">
         <v>64</v>
       </c>
@@ -2825,10 +2939,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
+      <c r="J15" s="153">
+        <v>0</v>
+      </c>
+      <c r="K15" s="153">
+        <v>0</v>
+      </c>
+      <c r="L15" s="153">
+        <v>0</v>
+      </c>
+      <c r="M15" s="153">
+        <v>0</v>
+      </c>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
@@ -2855,8 +2977,8 @@
       <c r="AK15" s="25"/>
     </row>
     <row r="16" spans="1:37" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="120"/>
-      <c r="C16" s="127"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="111"/>
       <c r="D16" s="86" t="s">
         <v>61</v>
       </c>
@@ -2876,10 +2998,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
+      <c r="J16" s="153">
+        <v>0</v>
+      </c>
+      <c r="K16" s="153">
+        <v>0</v>
+      </c>
+      <c r="L16" s="153">
+        <v>0</v>
+      </c>
+      <c r="M16" s="153">
+        <v>0</v>
+      </c>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
@@ -2906,8 +3036,8 @@
       <c r="AK16" s="25"/>
     </row>
     <row r="17" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="120"/>
-      <c r="C17" s="127"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="111"/>
       <c r="D17" s="86" t="s">
         <v>41</v>
       </c>
@@ -2927,10 +3057,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
+      <c r="J17" s="153">
+        <v>0</v>
+      </c>
+      <c r="K17" s="153">
+        <v>0</v>
+      </c>
+      <c r="L17" s="153">
+        <v>0</v>
+      </c>
+      <c r="M17" s="153">
+        <v>0</v>
+      </c>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
@@ -2957,8 +3095,8 @@
       <c r="AK17" s="25"/>
     </row>
     <row r="18" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="121"/>
-      <c r="C18" s="128"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="112"/>
       <c r="D18" s="89" t="s">
         <v>48</v>
       </c>
@@ -2978,10 +3116,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
+      <c r="J18" s="153">
+        <v>0</v>
+      </c>
+      <c r="K18" s="153">
+        <v>0</v>
+      </c>
+      <c r="L18" s="153">
+        <v>0</v>
+      </c>
+      <c r="M18" s="153">
+        <v>0</v>
+      </c>
       <c r="N18" s="70"/>
       <c r="O18" s="70"/>
       <c r="P18" s="70"/>
@@ -3008,10 +3154,10 @@
       <c r="AK18" s="25"/>
     </row>
     <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="110" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="83" t="s">
@@ -3033,10 +3179,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
+      <c r="J19" s="153">
+        <v>0</v>
+      </c>
+      <c r="K19" s="153">
+        <v>0</v>
+      </c>
+      <c r="L19" s="153">
+        <v>0</v>
+      </c>
+      <c r="M19" s="153">
+        <v>0</v>
+      </c>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
@@ -3063,8 +3217,8 @@
       <c r="AK19" s="25"/>
     </row>
     <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="120"/>
-      <c r="C20" s="127"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="111"/>
       <c r="D20" s="92" t="s">
         <v>59</v>
       </c>
@@ -3084,10 +3238,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
+      <c r="J20" s="153">
+        <v>0</v>
+      </c>
+      <c r="K20" s="153">
+        <v>0</v>
+      </c>
+      <c r="L20" s="153">
+        <v>0</v>
+      </c>
+      <c r="M20" s="153">
+        <v>0</v>
+      </c>
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
@@ -3114,8 +3276,8 @@
       <c r="AK20" s="25"/>
     </row>
     <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="120"/>
-      <c r="C21" s="127"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="111"/>
       <c r="D21" s="92" t="s">
         <v>60</v>
       </c>
@@ -3135,10 +3297,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
+      <c r="J21" s="153">
+        <v>0</v>
+      </c>
+      <c r="K21" s="153">
+        <v>0</v>
+      </c>
+      <c r="L21" s="153">
+        <v>0</v>
+      </c>
+      <c r="M21" s="153">
+        <v>0</v>
+      </c>
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
       <c r="P21" s="25"/>
@@ -3165,8 +3335,8 @@
       <c r="AK21" s="25"/>
     </row>
     <row r="22" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="121"/>
-      <c r="C22" s="128"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="93" t="s">
         <v>61</v>
       </c>
@@ -3186,10 +3356,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
+      <c r="J22" s="153">
+        <v>0</v>
+      </c>
+      <c r="K22" s="153">
+        <v>0</v>
+      </c>
+      <c r="L22" s="153">
+        <v>0</v>
+      </c>
+      <c r="M22" s="153">
+        <v>0</v>
+      </c>
       <c r="N22" s="70"/>
       <c r="O22" s="70"/>
       <c r="P22" s="70"/>
@@ -3216,7 +3394,7 @@
       <c r="AK22" s="25"/>
     </row>
     <row r="23" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="119" t="s">
+      <c r="B23" s="107" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="97" t="s">
@@ -3239,10 +3417,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
+      <c r="J23" s="153">
+        <v>0</v>
+      </c>
+      <c r="K23" s="153">
+        <v>0</v>
+      </c>
+      <c r="L23" s="153">
+        <v>0</v>
+      </c>
+      <c r="M23" s="153">
+        <v>0</v>
+      </c>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
@@ -3269,7 +3455,7 @@
       <c r="AK23" s="25"/>
     </row>
     <row r="24" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="120"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="100" t="s">
         <v>54</v>
       </c>
@@ -3288,10 +3474,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
+      <c r="J24" s="153">
+        <v>0</v>
+      </c>
+      <c r="K24" s="153">
+        <v>0</v>
+      </c>
+      <c r="L24" s="153">
+        <v>0</v>
+      </c>
+      <c r="M24" s="153">
+        <v>0</v>
+      </c>
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
@@ -3318,7 +3512,7 @@
       <c r="AK24" s="25"/>
     </row>
     <row r="25" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="120"/>
+      <c r="B25" s="108"/>
       <c r="C25" s="101" t="s">
         <v>44</v>
       </c>
@@ -3337,10 +3531,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
+      <c r="J25" s="153">
+        <v>0</v>
+      </c>
+      <c r="K25" s="153">
+        <v>0</v>
+      </c>
+      <c r="L25" s="153">
+        <v>0</v>
+      </c>
+      <c r="M25" s="153">
+        <v>0</v>
+      </c>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
@@ -3367,7 +3569,7 @@
       <c r="AK25" s="37"/>
     </row>
     <row r="26" spans="2:37" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="121"/>
+      <c r="B26" s="109"/>
       <c r="C26" s="102" t="s">
         <v>53</v>
       </c>
@@ -3386,16 +3588,16 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="J26" s="149">
+      <c r="J26" s="104">
         <v>0.75</v>
       </c>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-      <c r="N26" s="149"/>
-      <c r="O26" s="149"/>
-      <c r="P26" s="149"/>
-      <c r="Q26" s="150"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="105"/>
       <c r="R26" s="48"/>
       <c r="S26" s="25"/>
       <c r="T26" s="37"/>
@@ -3417,11 +3619,11 @@
       <c r="AJ26" s="37"/>
       <c r="AK26" s="37"/>
     </row>
-    <row r="27" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="119" t="s">
+    <row r="27" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="122" t="s">
+      <c r="C27" s="128" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="91" t="s">
@@ -3441,10 +3643,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
+      <c r="J27" s="154">
+        <v>0</v>
+      </c>
+      <c r="K27" s="154">
+        <v>0</v>
+      </c>
+      <c r="L27" s="154">
+        <v>0</v>
+      </c>
+      <c r="M27" s="154">
+        <v>0</v>
+      </c>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
@@ -3470,9 +3680,9 @@
       <c r="AJ27" s="37"/>
       <c r="AK27" s="37"/>
     </row>
-    <row r="28" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="120"/>
-      <c r="C28" s="123"/>
+    <row r="28" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="108"/>
+      <c r="C28" s="129"/>
       <c r="D28" s="92" t="s">
         <v>67</v>
       </c>
@@ -3490,10 +3700,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
+      <c r="J28" s="154">
+        <v>0</v>
+      </c>
+      <c r="K28" s="154">
+        <v>0</v>
+      </c>
+      <c r="L28" s="154">
+        <v>0</v>
+      </c>
+      <c r="M28" s="154">
+        <v>0</v>
+      </c>
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
@@ -3519,9 +3737,9 @@
       <c r="AJ28" s="37"/>
       <c r="AK28" s="37"/>
     </row>
-    <row r="29" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="120"/>
-      <c r="C29" s="123"/>
+    <row r="29" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="108"/>
+      <c r="C29" s="129"/>
       <c r="D29" s="92" t="s">
         <v>46</v>
       </c>
@@ -3539,10 +3757,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
+      <c r="J29" s="154">
+        <v>0</v>
+      </c>
+      <c r="K29" s="154">
+        <v>0</v>
+      </c>
+      <c r="L29" s="154">
+        <v>0</v>
+      </c>
+      <c r="M29" s="154">
+        <v>0</v>
+      </c>
       <c r="N29" s="25"/>
       <c r="O29" s="25"/>
       <c r="P29" s="25"/>
@@ -3569,8 +3795,8 @@
       <c r="AK29" s="37"/>
     </row>
     <row r="30" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="121"/>
-      <c r="C30" s="124"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="130"/>
       <c r="D30" s="93" t="s">
         <v>47</v>
       </c>
@@ -3588,10 +3814,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
+      <c r="J30" s="154">
+        <v>0</v>
+      </c>
+      <c r="K30" s="154">
+        <v>0</v>
+      </c>
+      <c r="L30" s="154">
+        <v>0</v>
+      </c>
+      <c r="M30" s="154">
+        <v>0</v>
+      </c>
       <c r="N30" s="70"/>
       <c r="O30" s="70"/>
       <c r="P30" s="70"/>
@@ -3618,21 +3852,21 @@
       <c r="AK30" s="37"/>
     </row>
     <row r="31" spans="2:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="111" t="s">
+      <c r="B31" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="121"/>
       <c r="H31" s="78">
         <f>SUM(H4:H30)</f>
         <v>19.8</v>
       </c>
       <c r="I31" s="78">
         <f>SUM(I4:I30)</f>
-        <v>0.75</v>
+        <v>1.92</v>
       </c>
       <c r="J31" s="78">
         <f>SUM(J4:J30)</f>
@@ -3648,11 +3882,11 @@
       </c>
       <c r="M31" s="78">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="N31" s="78">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O31" s="78">
         <f t="shared" si="1"/>
@@ -3696,16 +3930,16 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="104" t="s">
+      <c r="J32" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="105"/>
-      <c r="N32" s="105"/>
-      <c r="O32" s="105"/>
-      <c r="P32" s="105"/>
-      <c r="Q32" s="110"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="114"/>
+      <c r="Q32" s="119"/>
       <c r="R32" s="42"/>
       <c r="S32" s="42"/>
       <c r="T32" s="42"/>
@@ -3789,10 +4023,10 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="104" t="s">
+      <c r="H34" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="I34" s="110"/>
+      <c r="I34" s="119"/>
       <c r="J34" s="9">
         <f>SUM(H31,-J31)</f>
         <v>19.05</v>
@@ -3807,23 +4041,23 @@
       </c>
       <c r="M34" s="9">
         <f t="shared" si="2"/>
-        <v>19.05</v>
+        <v>18.38</v>
       </c>
       <c r="N34" s="9">
         <f t="shared" si="2"/>
-        <v>19.05</v>
+        <v>17.88</v>
       </c>
       <c r="O34" s="9">
         <f t="shared" si="2"/>
-        <v>19.05</v>
+        <v>17.88</v>
       </c>
       <c r="P34" s="9">
         <f t="shared" si="2"/>
-        <v>19.05</v>
+        <v>17.88</v>
       </c>
       <c r="Q34" s="9">
         <f t="shared" si="2"/>
-        <v>19.05</v>
+        <v>17.88</v>
       </c>
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
@@ -3901,28 +4135,28 @@
       </c>
       <c r="D36" s="31">
         <f>SUM(I12,I15,I24:I26)</f>
-        <v>0.75</v>
+        <v>1.92</v>
       </c>
       <c r="E36" s="29">
         <f t="shared" si="3"/>
-        <v>5.55</v>
+        <v>4.38</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="H36" s="104" t="s">
+      <c r="H36" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="105"/>
-      <c r="J36" s="104">
+      <c r="I36" s="114"/>
+      <c r="J36" s="113">
         <f>H31-I31</f>
-        <v>19.05</v>
-      </c>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="105"/>
-      <c r="N36" s="105"/>
-      <c r="O36" s="105"/>
-      <c r="P36" s="105"/>
-      <c r="Q36" s="110"/>
+        <v>17.880000000000003</v>
+      </c>
+      <c r="K36" s="114"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="114"/>
+      <c r="N36" s="114"/>
+      <c r="O36" s="114"/>
+      <c r="P36" s="114"/>
+      <c r="Q36" s="119"/>
       <c r="R36" s="42"/>
       <c r="S36" s="42"/>
       <c r="T36" s="42"/>
@@ -4022,11 +4256,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="H34:I34"/>
@@ -4039,6 +4268,11 @@
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4080,16 +4314,16 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="104" t="s">
+      <c r="J2" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="106"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="115"/>
       <c r="R2" s="52"/>
       <c r="S2" s="42"/>
       <c r="T2" s="42"/>
@@ -4182,7 +4416,7 @@
       <c r="AK3" s="41"/>
     </row>
     <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="140" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="66" t="s">
@@ -4227,7 +4461,7 @@
       <c r="AK4" s="25"/>
     </row>
     <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="134"/>
+      <c r="B5" s="141"/>
       <c r="C5" s="67" t="s">
         <v>24</v>
       </c>
@@ -4270,7 +4504,7 @@
       <c r="AK5" s="25"/>
     </row>
     <row r="6" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="134"/>
+      <c r="B6" s="141"/>
       <c r="C6" s="56" t="s">
         <v>25</v>
       </c>
@@ -4313,7 +4547,7 @@
       <c r="AK6" s="25"/>
     </row>
     <row r="7" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="134"/>
+      <c r="B7" s="141"/>
       <c r="C7" s="56" t="s">
         <v>26</v>
       </c>
@@ -4356,7 +4590,7 @@
       <c r="AK7" s="25"/>
     </row>
     <row r="8" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="134"/>
+      <c r="B8" s="141"/>
       <c r="C8" s="56" t="s">
         <v>56</v>
       </c>
@@ -4396,7 +4630,7 @@
       <c r="AK8" s="25"/>
     </row>
     <row r="9" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="134"/>
+      <c r="B9" s="141"/>
       <c r="C9" s="56" t="s">
         <v>55</v>
       </c>
@@ -4436,7 +4670,7 @@
       <c r="AK9" s="25"/>
     </row>
     <row r="10" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="134"/>
+      <c r="B10" s="141"/>
       <c r="C10" s="56" t="s">
         <v>27</v>
       </c>
@@ -4479,7 +4713,7 @@
       <c r="AK10" s="25"/>
     </row>
     <row r="11" spans="1:37" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="134"/>
+      <c r="B11" s="141"/>
       <c r="C11" s="56" t="s">
         <v>52</v>
       </c>
@@ -4522,7 +4756,7 @@
       <c r="AK11" s="25"/>
     </row>
     <row r="12" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="142" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="56" t="s">
@@ -4567,7 +4801,7 @@
       <c r="AK12" s="25"/>
     </row>
     <row r="13" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="136"/>
+      <c r="B13" s="143"/>
       <c r="C13" s="56" t="s">
         <v>31</v>
       </c>
@@ -4610,7 +4844,7 @@
       <c r="AK13" s="25"/>
     </row>
     <row r="14" spans="1:37" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="136"/>
+      <c r="B14" s="143"/>
       <c r="C14" s="56" t="s">
         <v>30</v>
       </c>
@@ -4653,7 +4887,7 @@
       <c r="AK14" s="25"/>
     </row>
     <row r="15" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="137"/>
+      <c r="B15" s="144"/>
       <c r="C15" s="56" t="s">
         <v>32</v>
       </c>
@@ -4696,10 +4930,10 @@
       <c r="AK15" s="37"/>
     </row>
     <row r="16" spans="1:37" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="148" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -4743,8 +4977,8 @@
       <c r="AK16" s="25"/>
     </row>
     <row r="17" spans="2:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="139"/>
-      <c r="C17" s="142"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="149"/>
       <c r="D17" s="25" t="s">
         <v>36</v>
       </c>
@@ -4786,8 +5020,8 @@
       <c r="AK17" s="25"/>
     </row>
     <row r="18" spans="2:37" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="139"/>
-      <c r="C18" s="143"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="150"/>
       <c r="D18" s="25" t="s">
         <v>37</v>
       </c>
@@ -4829,7 +5063,7 @@
       <c r="AK18" s="25"/>
     </row>
     <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="139"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="62"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -4870,7 +5104,7 @@
       <c r="AK19" s="25"/>
     </row>
     <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="139"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="62"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -4911,7 +5145,7 @@
       <c r="AK20" s="25"/>
     </row>
     <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="139"/>
+      <c r="B21" s="146"/>
       <c r="C21" s="62"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -4952,7 +5186,7 @@
       <c r="AK21" s="25"/>
     </row>
     <row r="22" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="140"/>
+      <c r="B22" s="147"/>
       <c r="C22" s="62"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -5038,10 +5272,10 @@
       <c r="AK23" s="25"/>
     </row>
     <row r="24" spans="2:37" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="129" t="s">
+      <c r="B24" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="131" t="s">
+      <c r="C24" s="135" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -5085,8 +5319,8 @@
       <c r="AK24" s="25"/>
     </row>
     <row r="25" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="120"/>
-      <c r="C25" s="127"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="111"/>
       <c r="D25" s="25" t="s">
         <v>41</v>
       </c>
@@ -5128,8 +5362,8 @@
       <c r="AK25" s="25"/>
     </row>
     <row r="26" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="130"/>
-      <c r="C26" s="132"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="136"/>
       <c r="D26" s="25" t="s">
         <v>48</v>
       </c>
@@ -5171,7 +5405,7 @@
       <c r="AK26" s="25"/>
     </row>
     <row r="27" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="129" t="s">
+      <c r="B27" s="133" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="69" t="s">
@@ -5216,7 +5450,7 @@
       <c r="AK27" s="25"/>
     </row>
     <row r="28" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="120"/>
+      <c r="B28" s="108"/>
       <c r="C28" s="64" t="s">
         <v>54</v>
       </c>
@@ -5256,7 +5490,7 @@
       <c r="AK28" s="25"/>
     </row>
     <row r="29" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="120"/>
+      <c r="B29" s="108"/>
       <c r="C29" s="68" t="s">
         <v>44</v>
       </c>
@@ -5299,7 +5533,7 @@
       <c r="AK29" s="37"/>
     </row>
     <row r="30" spans="2:37" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="130"/>
+      <c r="B30" s="134"/>
       <c r="C30" s="63" t="s">
         <v>53</v>
       </c>
@@ -5342,10 +5576,10 @@
       <c r="AK30" s="37"/>
     </row>
     <row r="31" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="129" t="s">
+      <c r="B31" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="131" t="s">
+      <c r="C31" s="135" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="25" t="s">
@@ -5389,8 +5623,8 @@
       <c r="AK31" s="37"/>
     </row>
     <row r="32" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="120"/>
-      <c r="C32" s="127"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="111"/>
       <c r="D32" s="25" t="s">
         <v>46</v>
       </c>
@@ -5432,8 +5666,8 @@
       <c r="AK32" s="37"/>
     </row>
     <row r="33" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="120"/>
-      <c r="C33" s="132"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="136"/>
       <c r="D33" s="25" t="s">
         <v>47</v>
       </c>
@@ -5475,7 +5709,7 @@
       <c r="AK33" s="37"/>
     </row>
     <row r="34" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="130"/>
+      <c r="B34" s="134"/>
       <c r="C34" s="63"/>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
@@ -5516,7 +5750,7 @@
       <c r="AK34" s="37"/>
     </row>
     <row r="35" spans="2:37" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="129" t="s">
+      <c r="B35" s="133" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="63" t="s">
@@ -5561,7 +5795,7 @@
       <c r="AK35" s="37"/>
     </row>
     <row r="36" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="120"/>
+      <c r="B36" s="108"/>
       <c r="C36" s="58" t="s">
         <v>51</v>
       </c>
@@ -5604,7 +5838,7 @@
       <c r="AK36" s="37"/>
     </row>
     <row r="37" spans="2:37" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="120"/>
+      <c r="B37" s="108"/>
       <c r="C37" s="58"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
@@ -5645,7 +5879,7 @@
       <c r="AK37" s="37"/>
     </row>
     <row r="38" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="130"/>
+      <c r="B38" s="134"/>
       <c r="C38" s="54"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -6096,7 +6330,7 @@
       <c r="AK48" s="37"/>
     </row>
     <row r="49" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="146"/>
+      <c r="B49" s="137"/>
       <c r="C49" s="37"/>
       <c r="D49" s="25"/>
       <c r="E49" s="37"/>
@@ -6137,7 +6371,7 @@
       <c r="AK49" s="25"/>
     </row>
     <row r="50" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="146"/>
+      <c r="B50" s="137"/>
       <c r="C50" s="37"/>
       <c r="D50" s="25"/>
       <c r="E50" s="37"/>
@@ -6178,7 +6412,7 @@
       <c r="AK50" s="25"/>
     </row>
     <row r="51" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="146"/>
+      <c r="B51" s="137"/>
       <c r="C51" s="62"/>
       <c r="D51" s="25"/>
       <c r="E51" s="37"/>
@@ -6219,7 +6453,7 @@
       <c r="AK51" s="25"/>
     </row>
     <row r="52" spans="2:37" ht="21" x14ac:dyDescent="0.25">
-      <c r="B52" s="147"/>
+      <c r="B52" s="138"/>
       <c r="C52" s="62"/>
       <c r="D52" s="25"/>
       <c r="E52" s="37"/>
@@ -6260,7 +6494,7 @@
       <c r="AK52" s="25"/>
     </row>
     <row r="53" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="148"/>
+      <c r="B53" s="139"/>
       <c r="C53" s="56"/>
       <c r="D53" s="25"/>
       <c r="E53" s="37"/>
@@ -6301,7 +6535,7 @@
       <c r="AK53" s="25"/>
     </row>
     <row r="54" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="148"/>
+      <c r="B54" s="139"/>
       <c r="C54" s="56"/>
       <c r="D54" s="25"/>
       <c r="E54" s="37"/>
@@ -6342,7 +6576,7 @@
       <c r="AK54" s="25"/>
     </row>
     <row r="55" spans="2:37" ht="21" x14ac:dyDescent="0.25">
-      <c r="B55" s="148"/>
+      <c r="B55" s="139"/>
       <c r="C55" s="37"/>
       <c r="D55" s="25"/>
       <c r="E55" s="37"/>
@@ -6383,7 +6617,7 @@
       <c r="AK55" s="25"/>
     </row>
     <row r="56" spans="2:37" ht="21" x14ac:dyDescent="0.25">
-      <c r="B56" s="148"/>
+      <c r="B56" s="139"/>
       <c r="C56" s="37"/>
       <c r="D56" s="25"/>
       <c r="E56" s="37"/>
@@ -6424,14 +6658,14 @@
       <c r="AK56" s="38"/>
     </row>
     <row r="57" spans="2:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="144" t="s">
+      <c r="B57" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="145"/>
-      <c r="D57" s="145"/>
-      <c r="E57" s="145"/>
-      <c r="F57" s="145"/>
-      <c r="G57" s="145"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="132"/>
+      <c r="F57" s="132"/>
+      <c r="G57" s="132"/>
       <c r="H57" s="60">
         <f t="shared" ref="H57:I57" si="2">SUM(H4:H56)</f>
         <v>0</v>
@@ -6562,10 +6796,10 @@
       <c r="E60" s="29"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="104" t="s">
+      <c r="H60" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="I60" s="110"/>
+      <c r="I60" s="119"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -6639,21 +6873,21 @@
       <c r="D62" s="31"/>
       <c r="E62" s="32"/>
       <c r="F62" s="3"/>
-      <c r="H62" s="104" t="s">
+      <c r="H62" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="I62" s="105"/>
-      <c r="J62" s="104">
+      <c r="I62" s="114"/>
+      <c r="J62" s="113">
         <f>H57-I57</f>
         <v>0</v>
       </c>
-      <c r="K62" s="105"/>
-      <c r="L62" s="105"/>
-      <c r="M62" s="105"/>
-      <c r="N62" s="105"/>
-      <c r="O62" s="105"/>
-      <c r="P62" s="105"/>
-      <c r="Q62" s="110"/>
+      <c r="K62" s="114"/>
+      <c r="L62" s="114"/>
+      <c r="M62" s="114"/>
+      <c r="N62" s="114"/>
+      <c r="O62" s="114"/>
+      <c r="P62" s="114"/>
+      <c r="Q62" s="119"/>
       <c r="R62" s="42"/>
       <c r="S62" s="42"/>
       <c r="T62" s="42"/>
@@ -6753,6 +6987,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="B57:G57"/>
     <mergeCell ref="H60:I60"/>
     <mergeCell ref="H62:I62"/>
@@ -6763,13 +7004,6 @@
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Sprint-1_Mecanicas.xlsx
+++ b/Sprint-1_Mecanicas.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Enti\Mecanicas avanzadas\Definetly not pong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI-D\Documents\MecanicasAvanzao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -342,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +397,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="38">
     <border>
@@ -901,7 +913,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1206,18 +1218,84 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1227,66 +1305,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1299,6 +1317,45 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1308,49 +1365,22 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1465,16 +1495,16 @@
                   <c:v>18.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.88</c:v>
+                  <c:v>16.676600000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.88</c:v>
+                  <c:v>16.676600000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.88</c:v>
+                  <c:v>16.676600000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.88</c:v>
+                  <c:v>16.676600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1541,7 +1571,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1651,16 +1680,16 @@
                   <c:v>18.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.88</c:v>
+                  <c:v>16.676600000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.88</c:v>
+                  <c:v>16.676600000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.88</c:v>
+                  <c:v>16.676600000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.88</c:v>
+                  <c:v>16.676600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1901,6 +1930,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1936,6 +1982,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2115,54 +2178,54 @@
   <dimension ref="A1:AK56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
-    <col min="4" max="4" width="55.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="55.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:37" ht="46.8" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-    </row>
-    <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="113" t="s">
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+    </row>
+    <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="115"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="112"/>
       <c r="R2" s="52"/>
       <c r="S2" s="42"/>
       <c r="T2" s="42"/>
@@ -2184,7 +2247,7 @@
       <c r="AJ2" s="42"/>
       <c r="AK2" s="42"/>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
@@ -2254,8 +2317,8 @@
       <c r="AJ3" s="41"/>
       <c r="AK3" s="41"/>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="116" t="s">
+    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="113" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="82" t="s">
@@ -2278,19 +2341,21 @@
         <f t="shared" ref="I4:I30" si="0">SUM(J4:AK4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="151">
-        <v>0</v>
-      </c>
-      <c r="K4" s="151">
-        <v>0</v>
-      </c>
-      <c r="L4" s="151">
-        <v>0</v>
-      </c>
-      <c r="M4" s="151">
-        <v>0</v>
-      </c>
-      <c r="N4" s="24"/>
+      <c r="J4" s="106">
+        <v>0</v>
+      </c>
+      <c r="K4" s="106">
+        <v>0</v>
+      </c>
+      <c r="L4" s="106">
+        <v>0</v>
+      </c>
+      <c r="M4" s="106">
+        <v>0</v>
+      </c>
+      <c r="N4" s="155">
+        <v>0</v>
+      </c>
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="40"/>
@@ -2315,8 +2380,8 @@
       <c r="AJ4" s="25"/>
       <c r="AK4" s="25"/>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="117"/>
+    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="114"/>
       <c r="C5" s="85" t="s">
         <v>31</v>
       </c>
@@ -2335,21 +2400,23 @@
       </c>
       <c r="I5" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="151">
-        <v>0</v>
-      </c>
-      <c r="K5" s="151">
-        <v>0</v>
-      </c>
-      <c r="L5" s="151">
-        <v>0</v>
-      </c>
-      <c r="M5" s="151">
-        <v>0</v>
-      </c>
-      <c r="N5" s="25"/>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="J5" s="106">
+        <v>0</v>
+      </c>
+      <c r="K5" s="106">
+        <v>0</v>
+      </c>
+      <c r="L5" s="106">
+        <v>0</v>
+      </c>
+      <c r="M5" s="106">
+        <v>0</v>
+      </c>
+      <c r="N5" s="156">
+        <v>0.11700000000000001</v>
+      </c>
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
       <c r="Q5" s="36"/>
@@ -2374,8 +2441,8 @@
       <c r="AJ5" s="25"/>
       <c r="AK5" s="25"/>
     </row>
-    <row r="6" spans="1:37" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="117"/>
+    <row r="6" spans="1:37" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="114"/>
       <c r="C6" s="85" t="s">
         <v>30</v>
       </c>
@@ -2394,21 +2461,23 @@
       </c>
       <c r="I6" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="151">
-        <v>0</v>
-      </c>
-      <c r="K6" s="151">
-        <v>0</v>
-      </c>
-      <c r="L6" s="151">
-        <v>0</v>
-      </c>
-      <c r="M6" s="151">
-        <v>0</v>
-      </c>
-      <c r="N6" s="25"/>
+        <v>1.67E-2</v>
+      </c>
+      <c r="J6" s="106">
+        <v>0</v>
+      </c>
+      <c r="K6" s="106">
+        <v>0</v>
+      </c>
+      <c r="L6" s="106">
+        <v>0</v>
+      </c>
+      <c r="M6" s="106">
+        <v>0</v>
+      </c>
+      <c r="N6" s="157">
+        <v>1.67E-2</v>
+      </c>
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
       <c r="Q6" s="36"/>
@@ -2433,8 +2502,8 @@
       <c r="AJ6" s="25"/>
       <c r="AK6" s="25"/>
     </row>
-    <row r="7" spans="1:37" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="118"/>
+    <row r="7" spans="1:37" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="115"/>
       <c r="C7" s="88" t="s">
         <v>32</v>
       </c>
@@ -2455,19 +2524,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="151">
-        <v>0</v>
-      </c>
-      <c r="K7" s="151">
-        <v>0</v>
-      </c>
-      <c r="L7" s="151">
-        <v>0</v>
-      </c>
-      <c r="M7" s="151">
-        <v>0</v>
-      </c>
-      <c r="N7" s="70"/>
+      <c r="J7" s="106">
+        <v>0</v>
+      </c>
+      <c r="K7" s="106">
+        <v>0</v>
+      </c>
+      <c r="L7" s="106">
+        <v>0</v>
+      </c>
+      <c r="M7" s="106">
+        <v>0</v>
+      </c>
+      <c r="N7" s="158">
+        <v>0</v>
+      </c>
       <c r="O7" s="70"/>
       <c r="P7" s="70"/>
       <c r="Q7" s="72"/>
@@ -2492,11 +2563,11 @@
       <c r="AJ7" s="25"/>
       <c r="AK7" s="37"/>
     </row>
-    <row r="8" spans="1:37" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="122" t="s">
+    <row r="8" spans="1:37" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="122" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="91" t="s">
@@ -2518,16 +2589,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="151">
-        <v>0</v>
-      </c>
-      <c r="K8" s="151">
-        <v>0</v>
-      </c>
-      <c r="L8" s="151">
-        <v>0</v>
-      </c>
-      <c r="M8" s="151">
+      <c r="J8" s="106">
+        <v>0</v>
+      </c>
+      <c r="K8" s="106">
+        <v>0</v>
+      </c>
+      <c r="L8" s="106">
+        <v>0</v>
+      </c>
+      <c r="M8" s="106">
         <v>0</v>
       </c>
       <c r="N8" s="24"/>
@@ -2555,9 +2626,9 @@
       <c r="AJ8" s="25"/>
       <c r="AK8" s="25"/>
     </row>
-    <row r="9" spans="1:37" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="123"/>
-      <c r="C9" s="126"/>
+    <row r="9" spans="1:37" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="120"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="92" t="s">
         <v>59</v>
       </c>
@@ -2577,16 +2648,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="151">
-        <v>0</v>
-      </c>
-      <c r="K9" s="151">
-        <v>0</v>
-      </c>
-      <c r="L9" s="151">
-        <v>0</v>
-      </c>
-      <c r="M9" s="151">
+      <c r="J9" s="106">
+        <v>0</v>
+      </c>
+      <c r="K9" s="106">
+        <v>0</v>
+      </c>
+      <c r="L9" s="106">
+        <v>0</v>
+      </c>
+      <c r="M9" s="106">
         <v>0</v>
       </c>
       <c r="N9" s="25"/>
@@ -2614,9 +2685,9 @@
       <c r="AJ9" s="25"/>
       <c r="AK9" s="25"/>
     </row>
-    <row r="10" spans="1:37" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="123"/>
-      <c r="C10" s="126"/>
+    <row r="10" spans="1:37" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="120"/>
+      <c r="C10" s="123"/>
       <c r="D10" s="92" t="s">
         <v>36</v>
       </c>
@@ -2636,16 +2707,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="151">
-        <v>0</v>
-      </c>
-      <c r="K10" s="151">
-        <v>0</v>
-      </c>
-      <c r="L10" s="151">
-        <v>0</v>
-      </c>
-      <c r="M10" s="151">
+      <c r="J10" s="106">
+        <v>0</v>
+      </c>
+      <c r="K10" s="106">
+        <v>0</v>
+      </c>
+      <c r="L10" s="106">
+        <v>0</v>
+      </c>
+      <c r="M10" s="106">
         <v>0</v>
       </c>
       <c r="N10" s="25"/>
@@ -2673,9 +2744,9 @@
       <c r="AJ10" s="25"/>
       <c r="AK10" s="25"/>
     </row>
-    <row r="11" spans="1:37" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="124"/>
-      <c r="C11" s="127"/>
+    <row r="11" spans="1:37" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="121"/>
+      <c r="C11" s="124"/>
       <c r="D11" s="93" t="s">
         <v>66</v>
       </c>
@@ -2695,16 +2766,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="151">
-        <v>0</v>
-      </c>
-      <c r="K11" s="151">
-        <v>0</v>
-      </c>
-      <c r="L11" s="151">
-        <v>0</v>
-      </c>
-      <c r="M11" s="151">
+      <c r="J11" s="106">
+        <v>0</v>
+      </c>
+      <c r="K11" s="106">
+        <v>0</v>
+      </c>
+      <c r="L11" s="106">
+        <v>0</v>
+      </c>
+      <c r="M11" s="106">
         <v>0</v>
       </c>
       <c r="N11" s="70"/>
@@ -2732,7 +2803,7 @@
       <c r="AJ11" s="25"/>
       <c r="AK11" s="25"/>
     </row>
-    <row r="12" spans="1:37" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="94" t="s">
         <v>38</v>
       </c>
@@ -2756,19 +2827,19 @@
         <f t="shared" si="0"/>
         <v>1.17</v>
       </c>
-      <c r="J12" s="151">
-        <v>0</v>
-      </c>
-      <c r="K12" s="151">
-        <v>0</v>
-      </c>
-      <c r="L12" s="151">
-        <v>0</v>
-      </c>
-      <c r="M12" s="152">
+      <c r="J12" s="106">
+        <v>0</v>
+      </c>
+      <c r="K12" s="106">
+        <v>0</v>
+      </c>
+      <c r="L12" s="106">
+        <v>0</v>
+      </c>
+      <c r="M12" s="107">
         <v>0.67</v>
       </c>
-      <c r="N12" s="152">
+      <c r="N12" s="107">
         <v>0.5</v>
       </c>
       <c r="O12" s="73"/>
@@ -2795,11 +2866,11 @@
       <c r="AJ12" s="25"/>
       <c r="AK12" s="25"/>
     </row>
-    <row r="13" spans="1:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="107" t="s">
+    <row r="13" spans="1:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="110" t="s">
+      <c r="C13" s="132" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="83" t="s">
@@ -2819,21 +2890,23 @@
       </c>
       <c r="I13" s="59">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="153">
-        <v>0</v>
-      </c>
-      <c r="K13" s="153">
-        <v>0</v>
-      </c>
-      <c r="L13" s="153">
-        <v>0</v>
-      </c>
-      <c r="M13" s="153">
-        <v>0</v>
-      </c>
-      <c r="N13" s="24"/>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="J13" s="108">
+        <v>0</v>
+      </c>
+      <c r="K13" s="108">
+        <v>0</v>
+      </c>
+      <c r="L13" s="108">
+        <v>0</v>
+      </c>
+      <c r="M13" s="108">
+        <v>0</v>
+      </c>
+      <c r="N13" s="159">
+        <v>0.83299999999999996</v>
+      </c>
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="40"/>
@@ -2858,9 +2931,9 @@
       <c r="AJ13" s="25"/>
       <c r="AK13" s="25"/>
     </row>
-    <row r="14" spans="1:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="108"/>
-      <c r="C14" s="111"/>
+    <row r="14" spans="1:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="126"/>
+      <c r="C14" s="133"/>
       <c r="D14" s="86" t="s">
         <v>65</v>
       </c>
@@ -2880,19 +2953,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="153">
-        <v>0</v>
-      </c>
-      <c r="K14" s="153">
-        <v>0</v>
-      </c>
-      <c r="L14" s="153">
-        <v>0</v>
-      </c>
-      <c r="M14" s="153">
-        <v>0</v>
-      </c>
-      <c r="N14" s="25"/>
+      <c r="J14" s="108">
+        <v>0</v>
+      </c>
+      <c r="K14" s="108">
+        <v>0</v>
+      </c>
+      <c r="L14" s="108">
+        <v>0</v>
+      </c>
+      <c r="M14" s="108">
+        <v>0</v>
+      </c>
+      <c r="N14" s="160">
+        <v>0</v>
+      </c>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="36"/>
@@ -2917,9 +2992,9 @@
       <c r="AJ14" s="25"/>
       <c r="AK14" s="25"/>
     </row>
-    <row r="15" spans="1:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="108"/>
-      <c r="C15" s="111"/>
+    <row r="15" spans="1:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="126"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="99" t="s">
         <v>64</v>
       </c>
@@ -2939,19 +3014,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="153">
-        <v>0</v>
-      </c>
-      <c r="K15" s="153">
-        <v>0</v>
-      </c>
-      <c r="L15" s="153">
-        <v>0</v>
-      </c>
-      <c r="M15" s="153">
-        <v>0</v>
-      </c>
-      <c r="N15" s="25"/>
+      <c r="J15" s="108">
+        <v>0</v>
+      </c>
+      <c r="K15" s="108">
+        <v>0</v>
+      </c>
+      <c r="L15" s="108">
+        <v>0</v>
+      </c>
+      <c r="M15" s="108">
+        <v>0</v>
+      </c>
+      <c r="N15" s="25">
+        <v>0</v>
+      </c>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="36"/>
@@ -2976,9 +3053,9 @@
       <c r="AJ15" s="25"/>
       <c r="AK15" s="25"/>
     </row>
-    <row r="16" spans="1:37" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="108"/>
-      <c r="C16" s="111"/>
+    <row r="16" spans="1:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="126"/>
+      <c r="C16" s="133"/>
       <c r="D16" s="86" t="s">
         <v>61</v>
       </c>
@@ -2996,21 +3073,23 @@
       </c>
       <c r="I16" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="153">
-        <v>0</v>
-      </c>
-      <c r="K16" s="153">
-        <v>0</v>
-      </c>
-      <c r="L16" s="153">
-        <v>0</v>
-      </c>
-      <c r="M16" s="153">
-        <v>0</v>
-      </c>
-      <c r="N16" s="25"/>
+        <v>0.2</v>
+      </c>
+      <c r="J16" s="108">
+        <v>0</v>
+      </c>
+      <c r="K16" s="108">
+        <v>0</v>
+      </c>
+      <c r="L16" s="108">
+        <v>0</v>
+      </c>
+      <c r="M16" s="108">
+        <v>0</v>
+      </c>
+      <c r="N16" s="156">
+        <v>0.2</v>
+      </c>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="36"/>
@@ -3035,9 +3114,9 @@
       <c r="AJ16" s="37"/>
       <c r="AK16" s="25"/>
     </row>
-    <row r="17" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="108"/>
-      <c r="C17" s="111"/>
+    <row r="17" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="126"/>
+      <c r="C17" s="133"/>
       <c r="D17" s="86" t="s">
         <v>41</v>
       </c>
@@ -3057,19 +3136,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="153">
-        <v>0</v>
-      </c>
-      <c r="K17" s="153">
-        <v>0</v>
-      </c>
-      <c r="L17" s="153">
-        <v>0</v>
-      </c>
-      <c r="M17" s="153">
-        <v>0</v>
-      </c>
-      <c r="N17" s="25"/>
+      <c r="J17" s="108">
+        <v>0</v>
+      </c>
+      <c r="K17" s="108">
+        <v>0</v>
+      </c>
+      <c r="L17" s="108">
+        <v>0</v>
+      </c>
+      <c r="M17" s="108">
+        <v>0</v>
+      </c>
+      <c r="N17" s="160">
+        <v>0</v>
+      </c>
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
       <c r="Q17" s="36"/>
@@ -3094,9 +3175,9 @@
       <c r="AJ17" s="37"/>
       <c r="AK17" s="25"/>
     </row>
-    <row r="18" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="109"/>
-      <c r="C18" s="112"/>
+    <row r="18" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="127"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="89" t="s">
         <v>48</v>
       </c>
@@ -3116,19 +3197,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="153">
-        <v>0</v>
-      </c>
-      <c r="K18" s="153">
-        <v>0</v>
-      </c>
-      <c r="L18" s="153">
-        <v>0</v>
-      </c>
-      <c r="M18" s="153">
-        <v>0</v>
-      </c>
-      <c r="N18" s="70"/>
+      <c r="J18" s="108">
+        <v>0</v>
+      </c>
+      <c r="K18" s="108">
+        <v>0</v>
+      </c>
+      <c r="L18" s="108">
+        <v>0</v>
+      </c>
+      <c r="M18" s="108">
+        <v>0</v>
+      </c>
+      <c r="N18" s="158">
+        <v>0</v>
+      </c>
       <c r="O18" s="70"/>
       <c r="P18" s="70"/>
       <c r="Q18" s="72"/>
@@ -3153,11 +3236,11 @@
       <c r="AJ18" s="37"/>
       <c r="AK18" s="25"/>
     </row>
-    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="107" t="s">
+    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="132" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="83" t="s">
@@ -3177,21 +3260,23 @@
       </c>
       <c r="I19" s="59">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="153">
-        <v>0</v>
-      </c>
-      <c r="K19" s="153">
-        <v>0</v>
-      </c>
-      <c r="L19" s="153">
-        <v>0</v>
-      </c>
-      <c r="M19" s="153">
-        <v>0</v>
-      </c>
-      <c r="N19" s="24"/>
+        <v>1.67E-2</v>
+      </c>
+      <c r="J19" s="108">
+        <v>0</v>
+      </c>
+      <c r="K19" s="108">
+        <v>0</v>
+      </c>
+      <c r="L19" s="108">
+        <v>0</v>
+      </c>
+      <c r="M19" s="108">
+        <v>0</v>
+      </c>
+      <c r="N19" s="159">
+        <v>1.67E-2</v>
+      </c>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
       <c r="Q19" s="40"/>
@@ -3216,9 +3301,9 @@
       <c r="AJ19" s="37"/>
       <c r="AK19" s="25"/>
     </row>
-    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="108"/>
-      <c r="C20" s="111"/>
+    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="126"/>
+      <c r="C20" s="133"/>
       <c r="D20" s="92" t="s">
         <v>59</v>
       </c>
@@ -3238,19 +3323,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="153">
-        <v>0</v>
-      </c>
-      <c r="K20" s="153">
-        <v>0</v>
-      </c>
-      <c r="L20" s="153">
-        <v>0</v>
-      </c>
-      <c r="M20" s="153">
-        <v>0</v>
-      </c>
-      <c r="N20" s="25"/>
+      <c r="J20" s="108">
+        <v>0</v>
+      </c>
+      <c r="K20" s="108">
+        <v>0</v>
+      </c>
+      <c r="L20" s="108">
+        <v>0</v>
+      </c>
+      <c r="M20" s="108">
+        <v>0</v>
+      </c>
+      <c r="N20" s="25">
+        <v>0</v>
+      </c>
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
       <c r="Q20" s="36"/>
@@ -3275,9 +3362,9 @@
       <c r="AJ20" s="37"/>
       <c r="AK20" s="25"/>
     </row>
-    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="108"/>
-      <c r="C21" s="111"/>
+    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="126"/>
+      <c r="C21" s="133"/>
       <c r="D21" s="92" t="s">
         <v>60</v>
       </c>
@@ -3297,19 +3384,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="153">
-        <v>0</v>
-      </c>
-      <c r="K21" s="153">
-        <v>0</v>
-      </c>
-      <c r="L21" s="153">
-        <v>0</v>
-      </c>
-      <c r="M21" s="153">
-        <v>0</v>
-      </c>
-      <c r="N21" s="25"/>
+      <c r="J21" s="108">
+        <v>0</v>
+      </c>
+      <c r="K21" s="108">
+        <v>0</v>
+      </c>
+      <c r="L21" s="108">
+        <v>0</v>
+      </c>
+      <c r="M21" s="108">
+        <v>0</v>
+      </c>
+      <c r="N21" s="25">
+        <v>0</v>
+      </c>
       <c r="O21" s="25"/>
       <c r="P21" s="25"/>
       <c r="Q21" s="36"/>
@@ -3334,9 +3423,9 @@
       <c r="AJ21" s="37"/>
       <c r="AK21" s="25"/>
     </row>
-    <row r="22" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="109"/>
-      <c r="C22" s="112"/>
+    <row r="22" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="127"/>
+      <c r="C22" s="134"/>
       <c r="D22" s="93" t="s">
         <v>61</v>
       </c>
@@ -3356,19 +3445,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="153">
-        <v>0</v>
-      </c>
-      <c r="K22" s="153">
-        <v>0</v>
-      </c>
-      <c r="L22" s="153">
-        <v>0</v>
-      </c>
-      <c r="M22" s="153">
-        <v>0</v>
-      </c>
-      <c r="N22" s="70"/>
+      <c r="J22" s="108">
+        <v>0</v>
+      </c>
+      <c r="K22" s="108">
+        <v>0</v>
+      </c>
+      <c r="L22" s="108">
+        <v>0</v>
+      </c>
+      <c r="M22" s="108">
+        <v>0</v>
+      </c>
+      <c r="N22" s="70">
+        <v>0</v>
+      </c>
       <c r="O22" s="70"/>
       <c r="P22" s="70"/>
       <c r="Q22" s="72"/>
@@ -3393,8 +3484,8 @@
       <c r="AJ22" s="37"/>
       <c r="AK22" s="25"/>
     </row>
-    <row r="23" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="107" t="s">
+    <row r="23" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="125" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="97" t="s">
@@ -3415,21 +3506,23 @@
       </c>
       <c r="I23" s="59">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="153">
-        <v>0</v>
-      </c>
-      <c r="K23" s="153">
-        <v>0</v>
-      </c>
-      <c r="L23" s="153">
-        <v>0</v>
-      </c>
-      <c r="M23" s="153">
-        <v>0</v>
-      </c>
-      <c r="N23" s="24"/>
+        <v>0.02</v>
+      </c>
+      <c r="J23" s="108">
+        <v>0</v>
+      </c>
+      <c r="K23" s="108">
+        <v>0</v>
+      </c>
+      <c r="L23" s="108">
+        <v>0</v>
+      </c>
+      <c r="M23" s="108">
+        <v>0</v>
+      </c>
+      <c r="N23" s="159">
+        <v>0.02</v>
+      </c>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
       <c r="Q23" s="40"/>
@@ -3454,8 +3547,8 @@
       <c r="AJ23" s="37"/>
       <c r="AK23" s="25"/>
     </row>
-    <row r="24" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="108"/>
+    <row r="24" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="126"/>
       <c r="C24" s="100" t="s">
         <v>54</v>
       </c>
@@ -3474,19 +3567,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="153">
-        <v>0</v>
-      </c>
-      <c r="K24" s="153">
-        <v>0</v>
-      </c>
-      <c r="L24" s="153">
-        <v>0</v>
-      </c>
-      <c r="M24" s="153">
-        <v>0</v>
-      </c>
-      <c r="N24" s="25"/>
+      <c r="J24" s="108">
+        <v>0</v>
+      </c>
+      <c r="K24" s="108">
+        <v>0</v>
+      </c>
+      <c r="L24" s="108">
+        <v>0</v>
+      </c>
+      <c r="M24" s="108">
+        <v>0</v>
+      </c>
+      <c r="N24" s="25">
+        <v>0</v>
+      </c>
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
       <c r="Q24" s="36"/>
@@ -3511,8 +3606,8 @@
       <c r="AJ24" s="37"/>
       <c r="AK24" s="25"/>
     </row>
-    <row r="25" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="108"/>
+    <row r="25" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="126"/>
       <c r="C25" s="101" t="s">
         <v>44</v>
       </c>
@@ -3531,19 +3626,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="153">
-        <v>0</v>
-      </c>
-      <c r="K25" s="153">
-        <v>0</v>
-      </c>
-      <c r="L25" s="153">
-        <v>0</v>
-      </c>
-      <c r="M25" s="153">
-        <v>0</v>
-      </c>
-      <c r="N25" s="25"/>
+      <c r="J25" s="108">
+        <v>0</v>
+      </c>
+      <c r="K25" s="108">
+        <v>0</v>
+      </c>
+      <c r="L25" s="108">
+        <v>0</v>
+      </c>
+      <c r="M25" s="108">
+        <v>0</v>
+      </c>
+      <c r="N25" s="25">
+        <v>0</v>
+      </c>
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
       <c r="Q25" s="36"/>
@@ -3568,8 +3665,8 @@
       <c r="AJ25" s="38"/>
       <c r="AK25" s="37"/>
     </row>
-    <row r="26" spans="2:37" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="109"/>
+    <row r="26" spans="2:37" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="127"/>
       <c r="C26" s="102" t="s">
         <v>53</v>
       </c>
@@ -3594,7 +3691,9 @@
       <c r="K26" s="104"/>
       <c r="L26" s="104"/>
       <c r="M26" s="104"/>
-      <c r="N26" s="104"/>
+      <c r="N26" s="104">
+        <v>0</v>
+      </c>
       <c r="O26" s="104"/>
       <c r="P26" s="104"/>
       <c r="Q26" s="105"/>
@@ -3619,8 +3718,8 @@
       <c r="AJ26" s="37"/>
       <c r="AK26" s="37"/>
     </row>
-    <row r="27" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="107" t="s">
+    <row r="27" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="125" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="128" t="s">
@@ -3643,19 +3742,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="154">
-        <v>0</v>
-      </c>
-      <c r="K27" s="154">
-        <v>0</v>
-      </c>
-      <c r="L27" s="154">
-        <v>0</v>
-      </c>
-      <c r="M27" s="154">
-        <v>0</v>
-      </c>
-      <c r="N27" s="24"/>
+      <c r="J27" s="109">
+        <v>0</v>
+      </c>
+      <c r="K27" s="109">
+        <v>0</v>
+      </c>
+      <c r="L27" s="109">
+        <v>0</v>
+      </c>
+      <c r="M27" s="109">
+        <v>0</v>
+      </c>
+      <c r="N27" s="24">
+        <v>0</v>
+      </c>
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
       <c r="Q27" s="40"/>
@@ -3680,8 +3781,8 @@
       <c r="AJ27" s="37"/>
       <c r="AK27" s="37"/>
     </row>
-    <row r="28" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="108"/>
+    <row r="28" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="126"/>
       <c r="C28" s="129"/>
       <c r="D28" s="92" t="s">
         <v>67</v>
@@ -3700,19 +3801,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="154">
-        <v>0</v>
-      </c>
-      <c r="K28" s="154">
-        <v>0</v>
-      </c>
-      <c r="L28" s="154">
-        <v>0</v>
-      </c>
-      <c r="M28" s="154">
-        <v>0</v>
-      </c>
-      <c r="N28" s="25"/>
+      <c r="J28" s="109">
+        <v>0</v>
+      </c>
+      <c r="K28" s="109">
+        <v>0</v>
+      </c>
+      <c r="L28" s="109">
+        <v>0</v>
+      </c>
+      <c r="M28" s="109">
+        <v>0</v>
+      </c>
+      <c r="N28" s="25">
+        <v>0</v>
+      </c>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
       <c r="Q28" s="36"/>
@@ -3737,8 +3840,8 @@
       <c r="AJ28" s="37"/>
       <c r="AK28" s="37"/>
     </row>
-    <row r="29" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="108"/>
+    <row r="29" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="126"/>
       <c r="C29" s="129"/>
       <c r="D29" s="92" t="s">
         <v>46</v>
@@ -3757,19 +3860,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="154">
-        <v>0</v>
-      </c>
-      <c r="K29" s="154">
-        <v>0</v>
-      </c>
-      <c r="L29" s="154">
-        <v>0</v>
-      </c>
-      <c r="M29" s="154">
-        <v>0</v>
-      </c>
-      <c r="N29" s="25"/>
+      <c r="J29" s="109">
+        <v>0</v>
+      </c>
+      <c r="K29" s="109">
+        <v>0</v>
+      </c>
+      <c r="L29" s="109">
+        <v>0</v>
+      </c>
+      <c r="M29" s="109">
+        <v>0</v>
+      </c>
+      <c r="N29" s="25">
+        <v>0</v>
+      </c>
       <c r="O29" s="25"/>
       <c r="P29" s="25"/>
       <c r="Q29" s="36"/>
@@ -3794,8 +3899,8 @@
       <c r="AJ29" s="37"/>
       <c r="AK29" s="37"/>
     </row>
-    <row r="30" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="109"/>
+    <row r="30" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="127"/>
       <c r="C30" s="130"/>
       <c r="D30" s="93" t="s">
         <v>47</v>
@@ -3814,19 +3919,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="154">
-        <v>0</v>
-      </c>
-      <c r="K30" s="154">
-        <v>0</v>
-      </c>
-      <c r="L30" s="154">
-        <v>0</v>
-      </c>
-      <c r="M30" s="154">
-        <v>0</v>
-      </c>
-      <c r="N30" s="70"/>
+      <c r="J30" s="109">
+        <v>0</v>
+      </c>
+      <c r="K30" s="109">
+        <v>0</v>
+      </c>
+      <c r="L30" s="109">
+        <v>0</v>
+      </c>
+      <c r="M30" s="109">
+        <v>0</v>
+      </c>
+      <c r="N30" s="70">
+        <v>0</v>
+      </c>
       <c r="O30" s="70"/>
       <c r="P30" s="70"/>
       <c r="Q30" s="72"/>
@@ -3851,22 +3958,22 @@
       <c r="AJ30" s="37"/>
       <c r="AK30" s="37"/>
     </row>
-    <row r="31" spans="2:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="120" t="s">
+    <row r="31" spans="2:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
       <c r="H31" s="78">
         <f>SUM(H4:H30)</f>
         <v>19.8</v>
       </c>
       <c r="I31" s="78">
         <f>SUM(I4:I30)</f>
-        <v>1.92</v>
+        <v>3.1234000000000002</v>
       </c>
       <c r="J31" s="78">
         <f>SUM(J4:J30)</f>
@@ -3886,7 +3993,7 @@
       </c>
       <c r="N31" s="78">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.7033999999999998</v>
       </c>
       <c r="O31" s="78">
         <f t="shared" si="1"/>
@@ -3921,7 +4028,7 @@
       <c r="AJ31" s="35"/>
       <c r="AK31" s="35"/>
     </row>
-    <row r="32" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3930,16 +4037,16 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="113" t="s">
+      <c r="J32" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="114"/>
-      <c r="Q32" s="119"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="116"/>
       <c r="R32" s="42"/>
       <c r="S32" s="42"/>
       <c r="T32" s="42"/>
@@ -3961,7 +4068,7 @@
       <c r="AJ32" s="42"/>
       <c r="AK32" s="42"/>
     </row>
-    <row r="33" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="16" t="s">
         <v>19</v>
       </c>
@@ -4005,7 +4112,7 @@
       <c r="AJ33" s="45"/>
       <c r="AK33" s="45"/>
     </row>
-    <row r="34" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="79" t="s">
         <v>14</v>
       </c>
@@ -4023,10 +4130,10 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="113" t="s">
+      <c r="H34" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="I34" s="119"/>
+      <c r="I34" s="116"/>
       <c r="J34" s="9">
         <f>SUM(H31,-J31)</f>
         <v>19.05</v>
@@ -4045,19 +4152,19 @@
       </c>
       <c r="N34" s="9">
         <f t="shared" si="2"/>
-        <v>17.88</v>
+        <v>16.676600000000001</v>
       </c>
       <c r="O34" s="9">
         <f t="shared" si="2"/>
-        <v>17.88</v>
+        <v>16.676600000000001</v>
       </c>
       <c r="P34" s="9">
         <f t="shared" si="2"/>
-        <v>17.88</v>
+        <v>16.676600000000001</v>
       </c>
       <c r="Q34" s="9">
         <f t="shared" si="2"/>
-        <v>17.88</v>
+        <v>16.676600000000001</v>
       </c>
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
@@ -4080,7 +4187,7 @@
       <c r="AJ34" s="35"/>
       <c r="AK34" s="35"/>
     </row>
-    <row r="35" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="80" t="s">
         <v>13</v>
       </c>
@@ -4090,11 +4197,11 @@
       </c>
       <c r="D35" s="28">
         <f>SUM(I4:I7,I13:I14,I16:I19,I23)</f>
-        <v>0</v>
+        <v>1.2034</v>
       </c>
       <c r="E35" s="29">
         <f t="shared" ref="E35:E36" si="3">SUM(C35,-D35)</f>
-        <v>8.1999999999999993</v>
+        <v>6.996599999999999</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -4125,7 +4232,7 @@
       <c r="AJ35" s="45"/>
       <c r="AK35" s="45"/>
     </row>
-    <row r="36" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="81" t="s">
         <v>15</v>
       </c>
@@ -4142,21 +4249,21 @@
         <v>4.38</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="H36" s="113" t="s">
+      <c r="H36" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="114"/>
-      <c r="J36" s="113">
+      <c r="I36" s="111"/>
+      <c r="J36" s="110">
         <f>H31-I31</f>
-        <v>17.880000000000003</v>
-      </c>
-      <c r="K36" s="114"/>
-      <c r="L36" s="114"/>
-      <c r="M36" s="114"/>
-      <c r="N36" s="114"/>
-      <c r="O36" s="114"/>
-      <c r="P36" s="114"/>
-      <c r="Q36" s="119"/>
+        <v>16.676600000000001</v>
+      </c>
+      <c r="K36" s="111"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="111"/>
+      <c r="O36" s="111"/>
+      <c r="P36" s="111"/>
+      <c r="Q36" s="116"/>
       <c r="R36" s="42"/>
       <c r="S36" s="42"/>
       <c r="T36" s="42"/>
@@ -4178,7 +4285,7 @@
       <c r="AJ36" s="42"/>
       <c r="AK36" s="42"/>
     </row>
-    <row r="37" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -4192,7 +4299,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -4206,7 +4313,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -4220,42 +4327,47 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="6"/>
     </row>
-    <row r="53" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="6"/>
     </row>
-    <row r="55" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="6"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="H34:I34"/>
@@ -4268,11 +4380,6 @@
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4288,24 +4395,24 @@
       <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
-    <col min="4" max="4" width="55.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="55.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -4313,17 +4420,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="113" t="s">
+    <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="115"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="112"/>
       <c r="R2" s="52"/>
       <c r="S2" s="42"/>
       <c r="T2" s="42"/>
@@ -4345,7 +4452,7 @@
       <c r="AJ2" s="42"/>
       <c r="AK2" s="42"/>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
@@ -4415,8 +4522,8 @@
       <c r="AJ3" s="41"/>
       <c r="AK3" s="41"/>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="140" t="s">
+    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="139" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="66" t="s">
@@ -4460,8 +4567,8 @@
       <c r="AJ4" s="25"/>
       <c r="AK4" s="25"/>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="141"/>
+    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="140"/>
       <c r="C5" s="67" t="s">
         <v>24</v>
       </c>
@@ -4503,8 +4610,8 @@
       <c r="AJ5" s="25"/>
       <c r="AK5" s="25"/>
     </row>
-    <row r="6" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="141"/>
+    <row r="6" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="140"/>
       <c r="C6" s="56" t="s">
         <v>25</v>
       </c>
@@ -4546,8 +4653,8 @@
       <c r="AJ6" s="25"/>
       <c r="AK6" s="25"/>
     </row>
-    <row r="7" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="141"/>
+    <row r="7" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="140"/>
       <c r="C7" s="56" t="s">
         <v>26</v>
       </c>
@@ -4589,8 +4696,8 @@
       <c r="AJ7" s="25"/>
       <c r="AK7" s="25"/>
     </row>
-    <row r="8" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="141"/>
+    <row r="8" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="140"/>
       <c r="C8" s="56" t="s">
         <v>56</v>
       </c>
@@ -4629,8 +4736,8 @@
       <c r="AJ8" s="25"/>
       <c r="AK8" s="25"/>
     </row>
-    <row r="9" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="141"/>
+    <row r="9" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="140"/>
       <c r="C9" s="56" t="s">
         <v>55</v>
       </c>
@@ -4669,8 +4776,8 @@
       <c r="AJ9" s="25"/>
       <c r="AK9" s="25"/>
     </row>
-    <row r="10" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="141"/>
+    <row r="10" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="140"/>
       <c r="C10" s="56" t="s">
         <v>27</v>
       </c>
@@ -4712,8 +4819,8 @@
       <c r="AJ10" s="25"/>
       <c r="AK10" s="25"/>
     </row>
-    <row r="11" spans="1:37" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="141"/>
+    <row r="11" spans="1:37" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="140"/>
       <c r="C11" s="56" t="s">
         <v>52</v>
       </c>
@@ -4755,8 +4862,8 @@
       <c r="AJ11" s="25"/>
       <c r="AK11" s="25"/>
     </row>
-    <row r="12" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="142" t="s">
+    <row r="12" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="141" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="56" t="s">
@@ -4800,8 +4907,8 @@
       <c r="AJ12" s="25"/>
       <c r="AK12" s="25"/>
     </row>
-    <row r="13" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="143"/>
+    <row r="13" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="142"/>
       <c r="C13" s="56" t="s">
         <v>31</v>
       </c>
@@ -4843,8 +4950,8 @@
       <c r="AJ13" s="25"/>
       <c r="AK13" s="25"/>
     </row>
-    <row r="14" spans="1:37" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="143"/>
+    <row r="14" spans="1:37" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="142"/>
       <c r="C14" s="56" t="s">
         <v>30</v>
       </c>
@@ -4886,8 +4993,8 @@
       <c r="AJ14" s="25"/>
       <c r="AK14" s="25"/>
     </row>
-    <row r="15" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="144"/>
+    <row r="15" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="143"/>
       <c r="C15" s="56" t="s">
         <v>32</v>
       </c>
@@ -4929,11 +5036,11 @@
       <c r="AJ15" s="25"/>
       <c r="AK15" s="37"/>
     </row>
-    <row r="16" spans="1:37" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="145" t="s">
+    <row r="16" spans="1:37" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="148" t="s">
+      <c r="C16" s="147" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -4976,9 +5083,9 @@
       <c r="AJ16" s="25"/>
       <c r="AK16" s="25"/>
     </row>
-    <row r="17" spans="2:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="146"/>
-      <c r="C17" s="149"/>
+    <row r="17" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="145"/>
+      <c r="C17" s="148"/>
       <c r="D17" s="25" t="s">
         <v>36</v>
       </c>
@@ -5019,9 +5126,9 @@
       <c r="AJ17" s="25"/>
       <c r="AK17" s="25"/>
     </row>
-    <row r="18" spans="2:37" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="146"/>
-      <c r="C18" s="150"/>
+    <row r="18" spans="2:37" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="145"/>
+      <c r="C18" s="149"/>
       <c r="D18" s="25" t="s">
         <v>37</v>
       </c>
@@ -5062,8 +5169,8 @@
       <c r="AJ18" s="25"/>
       <c r="AK18" s="25"/>
     </row>
-    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="146"/>
+    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="145"/>
       <c r="C19" s="62"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -5103,8 +5210,8 @@
       <c r="AJ19" s="25"/>
       <c r="AK19" s="25"/>
     </row>
-    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="146"/>
+    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="145"/>
       <c r="C20" s="62"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -5144,8 +5251,8 @@
       <c r="AJ20" s="25"/>
       <c r="AK20" s="25"/>
     </row>
-    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="146"/>
+    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="145"/>
       <c r="C21" s="62"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -5185,8 +5292,8 @@
       <c r="AJ21" s="25"/>
       <c r="AK21" s="25"/>
     </row>
-    <row r="22" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="147"/>
+    <row r="22" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="146"/>
       <c r="C22" s="62"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -5226,7 +5333,7 @@
       <c r="AJ22" s="25"/>
       <c r="AK22" s="25"/>
     </row>
-    <row r="23" spans="2:37" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:37" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="34" t="s">
         <v>38</v>
       </c>
@@ -5271,11 +5378,11 @@
       <c r="AJ23" s="25"/>
       <c r="AK23" s="25"/>
     </row>
-    <row r="24" spans="2:37" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="133" t="s">
+    <row r="24" spans="2:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="135" t="s">
+      <c r="C24" s="137" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -5318,9 +5425,9 @@
       <c r="AJ24" s="37"/>
       <c r="AK24" s="25"/>
     </row>
-    <row r="25" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="108"/>
-      <c r="C25" s="111"/>
+    <row r="25" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="126"/>
+      <c r="C25" s="133"/>
       <c r="D25" s="25" t="s">
         <v>41</v>
       </c>
@@ -5361,9 +5468,9 @@
       <c r="AJ25" s="37"/>
       <c r="AK25" s="25"/>
     </row>
-    <row r="26" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="134"/>
-      <c r="C26" s="136"/>
+    <row r="26" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="136"/>
+      <c r="C26" s="138"/>
       <c r="D26" s="25" t="s">
         <v>48</v>
       </c>
@@ -5404,8 +5511,8 @@
       <c r="AJ26" s="37"/>
       <c r="AK26" s="25"/>
     </row>
-    <row r="27" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="133" t="s">
+    <row r="27" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="135" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="69" t="s">
@@ -5449,8 +5556,8 @@
       <c r="AJ27" s="37"/>
       <c r="AK27" s="25"/>
     </row>
-    <row r="28" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="108"/>
+    <row r="28" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="126"/>
       <c r="C28" s="64" t="s">
         <v>54</v>
       </c>
@@ -5489,8 +5596,8 @@
       <c r="AJ28" s="37"/>
       <c r="AK28" s="25"/>
     </row>
-    <row r="29" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="108"/>
+    <row r="29" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="126"/>
       <c r="C29" s="68" t="s">
         <v>44</v>
       </c>
@@ -5532,8 +5639,8 @@
       <c r="AJ29" s="38"/>
       <c r="AK29" s="37"/>
     </row>
-    <row r="30" spans="2:37" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="134"/>
+    <row r="30" spans="2:37" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="136"/>
       <c r="C30" s="63" t="s">
         <v>53</v>
       </c>
@@ -5575,11 +5682,11 @@
       <c r="AJ30" s="37"/>
       <c r="AK30" s="37"/>
     </row>
-    <row r="31" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="133" t="s">
+    <row r="31" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="135" t="s">
+      <c r="C31" s="137" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="25" t="s">
@@ -5622,9 +5729,9 @@
       <c r="AJ31" s="37"/>
       <c r="AK31" s="37"/>
     </row>
-    <row r="32" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="108"/>
-      <c r="C32" s="111"/>
+    <row r="32" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="126"/>
+      <c r="C32" s="133"/>
       <c r="D32" s="25" t="s">
         <v>46</v>
       </c>
@@ -5665,9 +5772,9 @@
       <c r="AJ32" s="37"/>
       <c r="AK32" s="37"/>
     </row>
-    <row r="33" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="108"/>
-      <c r="C33" s="136"/>
+    <row r="33" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="126"/>
+      <c r="C33" s="138"/>
       <c r="D33" s="25" t="s">
         <v>47</v>
       </c>
@@ -5708,8 +5815,8 @@
       <c r="AJ33" s="37"/>
       <c r="AK33" s="37"/>
     </row>
-    <row r="34" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="134"/>
+    <row r="34" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="136"/>
       <c r="C34" s="63"/>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
@@ -5749,8 +5856,8 @@
       <c r="AJ34" s="37"/>
       <c r="AK34" s="37"/>
     </row>
-    <row r="35" spans="2:37" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="133" t="s">
+    <row r="35" spans="2:37" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="135" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="63" t="s">
@@ -5794,8 +5901,8 @@
       <c r="AJ35" s="37"/>
       <c r="AK35" s="37"/>
     </row>
-    <row r="36" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="108"/>
+    <row r="36" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="126"/>
       <c r="C36" s="58" t="s">
         <v>51</v>
       </c>
@@ -5837,8 +5944,8 @@
       <c r="AJ36" s="25"/>
       <c r="AK36" s="37"/>
     </row>
-    <row r="37" spans="2:37" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="108"/>
+    <row r="37" spans="2:37" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="126"/>
       <c r="C37" s="58"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
@@ -5878,8 +5985,8 @@
       <c r="AJ37" s="25"/>
       <c r="AK37" s="37"/>
     </row>
-    <row r="38" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="134"/>
+    <row r="38" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="136"/>
       <c r="C38" s="54"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -5919,7 +6026,7 @@
       <c r="AJ38" s="37"/>
       <c r="AK38" s="37"/>
     </row>
-    <row r="39" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="65"/>
       <c r="C39" s="58"/>
       <c r="D39" s="25"/>
@@ -5960,7 +6067,7 @@
       <c r="AJ39" s="38"/>
       <c r="AK39" s="37"/>
     </row>
-    <row r="40" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="65"/>
       <c r="C40" s="58"/>
       <c r="D40" s="25"/>
@@ -6001,7 +6108,7 @@
       <c r="AJ40" s="25"/>
       <c r="AK40" s="37"/>
     </row>
-    <row r="41" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="65"/>
       <c r="C41" s="58"/>
       <c r="D41" s="25"/>
@@ -6042,7 +6149,7 @@
       <c r="AJ41" s="25"/>
       <c r="AK41" s="37"/>
     </row>
-    <row r="42" spans="2:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="65"/>
       <c r="C42" s="58"/>
       <c r="D42" s="25"/>
@@ -6083,7 +6190,7 @@
       <c r="AJ42" s="25"/>
       <c r="AK42" s="37"/>
     </row>
-    <row r="43" spans="2:37" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="65"/>
       <c r="C43" s="58"/>
       <c r="D43" s="25"/>
@@ -6124,7 +6231,7 @@
       <c r="AJ43" s="25"/>
       <c r="AK43" s="37"/>
     </row>
-    <row r="44" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="65"/>
       <c r="C44" s="58"/>
       <c r="D44" s="25"/>
@@ -6165,7 +6272,7 @@
       <c r="AJ44" s="25"/>
       <c r="AK44" s="37"/>
     </row>
-    <row r="45" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="65"/>
       <c r="C45" s="64"/>
       <c r="D45" s="25"/>
@@ -6206,7 +6313,7 @@
       <c r="AJ45" s="38"/>
       <c r="AK45" s="38"/>
     </row>
-    <row r="46" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="65"/>
       <c r="C46" s="64"/>
       <c r="D46" s="25"/>
@@ -6247,7 +6354,7 @@
       <c r="AJ46" s="38"/>
       <c r="AK46" s="38"/>
     </row>
-    <row r="47" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="65"/>
       <c r="C47" s="55"/>
       <c r="D47" s="25"/>
@@ -6288,7 +6395,7 @@
       <c r="AJ47" s="25"/>
       <c r="AK47" s="37"/>
     </row>
-    <row r="48" spans="2:37" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:37" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="65"/>
       <c r="C48" s="58"/>
       <c r="D48" s="25"/>
@@ -6329,8 +6436,8 @@
       <c r="AJ48" s="37"/>
       <c r="AK48" s="37"/>
     </row>
-    <row r="49" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="137"/>
+    <row r="49" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="152"/>
       <c r="C49" s="37"/>
       <c r="D49" s="25"/>
       <c r="E49" s="37"/>
@@ -6370,8 +6477,8 @@
       <c r="AJ49" s="25"/>
       <c r="AK49" s="25"/>
     </row>
-    <row r="50" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="137"/>
+    <row r="50" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="152"/>
       <c r="C50" s="37"/>
       <c r="D50" s="25"/>
       <c r="E50" s="37"/>
@@ -6411,8 +6518,8 @@
       <c r="AJ50" s="25"/>
       <c r="AK50" s="25"/>
     </row>
-    <row r="51" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="137"/>
+    <row r="51" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="152"/>
       <c r="C51" s="62"/>
       <c r="D51" s="25"/>
       <c r="E51" s="37"/>
@@ -6452,8 +6559,8 @@
       <c r="AJ51" s="25"/>
       <c r="AK51" s="25"/>
     </row>
-    <row r="52" spans="2:37" ht="21" x14ac:dyDescent="0.25">
-      <c r="B52" s="138"/>
+    <row r="52" spans="2:37" ht="21" x14ac:dyDescent="0.3">
+      <c r="B52" s="153"/>
       <c r="C52" s="62"/>
       <c r="D52" s="25"/>
       <c r="E52" s="37"/>
@@ -6493,8 +6600,8 @@
       <c r="AJ52" s="25"/>
       <c r="AK52" s="25"/>
     </row>
-    <row r="53" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="139"/>
+    <row r="53" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="154"/>
       <c r="C53" s="56"/>
       <c r="D53" s="25"/>
       <c r="E53" s="37"/>
@@ -6534,8 +6641,8 @@
       <c r="AJ53" s="25"/>
       <c r="AK53" s="25"/>
     </row>
-    <row r="54" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="139"/>
+    <row r="54" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="154"/>
       <c r="C54" s="56"/>
       <c r="D54" s="25"/>
       <c r="E54" s="37"/>
@@ -6575,8 +6682,8 @@
       <c r="AJ54" s="25"/>
       <c r="AK54" s="25"/>
     </row>
-    <row r="55" spans="2:37" ht="21" x14ac:dyDescent="0.25">
-      <c r="B55" s="139"/>
+    <row r="55" spans="2:37" ht="21" x14ac:dyDescent="0.3">
+      <c r="B55" s="154"/>
       <c r="C55" s="37"/>
       <c r="D55" s="25"/>
       <c r="E55" s="37"/>
@@ -6616,8 +6723,8 @@
       <c r="AJ55" s="25"/>
       <c r="AK55" s="25"/>
     </row>
-    <row r="56" spans="2:37" ht="21" x14ac:dyDescent="0.25">
-      <c r="B56" s="139"/>
+    <row r="56" spans="2:37" ht="21" x14ac:dyDescent="0.3">
+      <c r="B56" s="154"/>
       <c r="C56" s="37"/>
       <c r="D56" s="25"/>
       <c r="E56" s="37"/>
@@ -6657,15 +6764,15 @@
       <c r="AJ56" s="38"/>
       <c r="AK56" s="38"/>
     </row>
-    <row r="57" spans="2:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="131" t="s">
+    <row r="57" spans="2:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="132"/>
-      <c r="D57" s="132"/>
-      <c r="E57" s="132"/>
-      <c r="F57" s="132"/>
-      <c r="G57" s="132"/>
+      <c r="C57" s="151"/>
+      <c r="D57" s="151"/>
+      <c r="E57" s="151"/>
+      <c r="F57" s="151"/>
+      <c r="G57" s="151"/>
       <c r="H57" s="60">
         <f t="shared" ref="H57:I57" si="2">SUM(H4:H56)</f>
         <v>0</v>
@@ -6703,7 +6810,7 @@
       <c r="AJ57" s="35"/>
       <c r="AK57" s="35"/>
     </row>
-    <row r="58" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -6743,7 +6850,7 @@
       <c r="AJ58" s="42"/>
       <c r="AK58" s="42"/>
     </row>
-    <row r="59" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="16" t="s">
         <v>19</v>
       </c>
@@ -6787,7 +6894,7 @@
       <c r="AJ59" s="45"/>
       <c r="AK59" s="45"/>
     </row>
-    <row r="60" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="22" t="s">
         <v>14</v>
       </c>
@@ -6796,10 +6903,10 @@
       <c r="E60" s="29"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="113" t="s">
+      <c r="H60" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="I60" s="119"/>
+      <c r="I60" s="116"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -6829,7 +6936,7 @@
       <c r="AJ60" s="35"/>
       <c r="AK60" s="35"/>
     </row>
-    <row r="61" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="20" t="s">
         <v>13</v>
       </c>
@@ -6865,7 +6972,7 @@
       <c r="AJ61" s="45"/>
       <c r="AK61" s="45"/>
     </row>
-    <row r="62" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="20" t="s">
         <v>15</v>
       </c>
@@ -6873,21 +6980,21 @@
       <c r="D62" s="31"/>
       <c r="E62" s="32"/>
       <c r="F62" s="3"/>
-      <c r="H62" s="113" t="s">
+      <c r="H62" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="I62" s="114"/>
-      <c r="J62" s="113">
+      <c r="I62" s="111"/>
+      <c r="J62" s="110">
         <f>H57-I57</f>
         <v>0</v>
       </c>
-      <c r="K62" s="114"/>
-      <c r="L62" s="114"/>
-      <c r="M62" s="114"/>
-      <c r="N62" s="114"/>
-      <c r="O62" s="114"/>
-      <c r="P62" s="114"/>
-      <c r="Q62" s="119"/>
+      <c r="K62" s="111"/>
+      <c r="L62" s="111"/>
+      <c r="M62" s="111"/>
+      <c r="N62" s="111"/>
+      <c r="O62" s="111"/>
+      <c r="P62" s="111"/>
+      <c r="Q62" s="116"/>
       <c r="R62" s="42"/>
       <c r="S62" s="42"/>
       <c r="T62" s="42"/>
@@ -6909,7 +7016,7 @@
       <c r="AJ62" s="42"/>
       <c r="AK62" s="42"/>
     </row>
-    <row r="63" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -6923,7 +7030,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -6937,7 +7044,7 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -6951,49 +7058,42 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="6"/>
     </row>
-    <row r="73" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B73" s="6"/>
     </row>
-    <row r="74" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B78" s="6"/>
     </row>
-    <row r="79" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="6"/>
     </row>
-    <row r="80" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="6"/>
     </row>
-    <row r="81" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="6"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="C16:C18"/>
     <mergeCell ref="B57:G57"/>
     <mergeCell ref="H60:I60"/>
     <mergeCell ref="H62:I62"/>
@@ -7004,6 +7104,13 @@
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7016,7 +7123,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sprint-1_Mecanicas.xlsx
+++ b/Sprint-1_Mecanicas.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI-D\Documents\MecanicasAvanzao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iriag\Desktop\Alex\Definetly_Not_Pong\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8FCA27-3FA8-4477-8404-4DBE4AC2CF3D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="68">
   <si>
     <t>Subtarea</t>
   </si>
@@ -230,7 +231,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -342,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,12 +404,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="38">
     <border>
@@ -1230,6 +1225,42 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1273,15 +1304,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1293,17 +1315,11 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1317,6 +1333,15 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1350,37 +1375,7 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1403,7 +1398,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1498,13 +1493,13 @@
                   <c:v>16.676600000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.676600000000001</c:v>
+                  <c:v>15.676600000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.676600000000001</c:v>
+                  <c:v>15.676600000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.676600000000001</c:v>
+                  <c:v>15.676600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1588,7 +1583,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1683,13 +1678,13 @@
                   <c:v>16.676600000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.676600000000001</c:v>
+                  <c:v>15.676600000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.676600000000001</c:v>
+                  <c:v>15.676600000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.676600000000001</c:v>
+                  <c:v>15.676600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1855,7 +1850,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2174,58 +2169,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="N27" sqref="N27:N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" customWidth="1"/>
-    <col min="4" max="4" width="55.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="55.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="46.8" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:37" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-    </row>
-    <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="110" t="s">
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+    </row>
+    <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="112"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="124"/>
       <c r="R2" s="52"/>
       <c r="S2" s="42"/>
       <c r="T2" s="42"/>
@@ -2247,7 +2242,7 @@
       <c r="AJ2" s="42"/>
       <c r="AK2" s="42"/>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
@@ -2317,8 +2312,8 @@
       <c r="AJ3" s="41"/>
       <c r="AK3" s="41"/>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="113" t="s">
+    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="125" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="82" t="s">
@@ -2353,7 +2348,7 @@
       <c r="M4" s="106">
         <v>0</v>
       </c>
-      <c r="N4" s="155">
+      <c r="N4" s="110">
         <v>0</v>
       </c>
       <c r="O4" s="24"/>
@@ -2380,8 +2375,8 @@
       <c r="AJ4" s="25"/>
       <c r="AK4" s="25"/>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="114"/>
+    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="126"/>
       <c r="C5" s="85" t="s">
         <v>31</v>
       </c>
@@ -2414,7 +2409,7 @@
       <c r="M5" s="106">
         <v>0</v>
       </c>
-      <c r="N5" s="156">
+      <c r="N5" s="111">
         <v>0.11700000000000001</v>
       </c>
       <c r="O5" s="25"/>
@@ -2441,8 +2436,8 @@
       <c r="AJ5" s="25"/>
       <c r="AK5" s="25"/>
     </row>
-    <row r="6" spans="1:37" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="114"/>
+    <row r="6" spans="1:37" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="126"/>
       <c r="C6" s="85" t="s">
         <v>30</v>
       </c>
@@ -2475,7 +2470,7 @@
       <c r="M6" s="106">
         <v>0</v>
       </c>
-      <c r="N6" s="157">
+      <c r="N6" s="160">
         <v>1.67E-2</v>
       </c>
       <c r="O6" s="25"/>
@@ -2502,8 +2497,8 @@
       <c r="AJ6" s="25"/>
       <c r="AK6" s="25"/>
     </row>
-    <row r="7" spans="1:37" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="115"/>
+    <row r="7" spans="1:37" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="127"/>
       <c r="C7" s="88" t="s">
         <v>32</v>
       </c>
@@ -2536,7 +2531,7 @@
       <c r="M7" s="106">
         <v>0</v>
       </c>
-      <c r="N7" s="158">
+      <c r="N7" s="112">
         <v>0</v>
       </c>
       <c r="O7" s="70"/>
@@ -2563,11 +2558,11 @@
       <c r="AJ7" s="25"/>
       <c r="AK7" s="37"/>
     </row>
-    <row r="8" spans="1:37" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="119" t="s">
+    <row r="8" spans="1:37" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="134" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="91" t="s">
@@ -2626,9 +2621,9 @@
       <c r="AJ8" s="25"/>
       <c r="AK8" s="25"/>
     </row>
-    <row r="9" spans="1:37" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="120"/>
-      <c r="C9" s="123"/>
+    <row r="9" spans="1:37" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="132"/>
+      <c r="C9" s="135"/>
       <c r="D9" s="92" t="s">
         <v>59</v>
       </c>
@@ -2685,9 +2680,9 @@
       <c r="AJ9" s="25"/>
       <c r="AK9" s="25"/>
     </row>
-    <row r="10" spans="1:37" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="120"/>
-      <c r="C10" s="123"/>
+    <row r="10" spans="1:37" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="132"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="92" t="s">
         <v>36</v>
       </c>
@@ -2744,9 +2739,9 @@
       <c r="AJ10" s="25"/>
       <c r="AK10" s="25"/>
     </row>
-    <row r="11" spans="1:37" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="121"/>
-      <c r="C11" s="124"/>
+    <row r="11" spans="1:37" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="133"/>
+      <c r="C11" s="136"/>
       <c r="D11" s="93" t="s">
         <v>66</v>
       </c>
@@ -2803,7 +2798,7 @@
       <c r="AJ11" s="25"/>
       <c r="AK11" s="25"/>
     </row>
-    <row r="12" spans="1:37" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="94" t="s">
         <v>38</v>
       </c>
@@ -2825,7 +2820,7 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" si="0"/>
-        <v>1.17</v>
+        <v>2.17</v>
       </c>
       <c r="J12" s="106">
         <v>0</v>
@@ -2842,7 +2837,9 @@
       <c r="N12" s="107">
         <v>0.5</v>
       </c>
-      <c r="O12" s="73"/>
+      <c r="O12" s="107">
+        <v>1</v>
+      </c>
       <c r="P12" s="73"/>
       <c r="Q12" s="75"/>
       <c r="R12" s="48"/>
@@ -2866,11 +2863,11 @@
       <c r="AJ12" s="25"/>
       <c r="AK12" s="25"/>
     </row>
-    <row r="13" spans="1:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="125" t="s">
+    <row r="13" spans="1:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="119" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="83" t="s">
@@ -2904,7 +2901,7 @@
       <c r="M13" s="108">
         <v>0</v>
       </c>
-      <c r="N13" s="159">
+      <c r="N13" s="113">
         <v>0.83299999999999996</v>
       </c>
       <c r="O13" s="24"/>
@@ -2931,9 +2928,9 @@
       <c r="AJ13" s="25"/>
       <c r="AK13" s="25"/>
     </row>
-    <row r="14" spans="1:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="126"/>
-      <c r="C14" s="133"/>
+    <row r="14" spans="1:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="117"/>
+      <c r="C14" s="120"/>
       <c r="D14" s="86" t="s">
         <v>65</v>
       </c>
@@ -2965,7 +2962,7 @@
       <c r="M14" s="108">
         <v>0</v>
       </c>
-      <c r="N14" s="160">
+      <c r="N14" s="114">
         <v>0</v>
       </c>
       <c r="O14" s="25"/>
@@ -2992,9 +2989,9 @@
       <c r="AJ14" s="25"/>
       <c r="AK14" s="25"/>
     </row>
-    <row r="15" spans="1:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="126"/>
-      <c r="C15" s="133"/>
+    <row r="15" spans="1:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="117"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="99" t="s">
         <v>64</v>
       </c>
@@ -3026,7 +3023,7 @@
       <c r="M15" s="108">
         <v>0</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="108">
         <v>0</v>
       </c>
       <c r="O15" s="25"/>
@@ -3053,9 +3050,9 @@
       <c r="AJ15" s="25"/>
       <c r="AK15" s="25"/>
     </row>
-    <row r="16" spans="1:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="126"/>
-      <c r="C16" s="133"/>
+    <row r="16" spans="1:37" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="117"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="86" t="s">
         <v>61</v>
       </c>
@@ -3087,7 +3084,7 @@
       <c r="M16" s="108">
         <v>0</v>
       </c>
-      <c r="N16" s="156">
+      <c r="N16" s="111">
         <v>0.2</v>
       </c>
       <c r="O16" s="25"/>
@@ -3114,9 +3111,9 @@
       <c r="AJ16" s="37"/>
       <c r="AK16" s="25"/>
     </row>
-    <row r="17" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="126"/>
-      <c r="C17" s="133"/>
+    <row r="17" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="117"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="86" t="s">
         <v>41</v>
       </c>
@@ -3148,7 +3145,7 @@
       <c r="M17" s="108">
         <v>0</v>
       </c>
-      <c r="N17" s="160">
+      <c r="N17" s="114">
         <v>0</v>
       </c>
       <c r="O17" s="25"/>
@@ -3175,9 +3172,9 @@
       <c r="AJ17" s="37"/>
       <c r="AK17" s="25"/>
     </row>
-    <row r="18" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="127"/>
-      <c r="C18" s="134"/>
+    <row r="18" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="118"/>
+      <c r="C18" s="121"/>
       <c r="D18" s="89" t="s">
         <v>48</v>
       </c>
@@ -3209,7 +3206,7 @@
       <c r="M18" s="108">
         <v>0</v>
       </c>
-      <c r="N18" s="158">
+      <c r="N18" s="112">
         <v>0</v>
       </c>
       <c r="O18" s="70"/>
@@ -3236,11 +3233,11 @@
       <c r="AJ18" s="37"/>
       <c r="AK18" s="25"/>
     </row>
-    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="125" t="s">
+    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="119" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="83" t="s">
@@ -3274,7 +3271,7 @@
       <c r="M19" s="108">
         <v>0</v>
       </c>
-      <c r="N19" s="159">
+      <c r="N19" s="113">
         <v>1.67E-2</v>
       </c>
       <c r="O19" s="24"/>
@@ -3301,9 +3298,9 @@
       <c r="AJ19" s="37"/>
       <c r="AK19" s="25"/>
     </row>
-    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="126"/>
-      <c r="C20" s="133"/>
+    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
       <c r="D20" s="92" t="s">
         <v>59</v>
       </c>
@@ -3362,9 +3359,9 @@
       <c r="AJ20" s="37"/>
       <c r="AK20" s="25"/>
     </row>
-    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="126"/>
-      <c r="C21" s="133"/>
+    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="117"/>
+      <c r="C21" s="120"/>
       <c r="D21" s="92" t="s">
         <v>60</v>
       </c>
@@ -3423,9 +3420,9 @@
       <c r="AJ21" s="37"/>
       <c r="AK21" s="25"/>
     </row>
-    <row r="22" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="127"/>
-      <c r="C22" s="134"/>
+    <row r="22" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="118"/>
+      <c r="C22" s="121"/>
       <c r="D22" s="93" t="s">
         <v>61</v>
       </c>
@@ -3484,8 +3481,8 @@
       <c r="AJ22" s="37"/>
       <c r="AK22" s="25"/>
     </row>
-    <row r="23" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="125" t="s">
+    <row r="23" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="116" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="97" t="s">
@@ -3520,7 +3517,7 @@
       <c r="M23" s="108">
         <v>0</v>
       </c>
-      <c r="N23" s="159">
+      <c r="N23" s="113">
         <v>0.02</v>
       </c>
       <c r="O23" s="24"/>
@@ -3547,8 +3544,8 @@
       <c r="AJ23" s="37"/>
       <c r="AK23" s="25"/>
     </row>
-    <row r="24" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="126"/>
+    <row r="24" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="117"/>
       <c r="C24" s="100" t="s">
         <v>54</v>
       </c>
@@ -3579,7 +3576,7 @@
       <c r="M24" s="108">
         <v>0</v>
       </c>
-      <c r="N24" s="25">
+      <c r="N24" s="108">
         <v>0</v>
       </c>
       <c r="O24" s="25"/>
@@ -3606,8 +3603,8 @@
       <c r="AJ24" s="37"/>
       <c r="AK24" s="25"/>
     </row>
-    <row r="25" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="126"/>
+    <row r="25" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="117"/>
       <c r="C25" s="101" t="s">
         <v>44</v>
       </c>
@@ -3638,7 +3635,7 @@
       <c r="M25" s="108">
         <v>0</v>
       </c>
-      <c r="N25" s="25">
+      <c r="N25" s="108">
         <v>0</v>
       </c>
       <c r="O25" s="25"/>
@@ -3665,8 +3662,8 @@
       <c r="AJ25" s="38"/>
       <c r="AK25" s="37"/>
     </row>
-    <row r="26" spans="2:37" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="127"/>
+    <row r="26" spans="2:37" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="118"/>
       <c r="C26" s="102" t="s">
         <v>53</v>
       </c>
@@ -3718,11 +3715,11 @@
       <c r="AJ26" s="37"/>
       <c r="AK26" s="37"/>
     </row>
-    <row r="27" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="125" t="s">
+    <row r="27" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="128" t="s">
+      <c r="C27" s="137" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="91" t="s">
@@ -3781,9 +3778,9 @@
       <c r="AJ27" s="37"/>
       <c r="AK27" s="37"/>
     </row>
-    <row r="28" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="126"/>
-      <c r="C28" s="129"/>
+    <row r="28" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="117"/>
+      <c r="C28" s="138"/>
       <c r="D28" s="92" t="s">
         <v>67</v>
       </c>
@@ -3840,9 +3837,9 @@
       <c r="AJ28" s="37"/>
       <c r="AK28" s="37"/>
     </row>
-    <row r="29" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="126"/>
-      <c r="C29" s="129"/>
+    <row r="29" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="117"/>
+      <c r="C29" s="138"/>
       <c r="D29" s="92" t="s">
         <v>46</v>
       </c>
@@ -3899,9 +3896,9 @@
       <c r="AJ29" s="37"/>
       <c r="AK29" s="37"/>
     </row>
-    <row r="30" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="127"/>
-      <c r="C30" s="130"/>
+    <row r="30" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="118"/>
+      <c r="C30" s="139"/>
       <c r="D30" s="93" t="s">
         <v>47</v>
       </c>
@@ -3958,22 +3955,22 @@
       <c r="AJ30" s="37"/>
       <c r="AK30" s="37"/>
     </row>
-    <row r="31" spans="2:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="117" t="s">
+    <row r="31" spans="2:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="118"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="118"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
       <c r="H31" s="78">
         <f>SUM(H4:H30)</f>
         <v>19.8</v>
       </c>
       <c r="I31" s="78">
         <f>SUM(I4:I30)</f>
-        <v>3.1234000000000002</v>
+        <v>4.1234000000000002</v>
       </c>
       <c r="J31" s="78">
         <f>SUM(J4:J30)</f>
@@ -3997,7 +3994,7 @@
       </c>
       <c r="O31" s="78">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="78">
         <f t="shared" si="1"/>
@@ -4028,7 +4025,7 @@
       <c r="AJ31" s="35"/>
       <c r="AK31" s="35"/>
     </row>
-    <row r="32" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4037,16 +4034,16 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="110" t="s">
+      <c r="J32" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="111"/>
-      <c r="L32" s="111"/>
-      <c r="M32" s="111"/>
-      <c r="N32" s="111"/>
-      <c r="O32" s="111"/>
-      <c r="P32" s="111"/>
-      <c r="Q32" s="116"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="128"/>
       <c r="R32" s="42"/>
       <c r="S32" s="42"/>
       <c r="T32" s="42"/>
@@ -4068,7 +4065,7 @@
       <c r="AJ32" s="42"/>
       <c r="AK32" s="42"/>
     </row>
-    <row r="33" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>19</v>
       </c>
@@ -4112,7 +4109,7 @@
       <c r="AJ33" s="45"/>
       <c r="AK33" s="45"/>
     </row>
-    <row r="34" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="79" t="s">
         <v>14</v>
       </c>
@@ -4130,10 +4127,10 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="110" t="s">
+      <c r="H34" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="I34" s="116"/>
+      <c r="I34" s="128"/>
       <c r="J34" s="9">
         <f>SUM(H31,-J31)</f>
         <v>19.05</v>
@@ -4156,15 +4153,15 @@
       </c>
       <c r="O34" s="9">
         <f t="shared" si="2"/>
-        <v>16.676600000000001</v>
+        <v>15.676600000000001</v>
       </c>
       <c r="P34" s="9">
         <f t="shared" si="2"/>
-        <v>16.676600000000001</v>
+        <v>15.676600000000001</v>
       </c>
       <c r="Q34" s="9">
         <f t="shared" si="2"/>
-        <v>16.676600000000001</v>
+        <v>15.676600000000001</v>
       </c>
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
@@ -4187,7 +4184,7 @@
       <c r="AJ34" s="35"/>
       <c r="AK34" s="35"/>
     </row>
-    <row r="35" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="80" t="s">
         <v>13</v>
       </c>
@@ -4232,7 +4229,7 @@
       <c r="AJ35" s="45"/>
       <c r="AK35" s="45"/>
     </row>
-    <row r="36" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="81" t="s">
         <v>15</v>
       </c>
@@ -4242,28 +4239,28 @@
       </c>
       <c r="D36" s="31">
         <f>SUM(I12,I15,I24:I26)</f>
-        <v>1.92</v>
+        <v>2.92</v>
       </c>
       <c r="E36" s="29">
         <f t="shared" si="3"/>
-        <v>4.38</v>
+        <v>3.38</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="H36" s="110" t="s">
+      <c r="H36" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="111"/>
-      <c r="J36" s="110">
+      <c r="I36" s="123"/>
+      <c r="J36" s="122">
         <f>H31-I31</f>
-        <v>16.676600000000001</v>
-      </c>
-      <c r="K36" s="111"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="111"/>
-      <c r="N36" s="111"/>
-      <c r="O36" s="111"/>
-      <c r="P36" s="111"/>
-      <c r="Q36" s="116"/>
+        <v>15.676600000000001</v>
+      </c>
+      <c r="K36" s="123"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="123"/>
+      <c r="N36" s="123"/>
+      <c r="O36" s="123"/>
+      <c r="P36" s="123"/>
+      <c r="Q36" s="128"/>
       <c r="R36" s="42"/>
       <c r="S36" s="42"/>
       <c r="T36" s="42"/>
@@ -4285,7 +4282,7 @@
       <c r="AJ36" s="42"/>
       <c r="AK36" s="42"/>
     </row>
-    <row r="37" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -4299,7 +4296,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -4313,7 +4310,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -4327,47 +4324,42 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
     </row>
-    <row r="53" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
     </row>
-    <row r="55" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="H34:I34"/>
@@ -4380,6 +4372,11 @@
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4388,31 +4385,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK82"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" customWidth="1"/>
-    <col min="4" max="4" width="55.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="55.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -4420,17 +4417,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="110" t="s">
+    <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="112"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="124"/>
       <c r="R2" s="52"/>
       <c r="S2" s="42"/>
       <c r="T2" s="42"/>
@@ -4452,7 +4449,7 @@
       <c r="AJ2" s="42"/>
       <c r="AK2" s="42"/>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
@@ -4522,8 +4519,8 @@
       <c r="AJ3" s="41"/>
       <c r="AK3" s="41"/>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="139" t="s">
+    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="149" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="66" t="s">
@@ -4567,8 +4564,8 @@
       <c r="AJ4" s="25"/>
       <c r="AK4" s="25"/>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="140"/>
+    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="150"/>
       <c r="C5" s="67" t="s">
         <v>24</v>
       </c>
@@ -4610,8 +4607,8 @@
       <c r="AJ5" s="25"/>
       <c r="AK5" s="25"/>
     </row>
-    <row r="6" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="140"/>
+    <row r="6" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="150"/>
       <c r="C6" s="56" t="s">
         <v>25</v>
       </c>
@@ -4653,8 +4650,8 @@
       <c r="AJ6" s="25"/>
       <c r="AK6" s="25"/>
     </row>
-    <row r="7" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="140"/>
+    <row r="7" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="150"/>
       <c r="C7" s="56" t="s">
         <v>26</v>
       </c>
@@ -4696,8 +4693,8 @@
       <c r="AJ7" s="25"/>
       <c r="AK7" s="25"/>
     </row>
-    <row r="8" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="140"/>
+    <row r="8" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="150"/>
       <c r="C8" s="56" t="s">
         <v>56</v>
       </c>
@@ -4736,8 +4733,8 @@
       <c r="AJ8" s="25"/>
       <c r="AK8" s="25"/>
     </row>
-    <row r="9" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="140"/>
+    <row r="9" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="150"/>
       <c r="C9" s="56" t="s">
         <v>55</v>
       </c>
@@ -4776,8 +4773,8 @@
       <c r="AJ9" s="25"/>
       <c r="AK9" s="25"/>
     </row>
-    <row r="10" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="140"/>
+    <row r="10" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="150"/>
       <c r="C10" s="56" t="s">
         <v>27</v>
       </c>
@@ -4819,8 +4816,8 @@
       <c r="AJ10" s="25"/>
       <c r="AK10" s="25"/>
     </row>
-    <row r="11" spans="1:37" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="140"/>
+    <row r="11" spans="1:37" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="150"/>
       <c r="C11" s="56" t="s">
         <v>52</v>
       </c>
@@ -4862,8 +4859,8 @@
       <c r="AJ11" s="25"/>
       <c r="AK11" s="25"/>
     </row>
-    <row r="12" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="141" t="s">
+    <row r="12" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="151" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="56" t="s">
@@ -4907,8 +4904,8 @@
       <c r="AJ12" s="25"/>
       <c r="AK12" s="25"/>
     </row>
-    <row r="13" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="142"/>
+    <row r="13" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="152"/>
       <c r="C13" s="56" t="s">
         <v>31</v>
       </c>
@@ -4950,8 +4947,8 @@
       <c r="AJ13" s="25"/>
       <c r="AK13" s="25"/>
     </row>
-    <row r="14" spans="1:37" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="142"/>
+    <row r="14" spans="1:37" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="152"/>
       <c r="C14" s="56" t="s">
         <v>30</v>
       </c>
@@ -4993,8 +4990,8 @@
       <c r="AJ14" s="25"/>
       <c r="AK14" s="25"/>
     </row>
-    <row r="15" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="143"/>
+    <row r="15" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="153"/>
       <c r="C15" s="56" t="s">
         <v>32</v>
       </c>
@@ -5036,11 +5033,11 @@
       <c r="AJ15" s="25"/>
       <c r="AK15" s="37"/>
     </row>
-    <row r="16" spans="1:37" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="144" t="s">
+    <row r="16" spans="1:37" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="147" t="s">
+      <c r="C16" s="157" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -5083,9 +5080,9 @@
       <c r="AJ16" s="25"/>
       <c r="AK16" s="25"/>
     </row>
-    <row r="17" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="145"/>
-      <c r="C17" s="148"/>
+    <row r="17" spans="2:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="155"/>
+      <c r="C17" s="158"/>
       <c r="D17" s="25" t="s">
         <v>36</v>
       </c>
@@ -5126,9 +5123,9 @@
       <c r="AJ17" s="25"/>
       <c r="AK17" s="25"/>
     </row>
-    <row r="18" spans="2:37" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="145"/>
-      <c r="C18" s="149"/>
+    <row r="18" spans="2:37" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="155"/>
+      <c r="C18" s="159"/>
       <c r="D18" s="25" t="s">
         <v>37</v>
       </c>
@@ -5169,8 +5166,8 @@
       <c r="AJ18" s="25"/>
       <c r="AK18" s="25"/>
     </row>
-    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="145"/>
+    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="155"/>
       <c r="C19" s="62"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -5210,8 +5207,8 @@
       <c r="AJ19" s="25"/>
       <c r="AK19" s="25"/>
     </row>
-    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="145"/>
+    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="155"/>
       <c r="C20" s="62"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -5251,8 +5248,8 @@
       <c r="AJ20" s="25"/>
       <c r="AK20" s="25"/>
     </row>
-    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="145"/>
+    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="155"/>
       <c r="C21" s="62"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -5292,8 +5289,8 @@
       <c r="AJ21" s="25"/>
       <c r="AK21" s="25"/>
     </row>
-    <row r="22" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="146"/>
+    <row r="22" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="156"/>
       <c r="C22" s="62"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -5333,7 +5330,7 @@
       <c r="AJ22" s="25"/>
       <c r="AK22" s="25"/>
     </row>
-    <row r="23" spans="2:37" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:37" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="34" t="s">
         <v>38</v>
       </c>
@@ -5378,11 +5375,11 @@
       <c r="AJ23" s="25"/>
       <c r="AK23" s="25"/>
     </row>
-    <row r="24" spans="2:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="135" t="s">
+    <row r="24" spans="2:37" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="137" t="s">
+      <c r="C24" s="144" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -5425,9 +5422,9 @@
       <c r="AJ24" s="37"/>
       <c r="AK24" s="25"/>
     </row>
-    <row r="25" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="126"/>
-      <c r="C25" s="133"/>
+    <row r="25" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="117"/>
+      <c r="C25" s="120"/>
       <c r="D25" s="25" t="s">
         <v>41</v>
       </c>
@@ -5468,9 +5465,9 @@
       <c r="AJ25" s="37"/>
       <c r="AK25" s="25"/>
     </row>
-    <row r="26" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="136"/>
-      <c r="C26" s="138"/>
+    <row r="26" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="143"/>
+      <c r="C26" s="145"/>
       <c r="D26" s="25" t="s">
         <v>48</v>
       </c>
@@ -5511,8 +5508,8 @@
       <c r="AJ26" s="37"/>
       <c r="AK26" s="25"/>
     </row>
-    <row r="27" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="135" t="s">
+    <row r="27" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="142" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="69" t="s">
@@ -5556,8 +5553,8 @@
       <c r="AJ27" s="37"/>
       <c r="AK27" s="25"/>
     </row>
-    <row r="28" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="126"/>
+    <row r="28" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="117"/>
       <c r="C28" s="64" t="s">
         <v>54</v>
       </c>
@@ -5596,8 +5593,8 @@
       <c r="AJ28" s="37"/>
       <c r="AK28" s="25"/>
     </row>
-    <row r="29" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="126"/>
+    <row r="29" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="117"/>
       <c r="C29" s="68" t="s">
         <v>44</v>
       </c>
@@ -5639,8 +5636,8 @@
       <c r="AJ29" s="38"/>
       <c r="AK29" s="37"/>
     </row>
-    <row r="30" spans="2:37" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="136"/>
+    <row r="30" spans="2:37" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="143"/>
       <c r="C30" s="63" t="s">
         <v>53</v>
       </c>
@@ -5682,11 +5679,11 @@
       <c r="AJ30" s="37"/>
       <c r="AK30" s="37"/>
     </row>
-    <row r="31" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="135" t="s">
+    <row r="31" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="137" t="s">
+      <c r="C31" s="144" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="25" t="s">
@@ -5729,9 +5726,9 @@
       <c r="AJ31" s="37"/>
       <c r="AK31" s="37"/>
     </row>
-    <row r="32" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="126"/>
-      <c r="C32" s="133"/>
+    <row r="32" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="117"/>
+      <c r="C32" s="120"/>
       <c r="D32" s="25" t="s">
         <v>46</v>
       </c>
@@ -5772,9 +5769,9 @@
       <c r="AJ32" s="37"/>
       <c r="AK32" s="37"/>
     </row>
-    <row r="33" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="126"/>
-      <c r="C33" s="138"/>
+    <row r="33" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="117"/>
+      <c r="C33" s="145"/>
       <c r="D33" s="25" t="s">
         <v>47</v>
       </c>
@@ -5815,8 +5812,8 @@
       <c r="AJ33" s="37"/>
       <c r="AK33" s="37"/>
     </row>
-    <row r="34" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="136"/>
+    <row r="34" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="143"/>
       <c r="C34" s="63"/>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
@@ -5856,8 +5853,8 @@
       <c r="AJ34" s="37"/>
       <c r="AK34" s="37"/>
     </row>
-    <row r="35" spans="2:37" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="135" t="s">
+    <row r="35" spans="2:37" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="142" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="63" t="s">
@@ -5901,8 +5898,8 @@
       <c r="AJ35" s="37"/>
       <c r="AK35" s="37"/>
     </row>
-    <row r="36" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="126"/>
+    <row r="36" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="117"/>
       <c r="C36" s="58" t="s">
         <v>51</v>
       </c>
@@ -5944,8 +5941,8 @@
       <c r="AJ36" s="25"/>
       <c r="AK36" s="37"/>
     </row>
-    <row r="37" spans="2:37" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="126"/>
+    <row r="37" spans="2:37" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="117"/>
       <c r="C37" s="58"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
@@ -5985,8 +5982,8 @@
       <c r="AJ37" s="25"/>
       <c r="AK37" s="37"/>
     </row>
-    <row r="38" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="136"/>
+    <row r="38" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="143"/>
       <c r="C38" s="54"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -6026,7 +6023,7 @@
       <c r="AJ38" s="37"/>
       <c r="AK38" s="37"/>
     </row>
-    <row r="39" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="65"/>
       <c r="C39" s="58"/>
       <c r="D39" s="25"/>
@@ -6067,7 +6064,7 @@
       <c r="AJ39" s="38"/>
       <c r="AK39" s="37"/>
     </row>
-    <row r="40" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="65"/>
       <c r="C40" s="58"/>
       <c r="D40" s="25"/>
@@ -6108,7 +6105,7 @@
       <c r="AJ40" s="25"/>
       <c r="AK40" s="37"/>
     </row>
-    <row r="41" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="65"/>
       <c r="C41" s="58"/>
       <c r="D41" s="25"/>
@@ -6149,7 +6146,7 @@
       <c r="AJ41" s="25"/>
       <c r="AK41" s="37"/>
     </row>
-    <row r="42" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="65"/>
       <c r="C42" s="58"/>
       <c r="D42" s="25"/>
@@ -6190,7 +6187,7 @@
       <c r="AJ42" s="25"/>
       <c r="AK42" s="37"/>
     </row>
-    <row r="43" spans="2:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:37" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="65"/>
       <c r="C43" s="58"/>
       <c r="D43" s="25"/>
@@ -6231,7 +6228,7 @@
       <c r="AJ43" s="25"/>
       <c r="AK43" s="37"/>
     </row>
-    <row r="44" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="65"/>
       <c r="C44" s="58"/>
       <c r="D44" s="25"/>
@@ -6272,7 +6269,7 @@
       <c r="AJ44" s="25"/>
       <c r="AK44" s="37"/>
     </row>
-    <row r="45" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="65"/>
       <c r="C45" s="64"/>
       <c r="D45" s="25"/>
@@ -6313,7 +6310,7 @@
       <c r="AJ45" s="38"/>
       <c r="AK45" s="38"/>
     </row>
-    <row r="46" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="65"/>
       <c r="C46" s="64"/>
       <c r="D46" s="25"/>
@@ -6354,7 +6351,7 @@
       <c r="AJ46" s="38"/>
       <c r="AK46" s="38"/>
     </row>
-    <row r="47" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="65"/>
       <c r="C47" s="55"/>
       <c r="D47" s="25"/>
@@ -6395,7 +6392,7 @@
       <c r="AJ47" s="25"/>
       <c r="AK47" s="37"/>
     </row>
-    <row r="48" spans="2:37" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:37" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="65"/>
       <c r="C48" s="58"/>
       <c r="D48" s="25"/>
@@ -6436,8 +6433,8 @@
       <c r="AJ48" s="37"/>
       <c r="AK48" s="37"/>
     </row>
-    <row r="49" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="152"/>
+    <row r="49" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="146"/>
       <c r="C49" s="37"/>
       <c r="D49" s="25"/>
       <c r="E49" s="37"/>
@@ -6477,8 +6474,8 @@
       <c r="AJ49" s="25"/>
       <c r="AK49" s="25"/>
     </row>
-    <row r="50" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="152"/>
+    <row r="50" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="146"/>
       <c r="C50" s="37"/>
       <c r="D50" s="25"/>
       <c r="E50" s="37"/>
@@ -6518,8 +6515,8 @@
       <c r="AJ50" s="25"/>
       <c r="AK50" s="25"/>
     </row>
-    <row r="51" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="152"/>
+    <row r="51" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="146"/>
       <c r="C51" s="62"/>
       <c r="D51" s="25"/>
       <c r="E51" s="37"/>
@@ -6559,8 +6556,8 @@
       <c r="AJ51" s="25"/>
       <c r="AK51" s="25"/>
     </row>
-    <row r="52" spans="2:37" ht="21" x14ac:dyDescent="0.3">
-      <c r="B52" s="153"/>
+    <row r="52" spans="2:37" ht="21" x14ac:dyDescent="0.25">
+      <c r="B52" s="147"/>
       <c r="C52" s="62"/>
       <c r="D52" s="25"/>
       <c r="E52" s="37"/>
@@ -6600,8 +6597,8 @@
       <c r="AJ52" s="25"/>
       <c r="AK52" s="25"/>
     </row>
-    <row r="53" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="154"/>
+    <row r="53" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="148"/>
       <c r="C53" s="56"/>
       <c r="D53" s="25"/>
       <c r="E53" s="37"/>
@@ -6641,8 +6638,8 @@
       <c r="AJ53" s="25"/>
       <c r="AK53" s="25"/>
     </row>
-    <row r="54" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="154"/>
+    <row r="54" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="148"/>
       <c r="C54" s="56"/>
       <c r="D54" s="25"/>
       <c r="E54" s="37"/>
@@ -6682,8 +6679,8 @@
       <c r="AJ54" s="25"/>
       <c r="AK54" s="25"/>
     </row>
-    <row r="55" spans="2:37" ht="21" x14ac:dyDescent="0.3">
-      <c r="B55" s="154"/>
+    <row r="55" spans="2:37" ht="21" x14ac:dyDescent="0.25">
+      <c r="B55" s="148"/>
       <c r="C55" s="37"/>
       <c r="D55" s="25"/>
       <c r="E55" s="37"/>
@@ -6723,8 +6720,8 @@
       <c r="AJ55" s="25"/>
       <c r="AK55" s="25"/>
     </row>
-    <row r="56" spans="2:37" ht="21" x14ac:dyDescent="0.3">
-      <c r="B56" s="154"/>
+    <row r="56" spans="2:37" ht="21" x14ac:dyDescent="0.25">
+      <c r="B56" s="148"/>
       <c r="C56" s="37"/>
       <c r="D56" s="25"/>
       <c r="E56" s="37"/>
@@ -6764,15 +6761,15 @@
       <c r="AJ56" s="38"/>
       <c r="AK56" s="38"/>
     </row>
-    <row r="57" spans="2:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="150" t="s">
+    <row r="57" spans="2:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="151"/>
-      <c r="D57" s="151"/>
-      <c r="E57" s="151"/>
-      <c r="F57" s="151"/>
-      <c r="G57" s="151"/>
+      <c r="C57" s="141"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="141"/>
+      <c r="F57" s="141"/>
+      <c r="G57" s="141"/>
       <c r="H57" s="60">
         <f t="shared" ref="H57:I57" si="2">SUM(H4:H56)</f>
         <v>0</v>
@@ -6810,7 +6807,7 @@
       <c r="AJ57" s="35"/>
       <c r="AK57" s="35"/>
     </row>
-    <row r="58" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -6850,7 +6847,7 @@
       <c r="AJ58" s="42"/>
       <c r="AK58" s="42"/>
     </row>
-    <row r="59" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="16" t="s">
         <v>19</v>
       </c>
@@ -6894,7 +6891,7 @@
       <c r="AJ59" s="45"/>
       <c r="AK59" s="45"/>
     </row>
-    <row r="60" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="22" t="s">
         <v>14</v>
       </c>
@@ -6903,10 +6900,10 @@
       <c r="E60" s="29"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="110" t="s">
+      <c r="H60" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="I60" s="116"/>
+      <c r="I60" s="128"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -6936,7 +6933,7 @@
       <c r="AJ60" s="35"/>
       <c r="AK60" s="35"/>
     </row>
-    <row r="61" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="20" t="s">
         <v>13</v>
       </c>
@@ -6972,7 +6969,7 @@
       <c r="AJ61" s="45"/>
       <c r="AK61" s="45"/>
     </row>
-    <row r="62" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="20" t="s">
         <v>15</v>
       </c>
@@ -6980,21 +6977,21 @@
       <c r="D62" s="31"/>
       <c r="E62" s="32"/>
       <c r="F62" s="3"/>
-      <c r="H62" s="110" t="s">
+      <c r="H62" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="I62" s="111"/>
-      <c r="J62" s="110">
+      <c r="I62" s="123"/>
+      <c r="J62" s="122">
         <f>H57-I57</f>
         <v>0</v>
       </c>
-      <c r="K62" s="111"/>
-      <c r="L62" s="111"/>
-      <c r="M62" s="111"/>
-      <c r="N62" s="111"/>
-      <c r="O62" s="111"/>
-      <c r="P62" s="111"/>
-      <c r="Q62" s="116"/>
+      <c r="K62" s="123"/>
+      <c r="L62" s="123"/>
+      <c r="M62" s="123"/>
+      <c r="N62" s="123"/>
+      <c r="O62" s="123"/>
+      <c r="P62" s="123"/>
+      <c r="Q62" s="128"/>
       <c r="R62" s="42"/>
       <c r="S62" s="42"/>
       <c r="T62" s="42"/>
@@ -7016,7 +7013,7 @@
       <c r="AJ62" s="42"/>
       <c r="AK62" s="42"/>
     </row>
-    <row r="63" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -7030,7 +7027,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -7044,7 +7041,7 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -7058,42 +7055,49 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
     </row>
-    <row r="73" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
     </row>
-    <row r="74" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
     </row>
-    <row r="79" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
     </row>
-    <row r="80" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
     </row>
-    <row r="81" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="B57:G57"/>
     <mergeCell ref="H60:I60"/>
     <mergeCell ref="H62:I62"/>
@@ -7104,13 +7108,6 @@
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7118,12 +7115,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sprint-1_Mecanicas.xlsx
+++ b/Sprint-1_Mecanicas.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iriag\Desktop\Alex\Definetly_Not_Pong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI-D\Documents\MecanicasAvanzao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8FCA27-3FA8-4477-8404-4DBE4AC2CF3D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="68">
   <si>
     <t>Subtarea</t>
   </si>
@@ -231,7 +230,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -908,7 +907,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1210,9 +1209,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1239,19 +1235,76 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1261,66 +1314,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1333,6 +1326,45 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1340,42 +1372,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1398,7 +1394,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1493,13 +1489,13 @@
                   <c:v>16.676600000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.676600000000001</c:v>
+                  <c:v>14.944600000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.676600000000001</c:v>
+                  <c:v>14.944600000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.676600000000001</c:v>
+                  <c:v>14.944600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1583,7 +1579,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1678,13 +1674,13 @@
                   <c:v>16.676600000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.676600000000001</c:v>
+                  <c:v>14.944600000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.676600000000001</c:v>
+                  <c:v>14.944600000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.676600000000001</c:v>
+                  <c:v>14.944600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1850,7 +1846,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2169,58 +2165,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27:N30"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
-    <col min="4" max="4" width="55.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="55.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:37" ht="46.8" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="136" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-    </row>
-    <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="122" t="s">
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+    </row>
+    <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="124"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="117"/>
       <c r="R2" s="52"/>
       <c r="S2" s="42"/>
       <c r="T2" s="42"/>
@@ -2242,7 +2238,7 @@
       <c r="AJ2" s="42"/>
       <c r="AK2" s="42"/>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
@@ -2312,8 +2308,8 @@
       <c r="AJ3" s="41"/>
       <c r="AK3" s="41"/>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="125" t="s">
+    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="118" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="82" t="s">
@@ -2334,24 +2330,26 @@
       </c>
       <c r="I4" s="59">
         <f t="shared" ref="I4:I30" si="0">SUM(J4:AK4)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="106">
-        <v>0</v>
-      </c>
-      <c r="K4" s="106">
-        <v>0</v>
-      </c>
-      <c r="L4" s="106">
-        <v>0</v>
-      </c>
-      <c r="M4" s="106">
-        <v>0</v>
-      </c>
-      <c r="N4" s="110">
-        <v>0</v>
-      </c>
-      <c r="O4" s="24"/>
+        <v>0.183</v>
+      </c>
+      <c r="J4" s="105">
+        <v>0</v>
+      </c>
+      <c r="K4" s="105">
+        <v>0</v>
+      </c>
+      <c r="L4" s="105">
+        <v>0</v>
+      </c>
+      <c r="M4" s="105">
+        <v>0</v>
+      </c>
+      <c r="N4" s="109">
+        <v>0</v>
+      </c>
+      <c r="O4" s="112">
+        <v>0.183</v>
+      </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="40"/>
       <c r="R4" s="48"/>
@@ -2375,8 +2373,8 @@
       <c r="AJ4" s="25"/>
       <c r="AK4" s="25"/>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="126"/>
+    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="119"/>
       <c r="C5" s="85" t="s">
         <v>31</v>
       </c>
@@ -2397,22 +2395,24 @@
         <f t="shared" si="0"/>
         <v>0.11700000000000001</v>
       </c>
-      <c r="J5" s="106">
-        <v>0</v>
-      </c>
-      <c r="K5" s="106">
-        <v>0</v>
-      </c>
-      <c r="L5" s="106">
-        <v>0</v>
-      </c>
-      <c r="M5" s="106">
-        <v>0</v>
-      </c>
-      <c r="N5" s="111">
+      <c r="J5" s="105">
+        <v>0</v>
+      </c>
+      <c r="K5" s="105">
+        <v>0</v>
+      </c>
+      <c r="L5" s="105">
+        <v>0</v>
+      </c>
+      <c r="M5" s="105">
+        <v>0</v>
+      </c>
+      <c r="N5" s="110">
         <v>0.11700000000000001</v>
       </c>
-      <c r="O5" s="25"/>
+      <c r="O5" s="110">
+        <v>0</v>
+      </c>
       <c r="P5" s="25"/>
       <c r="Q5" s="36"/>
       <c r="R5" s="48"/>
@@ -2436,8 +2436,8 @@
       <c r="AJ5" s="25"/>
       <c r="AK5" s="25"/>
     </row>
-    <row r="6" spans="1:37" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="126"/>
+    <row r="6" spans="1:37" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="119"/>
       <c r="C6" s="85" t="s">
         <v>30</v>
       </c>
@@ -2456,24 +2456,26 @@
       </c>
       <c r="I6" s="14">
         <f t="shared" si="0"/>
+        <v>6.6700000000000009E-2</v>
+      </c>
+      <c r="J6" s="105">
+        <v>0</v>
+      </c>
+      <c r="K6" s="105">
+        <v>0</v>
+      </c>
+      <c r="L6" s="105">
+        <v>0</v>
+      </c>
+      <c r="M6" s="105">
+        <v>0</v>
+      </c>
+      <c r="N6" s="114">
         <v>1.67E-2</v>
       </c>
-      <c r="J6" s="106">
-        <v>0</v>
-      </c>
-      <c r="K6" s="106">
-        <v>0</v>
-      </c>
-      <c r="L6" s="106">
-        <v>0</v>
-      </c>
-      <c r="M6" s="106">
-        <v>0</v>
-      </c>
-      <c r="N6" s="160">
-        <v>1.67E-2</v>
-      </c>
-      <c r="O6" s="25"/>
+      <c r="O6" s="110">
+        <v>0.05</v>
+      </c>
       <c r="P6" s="25"/>
       <c r="Q6" s="36"/>
       <c r="R6" s="48"/>
@@ -2497,8 +2499,8 @@
       <c r="AJ6" s="25"/>
       <c r="AK6" s="25"/>
     </row>
-    <row r="7" spans="1:37" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="127"/>
+    <row r="7" spans="1:37" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="120"/>
       <c r="C7" s="88" t="s">
         <v>32</v>
       </c>
@@ -2517,24 +2519,26 @@
       </c>
       <c r="I7" s="60">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="106">
-        <v>0</v>
-      </c>
-      <c r="K7" s="106">
-        <v>0</v>
-      </c>
-      <c r="L7" s="106">
-        <v>0</v>
-      </c>
-      <c r="M7" s="106">
-        <v>0</v>
-      </c>
-      <c r="N7" s="112">
-        <v>0</v>
-      </c>
-      <c r="O7" s="70"/>
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="J7" s="105">
+        <v>0</v>
+      </c>
+      <c r="K7" s="105">
+        <v>0</v>
+      </c>
+      <c r="L7" s="105">
+        <v>0</v>
+      </c>
+      <c r="M7" s="105">
+        <v>0</v>
+      </c>
+      <c r="N7" s="111">
+        <v>0</v>
+      </c>
+      <c r="O7" s="104">
+        <v>0.28299999999999997</v>
+      </c>
       <c r="P7" s="70"/>
       <c r="Q7" s="72"/>
       <c r="R7" s="48"/>
@@ -2558,11 +2562,11 @@
       <c r="AJ7" s="25"/>
       <c r="AK7" s="37"/>
     </row>
-    <row r="8" spans="1:37" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="131" t="s">
+    <row r="8" spans="1:37" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="134" t="s">
+      <c r="C8" s="127" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="91" t="s">
@@ -2584,19 +2588,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="106">
-        <v>0</v>
-      </c>
-      <c r="K8" s="106">
-        <v>0</v>
-      </c>
-      <c r="L8" s="106">
-        <v>0</v>
-      </c>
-      <c r="M8" s="106">
-        <v>0</v>
-      </c>
-      <c r="N8" s="24"/>
+      <c r="J8" s="105">
+        <v>0</v>
+      </c>
+      <c r="K8" s="105">
+        <v>0</v>
+      </c>
+      <c r="L8" s="105">
+        <v>0</v>
+      </c>
+      <c r="M8" s="105">
+        <v>0</v>
+      </c>
+      <c r="N8" s="105">
+        <v>0</v>
+      </c>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
       <c r="Q8" s="40"/>
@@ -2621,9 +2627,9 @@
       <c r="AJ8" s="25"/>
       <c r="AK8" s="25"/>
     </row>
-    <row r="9" spans="1:37" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="132"/>
-      <c r="C9" s="135"/>
+    <row r="9" spans="1:37" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="125"/>
+      <c r="C9" s="128"/>
       <c r="D9" s="92" t="s">
         <v>59</v>
       </c>
@@ -2643,19 +2649,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="106">
-        <v>0</v>
-      </c>
-      <c r="K9" s="106">
-        <v>0</v>
-      </c>
-      <c r="L9" s="106">
-        <v>0</v>
-      </c>
-      <c r="M9" s="106">
-        <v>0</v>
-      </c>
-      <c r="N9" s="25"/>
+      <c r="J9" s="105">
+        <v>0</v>
+      </c>
+      <c r="K9" s="105">
+        <v>0</v>
+      </c>
+      <c r="L9" s="105">
+        <v>0</v>
+      </c>
+      <c r="M9" s="105">
+        <v>0</v>
+      </c>
+      <c r="N9" s="105">
+        <v>0</v>
+      </c>
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
       <c r="Q9" s="36"/>
@@ -2680,9 +2688,9 @@
       <c r="AJ9" s="25"/>
       <c r="AK9" s="25"/>
     </row>
-    <row r="10" spans="1:37" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="132"/>
-      <c r="C10" s="135"/>
+    <row r="10" spans="1:37" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="125"/>
+      <c r="C10" s="128"/>
       <c r="D10" s="92" t="s">
         <v>36</v>
       </c>
@@ -2702,19 +2710,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="106">
-        <v>0</v>
-      </c>
-      <c r="K10" s="106">
-        <v>0</v>
-      </c>
-      <c r="L10" s="106">
-        <v>0</v>
-      </c>
-      <c r="M10" s="106">
-        <v>0</v>
-      </c>
-      <c r="N10" s="25"/>
+      <c r="J10" s="105">
+        <v>0</v>
+      </c>
+      <c r="K10" s="105">
+        <v>0</v>
+      </c>
+      <c r="L10" s="105">
+        <v>0</v>
+      </c>
+      <c r="M10" s="105">
+        <v>0</v>
+      </c>
+      <c r="N10" s="105">
+        <v>0</v>
+      </c>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
       <c r="Q10" s="36"/>
@@ -2739,9 +2749,9 @@
       <c r="AJ10" s="25"/>
       <c r="AK10" s="25"/>
     </row>
-    <row r="11" spans="1:37" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="133"/>
-      <c r="C11" s="136"/>
+    <row r="11" spans="1:37" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="126"/>
+      <c r="C11" s="129"/>
       <c r="D11" s="93" t="s">
         <v>66</v>
       </c>
@@ -2761,19 +2771,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="106">
-        <v>0</v>
-      </c>
-      <c r="K11" s="106">
-        <v>0</v>
-      </c>
-      <c r="L11" s="106">
-        <v>0</v>
-      </c>
-      <c r="M11" s="106">
-        <v>0</v>
-      </c>
-      <c r="N11" s="70"/>
+      <c r="J11" s="105">
+        <v>0</v>
+      </c>
+      <c r="K11" s="105">
+        <v>0</v>
+      </c>
+      <c r="L11" s="105">
+        <v>0</v>
+      </c>
+      <c r="M11" s="105">
+        <v>0</v>
+      </c>
+      <c r="N11" s="105">
+        <v>0</v>
+      </c>
       <c r="O11" s="70"/>
       <c r="P11" s="70"/>
       <c r="Q11" s="72"/>
@@ -2798,7 +2810,7 @@
       <c r="AJ11" s="25"/>
       <c r="AK11" s="25"/>
     </row>
-    <row r="12" spans="1:37" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="94" t="s">
         <v>38</v>
       </c>
@@ -2822,22 +2834,22 @@
         <f t="shared" si="0"/>
         <v>2.17</v>
       </c>
-      <c r="J12" s="106">
-        <v>0</v>
-      </c>
-      <c r="K12" s="106">
-        <v>0</v>
-      </c>
-      <c r="L12" s="106">
-        <v>0</v>
-      </c>
-      <c r="M12" s="107">
+      <c r="J12" s="105">
+        <v>0</v>
+      </c>
+      <c r="K12" s="105">
+        <v>0</v>
+      </c>
+      <c r="L12" s="105">
+        <v>0</v>
+      </c>
+      <c r="M12" s="106">
         <v>0.67</v>
       </c>
-      <c r="N12" s="107">
+      <c r="N12" s="106">
         <v>0.5</v>
       </c>
-      <c r="O12" s="107">
+      <c r="O12" s="106">
         <v>1</v>
       </c>
       <c r="P12" s="73"/>
@@ -2863,11 +2875,11 @@
       <c r="AJ12" s="25"/>
       <c r="AK12" s="25"/>
     </row>
-    <row r="13" spans="1:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="116" t="s">
+    <row r="13" spans="1:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="119" t="s">
+      <c r="C13" s="137" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="83" t="s">
@@ -2889,19 +2901,19 @@
         <f t="shared" si="0"/>
         <v>0.83299999999999996</v>
       </c>
-      <c r="J13" s="108">
-        <v>0</v>
-      </c>
-      <c r="K13" s="108">
-        <v>0</v>
-      </c>
-      <c r="L13" s="108">
-        <v>0</v>
-      </c>
-      <c r="M13" s="108">
-        <v>0</v>
-      </c>
-      <c r="N13" s="113">
+      <c r="J13" s="107">
+        <v>0</v>
+      </c>
+      <c r="K13" s="107">
+        <v>0</v>
+      </c>
+      <c r="L13" s="107">
+        <v>0</v>
+      </c>
+      <c r="M13" s="107">
+        <v>0</v>
+      </c>
+      <c r="N13" s="112">
         <v>0.83299999999999996</v>
       </c>
       <c r="O13" s="24"/>
@@ -2928,9 +2940,9 @@
       <c r="AJ13" s="25"/>
       <c r="AK13" s="25"/>
     </row>
-    <row r="14" spans="1:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="117"/>
-      <c r="C14" s="120"/>
+    <row r="14" spans="1:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="131"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="86" t="s">
         <v>65</v>
       </c>
@@ -2948,24 +2960,26 @@
       </c>
       <c r="I14" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="108">
-        <v>0</v>
-      </c>
-      <c r="K14" s="108">
-        <v>0</v>
-      </c>
-      <c r="L14" s="108">
-        <v>0</v>
-      </c>
-      <c r="M14" s="108">
-        <v>0</v>
-      </c>
-      <c r="N14" s="114">
-        <v>0</v>
-      </c>
-      <c r="O14" s="25"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J14" s="107">
+        <v>0</v>
+      </c>
+      <c r="K14" s="107">
+        <v>0</v>
+      </c>
+      <c r="L14" s="107">
+        <v>0</v>
+      </c>
+      <c r="M14" s="107">
+        <v>0</v>
+      </c>
+      <c r="N14" s="113">
+        <v>0</v>
+      </c>
+      <c r="O14" s="110">
+        <v>3.3000000000000002E-2</v>
+      </c>
       <c r="P14" s="25"/>
       <c r="Q14" s="36"/>
       <c r="R14" s="48"/>
@@ -2989,9 +3003,9 @@
       <c r="AJ14" s="25"/>
       <c r="AK14" s="25"/>
     </row>
-    <row r="15" spans="1:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="117"/>
-      <c r="C15" s="120"/>
+    <row r="15" spans="1:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="131"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="99" t="s">
         <v>64</v>
       </c>
@@ -3011,19 +3025,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="108">
-        <v>0</v>
-      </c>
-      <c r="K15" s="108">
-        <v>0</v>
-      </c>
-      <c r="L15" s="108">
-        <v>0</v>
-      </c>
-      <c r="M15" s="108">
-        <v>0</v>
-      </c>
-      <c r="N15" s="108">
+      <c r="J15" s="107">
+        <v>0</v>
+      </c>
+      <c r="K15" s="107">
+        <v>0</v>
+      </c>
+      <c r="L15" s="107">
+        <v>0</v>
+      </c>
+      <c r="M15" s="107">
+        <v>0</v>
+      </c>
+      <c r="N15" s="107">
         <v>0</v>
       </c>
       <c r="O15" s="25"/>
@@ -3050,9 +3064,9 @@
       <c r="AJ15" s="25"/>
       <c r="AK15" s="25"/>
     </row>
-    <row r="16" spans="1:37" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="117"/>
-      <c r="C16" s="120"/>
+    <row r="16" spans="1:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="131"/>
+      <c r="C16" s="138"/>
       <c r="D16" s="86" t="s">
         <v>61</v>
       </c>
@@ -3072,19 +3086,19 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="J16" s="108">
-        <v>0</v>
-      </c>
-      <c r="K16" s="108">
-        <v>0</v>
-      </c>
-      <c r="L16" s="108">
-        <v>0</v>
-      </c>
-      <c r="M16" s="108">
-        <v>0</v>
-      </c>
-      <c r="N16" s="111">
+      <c r="J16" s="107">
+        <v>0</v>
+      </c>
+      <c r="K16" s="107">
+        <v>0</v>
+      </c>
+      <c r="L16" s="107">
+        <v>0</v>
+      </c>
+      <c r="M16" s="107">
+        <v>0</v>
+      </c>
+      <c r="N16" s="110">
         <v>0.2</v>
       </c>
       <c r="O16" s="25"/>
@@ -3111,9 +3125,9 @@
       <c r="AJ16" s="37"/>
       <c r="AK16" s="25"/>
     </row>
-    <row r="17" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="117"/>
-      <c r="C17" s="120"/>
+    <row r="17" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="131"/>
+      <c r="C17" s="138"/>
       <c r="D17" s="86" t="s">
         <v>41</v>
       </c>
@@ -3131,24 +3145,26 @@
       </c>
       <c r="I17" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="108">
-        <v>0</v>
-      </c>
-      <c r="K17" s="108">
-        <v>0</v>
-      </c>
-      <c r="L17" s="108">
-        <v>0</v>
-      </c>
-      <c r="M17" s="108">
-        <v>0</v>
-      </c>
-      <c r="N17" s="114">
-        <v>0</v>
-      </c>
-      <c r="O17" s="25"/>
+        <v>0.183</v>
+      </c>
+      <c r="J17" s="107">
+        <v>0</v>
+      </c>
+      <c r="K17" s="107">
+        <v>0</v>
+      </c>
+      <c r="L17" s="107">
+        <v>0</v>
+      </c>
+      <c r="M17" s="107">
+        <v>0</v>
+      </c>
+      <c r="N17" s="113">
+        <v>0</v>
+      </c>
+      <c r="O17" s="110">
+        <v>0.183</v>
+      </c>
       <c r="P17" s="25"/>
       <c r="Q17" s="36"/>
       <c r="R17" s="48"/>
@@ -3172,9 +3188,9 @@
       <c r="AJ17" s="37"/>
       <c r="AK17" s="25"/>
     </row>
-    <row r="18" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="118"/>
-      <c r="C18" s="121"/>
+    <row r="18" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="132"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="89" t="s">
         <v>48</v>
       </c>
@@ -3194,19 +3210,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="108">
-        <v>0</v>
-      </c>
-      <c r="K18" s="108">
-        <v>0</v>
-      </c>
-      <c r="L18" s="108">
-        <v>0</v>
-      </c>
-      <c r="M18" s="108">
-        <v>0</v>
-      </c>
-      <c r="N18" s="112">
+      <c r="J18" s="107">
+        <v>0</v>
+      </c>
+      <c r="K18" s="107">
+        <v>0</v>
+      </c>
+      <c r="L18" s="107">
+        <v>0</v>
+      </c>
+      <c r="M18" s="107">
+        <v>0</v>
+      </c>
+      <c r="N18" s="111">
         <v>0</v>
       </c>
       <c r="O18" s="70"/>
@@ -3233,11 +3249,11 @@
       <c r="AJ18" s="37"/>
       <c r="AK18" s="25"/>
     </row>
-    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="116" t="s">
+    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="137" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="83" t="s">
@@ -3259,19 +3275,19 @@
         <f t="shared" si="0"/>
         <v>1.67E-2</v>
       </c>
-      <c r="J19" s="108">
-        <v>0</v>
-      </c>
-      <c r="K19" s="108">
-        <v>0</v>
-      </c>
-      <c r="L19" s="108">
-        <v>0</v>
-      </c>
-      <c r="M19" s="108">
-        <v>0</v>
-      </c>
-      <c r="N19" s="113">
+      <c r="J19" s="107">
+        <v>0</v>
+      </c>
+      <c r="K19" s="107">
+        <v>0</v>
+      </c>
+      <c r="L19" s="107">
+        <v>0</v>
+      </c>
+      <c r="M19" s="107">
+        <v>0</v>
+      </c>
+      <c r="N19" s="112">
         <v>1.67E-2</v>
       </c>
       <c r="O19" s="24"/>
@@ -3298,9 +3314,9 @@
       <c r="AJ19" s="37"/>
       <c r="AK19" s="25"/>
     </row>
-    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="117"/>
-      <c r="C20" s="120"/>
+    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="131"/>
+      <c r="C20" s="138"/>
       <c r="D20" s="92" t="s">
         <v>59</v>
       </c>
@@ -3320,19 +3336,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="108">
-        <v>0</v>
-      </c>
-      <c r="K20" s="108">
-        <v>0</v>
-      </c>
-      <c r="L20" s="108">
-        <v>0</v>
-      </c>
-      <c r="M20" s="108">
-        <v>0</v>
-      </c>
-      <c r="N20" s="25">
+      <c r="J20" s="107">
+        <v>0</v>
+      </c>
+      <c r="K20" s="107">
+        <v>0</v>
+      </c>
+      <c r="L20" s="107">
+        <v>0</v>
+      </c>
+      <c r="M20" s="107">
+        <v>0</v>
+      </c>
+      <c r="N20" s="107">
         <v>0</v>
       </c>
       <c r="O20" s="25"/>
@@ -3359,9 +3375,9 @@
       <c r="AJ20" s="37"/>
       <c r="AK20" s="25"/>
     </row>
-    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="117"/>
-      <c r="C21" s="120"/>
+    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="131"/>
+      <c r="C21" s="138"/>
       <c r="D21" s="92" t="s">
         <v>60</v>
       </c>
@@ -3381,19 +3397,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="108">
-        <v>0</v>
-      </c>
-      <c r="K21" s="108">
-        <v>0</v>
-      </c>
-      <c r="L21" s="108">
-        <v>0</v>
-      </c>
-      <c r="M21" s="108">
-        <v>0</v>
-      </c>
-      <c r="N21" s="25">
+      <c r="J21" s="107">
+        <v>0</v>
+      </c>
+      <c r="K21" s="107">
+        <v>0</v>
+      </c>
+      <c r="L21" s="107">
+        <v>0</v>
+      </c>
+      <c r="M21" s="107">
+        <v>0</v>
+      </c>
+      <c r="N21" s="107">
         <v>0</v>
       </c>
       <c r="O21" s="25"/>
@@ -3420,9 +3436,9 @@
       <c r="AJ21" s="37"/>
       <c r="AK21" s="25"/>
     </row>
-    <row r="22" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="118"/>
-      <c r="C22" s="121"/>
+    <row r="22" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="132"/>
+      <c r="C22" s="139"/>
       <c r="D22" s="93" t="s">
         <v>61</v>
       </c>
@@ -3442,19 +3458,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="108">
-        <v>0</v>
-      </c>
-      <c r="K22" s="108">
-        <v>0</v>
-      </c>
-      <c r="L22" s="108">
-        <v>0</v>
-      </c>
-      <c r="M22" s="108">
-        <v>0</v>
-      </c>
-      <c r="N22" s="70">
+      <c r="J22" s="107">
+        <v>0</v>
+      </c>
+      <c r="K22" s="107">
+        <v>0</v>
+      </c>
+      <c r="L22" s="107">
+        <v>0</v>
+      </c>
+      <c r="M22" s="107">
+        <v>0</v>
+      </c>
+      <c r="N22" s="107">
         <v>0</v>
       </c>
       <c r="O22" s="70"/>
@@ -3481,8 +3497,8 @@
       <c r="AJ22" s="37"/>
       <c r="AK22" s="25"/>
     </row>
-    <row r="23" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="116" t="s">
+    <row r="23" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="130" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="97" t="s">
@@ -3505,19 +3521,19 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="J23" s="108">
-        <v>0</v>
-      </c>
-      <c r="K23" s="108">
-        <v>0</v>
-      </c>
-      <c r="L23" s="108">
-        <v>0</v>
-      </c>
-      <c r="M23" s="108">
-        <v>0</v>
-      </c>
-      <c r="N23" s="113">
+      <c r="J23" s="107">
+        <v>0</v>
+      </c>
+      <c r="K23" s="107">
+        <v>0</v>
+      </c>
+      <c r="L23" s="107">
+        <v>0</v>
+      </c>
+      <c r="M23" s="107">
+        <v>0</v>
+      </c>
+      <c r="N23" s="112">
         <v>0.02</v>
       </c>
       <c r="O23" s="24"/>
@@ -3544,8 +3560,8 @@
       <c r="AJ23" s="37"/>
       <c r="AK23" s="25"/>
     </row>
-    <row r="24" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="117"/>
+    <row r="24" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="131"/>
       <c r="C24" s="100" t="s">
         <v>54</v>
       </c>
@@ -3564,19 +3580,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="108">
-        <v>0</v>
-      </c>
-      <c r="K24" s="108">
-        <v>0</v>
-      </c>
-      <c r="L24" s="108">
-        <v>0</v>
-      </c>
-      <c r="M24" s="108">
-        <v>0</v>
-      </c>
-      <c r="N24" s="108">
+      <c r="J24" s="107">
+        <v>0</v>
+      </c>
+      <c r="K24" s="107">
+        <v>0</v>
+      </c>
+      <c r="L24" s="107">
+        <v>0</v>
+      </c>
+      <c r="M24" s="107">
+        <v>0</v>
+      </c>
+      <c r="N24" s="107">
         <v>0</v>
       </c>
       <c r="O24" s="25"/>
@@ -3603,8 +3619,8 @@
       <c r="AJ24" s="37"/>
       <c r="AK24" s="25"/>
     </row>
-    <row r="25" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="117"/>
+    <row r="25" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="131"/>
       <c r="C25" s="101" t="s">
         <v>44</v>
       </c>
@@ -3623,19 +3639,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="108">
-        <v>0</v>
-      </c>
-      <c r="K25" s="108">
-        <v>0</v>
-      </c>
-      <c r="L25" s="108">
-        <v>0</v>
-      </c>
-      <c r="M25" s="108">
-        <v>0</v>
-      </c>
-      <c r="N25" s="108">
+      <c r="J25" s="107">
+        <v>0</v>
+      </c>
+      <c r="K25" s="107">
+        <v>0</v>
+      </c>
+      <c r="L25" s="107">
+        <v>0</v>
+      </c>
+      <c r="M25" s="107">
+        <v>0</v>
+      </c>
+      <c r="N25" s="107">
         <v>0</v>
       </c>
       <c r="O25" s="25"/>
@@ -3662,8 +3678,8 @@
       <c r="AJ25" s="38"/>
       <c r="AK25" s="37"/>
     </row>
-    <row r="26" spans="2:37" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="118"/>
+    <row r="26" spans="2:37" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="132"/>
       <c r="C26" s="102" t="s">
         <v>53</v>
       </c>
@@ -3685,15 +3701,27 @@
       <c r="J26" s="104">
         <v>0.75</v>
       </c>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="104"/>
+      <c r="K26" s="104">
+        <v>0</v>
+      </c>
+      <c r="L26" s="104">
+        <v>0</v>
+      </c>
+      <c r="M26" s="104">
+        <v>0</v>
+      </c>
       <c r="N26" s="104">
         <v>0</v>
       </c>
-      <c r="O26" s="104"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="105"/>
+      <c r="O26" s="104">
+        <v>0</v>
+      </c>
+      <c r="P26" s="104">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="104">
+        <v>0</v>
+      </c>
       <c r="R26" s="48"/>
       <c r="S26" s="25"/>
       <c r="T26" s="37"/>
@@ -3715,11 +3743,11 @@
       <c r="AJ26" s="37"/>
       <c r="AK26" s="37"/>
     </row>
-    <row r="27" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="116" t="s">
+    <row r="27" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="137" t="s">
+      <c r="C27" s="133" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="91" t="s">
@@ -3739,19 +3767,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="109">
-        <v>0</v>
-      </c>
-      <c r="K27" s="109">
-        <v>0</v>
-      </c>
-      <c r="L27" s="109">
-        <v>0</v>
-      </c>
-      <c r="M27" s="109">
-        <v>0</v>
-      </c>
-      <c r="N27" s="24">
+      <c r="J27" s="108">
+        <v>0</v>
+      </c>
+      <c r="K27" s="108">
+        <v>0</v>
+      </c>
+      <c r="L27" s="108">
+        <v>0</v>
+      </c>
+      <c r="M27" s="108">
+        <v>0</v>
+      </c>
+      <c r="N27" s="108">
         <v>0</v>
       </c>
       <c r="O27" s="24"/>
@@ -3778,9 +3806,9 @@
       <c r="AJ27" s="37"/>
       <c r="AK27" s="37"/>
     </row>
-    <row r="28" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="117"/>
-      <c r="C28" s="138"/>
+    <row r="28" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="131"/>
+      <c r="C28" s="134"/>
       <c r="D28" s="92" t="s">
         <v>67</v>
       </c>
@@ -3798,19 +3826,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="109">
-        <v>0</v>
-      </c>
-      <c r="K28" s="109">
-        <v>0</v>
-      </c>
-      <c r="L28" s="109">
-        <v>0</v>
-      </c>
-      <c r="M28" s="109">
-        <v>0</v>
-      </c>
-      <c r="N28" s="25">
+      <c r="J28" s="108">
+        <v>0</v>
+      </c>
+      <c r="K28" s="108">
+        <v>0</v>
+      </c>
+      <c r="L28" s="108">
+        <v>0</v>
+      </c>
+      <c r="M28" s="108">
+        <v>0</v>
+      </c>
+      <c r="N28" s="108">
         <v>0</v>
       </c>
       <c r="O28" s="25"/>
@@ -3837,9 +3865,9 @@
       <c r="AJ28" s="37"/>
       <c r="AK28" s="37"/>
     </row>
-    <row r="29" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="117"/>
-      <c r="C29" s="138"/>
+    <row r="29" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="131"/>
+      <c r="C29" s="134"/>
       <c r="D29" s="92" t="s">
         <v>46</v>
       </c>
@@ -3857,19 +3885,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="109">
-        <v>0</v>
-      </c>
-      <c r="K29" s="109">
-        <v>0</v>
-      </c>
-      <c r="L29" s="109">
-        <v>0</v>
-      </c>
-      <c r="M29" s="109">
-        <v>0</v>
-      </c>
-      <c r="N29" s="25">
+      <c r="J29" s="108">
+        <v>0</v>
+      </c>
+      <c r="K29" s="108">
+        <v>0</v>
+      </c>
+      <c r="L29" s="108">
+        <v>0</v>
+      </c>
+      <c r="M29" s="108">
+        <v>0</v>
+      </c>
+      <c r="N29" s="108">
         <v>0</v>
       </c>
       <c r="O29" s="25"/>
@@ -3896,9 +3924,9 @@
       <c r="AJ29" s="37"/>
       <c r="AK29" s="37"/>
     </row>
-    <row r="30" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="118"/>
-      <c r="C30" s="139"/>
+    <row r="30" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="132"/>
+      <c r="C30" s="135"/>
       <c r="D30" s="93" t="s">
         <v>47</v>
       </c>
@@ -3916,19 +3944,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="109">
-        <v>0</v>
-      </c>
-      <c r="K30" s="109">
-        <v>0</v>
-      </c>
-      <c r="L30" s="109">
-        <v>0</v>
-      </c>
-      <c r="M30" s="109">
-        <v>0</v>
-      </c>
-      <c r="N30" s="70">
+      <c r="J30" s="108">
+        <v>0</v>
+      </c>
+      <c r="K30" s="108">
+        <v>0</v>
+      </c>
+      <c r="L30" s="108">
+        <v>0</v>
+      </c>
+      <c r="M30" s="108">
+        <v>0</v>
+      </c>
+      <c r="N30" s="108">
         <v>0</v>
       </c>
       <c r="O30" s="70"/>
@@ -3955,22 +3983,22 @@
       <c r="AJ30" s="37"/>
       <c r="AK30" s="37"/>
     </row>
-    <row r="31" spans="2:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="129" t="s">
+    <row r="31" spans="2:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="130"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
       <c r="H31" s="78">
         <f>SUM(H4:H30)</f>
         <v>19.8</v>
       </c>
       <c r="I31" s="78">
         <f>SUM(I4:I30)</f>
-        <v>4.1234000000000002</v>
+        <v>4.8554000000000004</v>
       </c>
       <c r="J31" s="78">
         <f>SUM(J4:J30)</f>
@@ -3994,7 +4022,7 @@
       </c>
       <c r="O31" s="78">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.732</v>
       </c>
       <c r="P31" s="78">
         <f t="shared" si="1"/>
@@ -4025,7 +4053,7 @@
       <c r="AJ31" s="35"/>
       <c r="AK31" s="35"/>
     </row>
-    <row r="32" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4034,16 +4062,16 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="122" t="s">
+      <c r="J32" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="123"/>
-      <c r="Q32" s="128"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="116"/>
+      <c r="P32" s="116"/>
+      <c r="Q32" s="121"/>
       <c r="R32" s="42"/>
       <c r="S32" s="42"/>
       <c r="T32" s="42"/>
@@ -4065,7 +4093,7 @@
       <c r="AJ32" s="42"/>
       <c r="AK32" s="42"/>
     </row>
-    <row r="33" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="16" t="s">
         <v>19</v>
       </c>
@@ -4109,7 +4137,7 @@
       <c r="AJ33" s="45"/>
       <c r="AK33" s="45"/>
     </row>
-    <row r="34" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="79" t="s">
         <v>14</v>
       </c>
@@ -4127,10 +4155,10 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="122" t="s">
+      <c r="H34" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="I34" s="128"/>
+      <c r="I34" s="121"/>
       <c r="J34" s="9">
         <f>SUM(H31,-J31)</f>
         <v>19.05</v>
@@ -4153,15 +4181,15 @@
       </c>
       <c r="O34" s="9">
         <f t="shared" si="2"/>
-        <v>15.676600000000001</v>
+        <v>14.944600000000001</v>
       </c>
       <c r="P34" s="9">
         <f t="shared" si="2"/>
-        <v>15.676600000000001</v>
+        <v>14.944600000000001</v>
       </c>
       <c r="Q34" s="9">
         <f t="shared" si="2"/>
-        <v>15.676600000000001</v>
+        <v>14.944600000000001</v>
       </c>
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
@@ -4184,7 +4212,7 @@
       <c r="AJ34" s="35"/>
       <c r="AK34" s="35"/>
     </row>
-    <row r="35" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="80" t="s">
         <v>13</v>
       </c>
@@ -4194,11 +4222,11 @@
       </c>
       <c r="D35" s="28">
         <f>SUM(I4:I7,I13:I14,I16:I19,I23)</f>
-        <v>1.2034</v>
+        <v>1.9353999999999998</v>
       </c>
       <c r="E35" s="29">
         <f t="shared" ref="E35:E36" si="3">SUM(C35,-D35)</f>
-        <v>6.996599999999999</v>
+        <v>6.2645999999999997</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -4229,7 +4257,7 @@
       <c r="AJ35" s="45"/>
       <c r="AK35" s="45"/>
     </row>
-    <row r="36" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="81" t="s">
         <v>15</v>
       </c>
@@ -4246,21 +4274,21 @@
         <v>3.38</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="H36" s="122" t="s">
+      <c r="H36" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="123"/>
-      <c r="J36" s="122">
+      <c r="I36" s="116"/>
+      <c r="J36" s="115">
         <f>H31-I31</f>
-        <v>15.676600000000001</v>
-      </c>
-      <c r="K36" s="123"/>
-      <c r="L36" s="123"/>
-      <c r="M36" s="123"/>
-      <c r="N36" s="123"/>
-      <c r="O36" s="123"/>
-      <c r="P36" s="123"/>
-      <c r="Q36" s="128"/>
+        <v>14.944600000000001</v>
+      </c>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="116"/>
+      <c r="P36" s="116"/>
+      <c r="Q36" s="121"/>
       <c r="R36" s="42"/>
       <c r="S36" s="42"/>
       <c r="T36" s="42"/>
@@ -4282,7 +4310,7 @@
       <c r="AJ36" s="42"/>
       <c r="AK36" s="42"/>
     </row>
-    <row r="37" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -4296,7 +4324,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -4310,7 +4338,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -4324,42 +4352,47 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="6"/>
     </row>
-    <row r="53" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="6"/>
     </row>
-    <row r="55" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="6"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="H34:I34"/>
@@ -4372,11 +4405,6 @@
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4385,31 +4413,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK82"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
-    <col min="4" max="4" width="55.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="55.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -4417,17 +4445,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="122" t="s">
+    <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="124"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="117"/>
       <c r="R2" s="52"/>
       <c r="S2" s="42"/>
       <c r="T2" s="42"/>
@@ -4449,7 +4477,7 @@
       <c r="AJ2" s="42"/>
       <c r="AK2" s="42"/>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
@@ -4519,8 +4547,8 @@
       <c r="AJ3" s="41"/>
       <c r="AK3" s="41"/>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="149" t="s">
+    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="144" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="66" t="s">
@@ -4564,8 +4592,8 @@
       <c r="AJ4" s="25"/>
       <c r="AK4" s="25"/>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="150"/>
+    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="145"/>
       <c r="C5" s="67" t="s">
         <v>24</v>
       </c>
@@ -4607,8 +4635,8 @@
       <c r="AJ5" s="25"/>
       <c r="AK5" s="25"/>
     </row>
-    <row r="6" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="150"/>
+    <row r="6" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="145"/>
       <c r="C6" s="56" t="s">
         <v>25</v>
       </c>
@@ -4650,8 +4678,8 @@
       <c r="AJ6" s="25"/>
       <c r="AK6" s="25"/>
     </row>
-    <row r="7" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="150"/>
+    <row r="7" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="145"/>
       <c r="C7" s="56" t="s">
         <v>26</v>
       </c>
@@ -4693,8 +4721,8 @@
       <c r="AJ7" s="25"/>
       <c r="AK7" s="25"/>
     </row>
-    <row r="8" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="150"/>
+    <row r="8" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="145"/>
       <c r="C8" s="56" t="s">
         <v>56</v>
       </c>
@@ -4733,8 +4761,8 @@
       <c r="AJ8" s="25"/>
       <c r="AK8" s="25"/>
     </row>
-    <row r="9" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="150"/>
+    <row r="9" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="145"/>
       <c r="C9" s="56" t="s">
         <v>55</v>
       </c>
@@ -4773,8 +4801,8 @@
       <c r="AJ9" s="25"/>
       <c r="AK9" s="25"/>
     </row>
-    <row r="10" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="150"/>
+    <row r="10" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="145"/>
       <c r="C10" s="56" t="s">
         <v>27</v>
       </c>
@@ -4816,8 +4844,8 @@
       <c r="AJ10" s="25"/>
       <c r="AK10" s="25"/>
     </row>
-    <row r="11" spans="1:37" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="150"/>
+    <row r="11" spans="1:37" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="145"/>
       <c r="C11" s="56" t="s">
         <v>52</v>
       </c>
@@ -4859,8 +4887,8 @@
       <c r="AJ11" s="25"/>
       <c r="AK11" s="25"/>
     </row>
-    <row r="12" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="151" t="s">
+    <row r="12" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="146" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="56" t="s">
@@ -4904,8 +4932,8 @@
       <c r="AJ12" s="25"/>
       <c r="AK12" s="25"/>
     </row>
-    <row r="13" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="152"/>
+    <row r="13" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="147"/>
       <c r="C13" s="56" t="s">
         <v>31</v>
       </c>
@@ -4947,8 +4975,8 @@
       <c r="AJ13" s="25"/>
       <c r="AK13" s="25"/>
     </row>
-    <row r="14" spans="1:37" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="152"/>
+    <row r="14" spans="1:37" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="147"/>
       <c r="C14" s="56" t="s">
         <v>30</v>
       </c>
@@ -4990,8 +5018,8 @@
       <c r="AJ14" s="25"/>
       <c r="AK14" s="25"/>
     </row>
-    <row r="15" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="153"/>
+    <row r="15" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="148"/>
       <c r="C15" s="56" t="s">
         <v>32</v>
       </c>
@@ -5033,11 +5061,11 @@
       <c r="AJ15" s="25"/>
       <c r="AK15" s="37"/>
     </row>
-    <row r="16" spans="1:37" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="154" t="s">
+    <row r="16" spans="1:37" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="152" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -5080,9 +5108,9 @@
       <c r="AJ16" s="25"/>
       <c r="AK16" s="25"/>
     </row>
-    <row r="17" spans="2:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="155"/>
-      <c r="C17" s="158"/>
+    <row r="17" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="150"/>
+      <c r="C17" s="153"/>
       <c r="D17" s="25" t="s">
         <v>36</v>
       </c>
@@ -5123,9 +5151,9 @@
       <c r="AJ17" s="25"/>
       <c r="AK17" s="25"/>
     </row>
-    <row r="18" spans="2:37" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="155"/>
-      <c r="C18" s="159"/>
+    <row r="18" spans="2:37" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="150"/>
+      <c r="C18" s="154"/>
       <c r="D18" s="25" t="s">
         <v>37</v>
       </c>
@@ -5166,8 +5194,8 @@
       <c r="AJ18" s="25"/>
       <c r="AK18" s="25"/>
     </row>
-    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="155"/>
+    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="150"/>
       <c r="C19" s="62"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -5207,8 +5235,8 @@
       <c r="AJ19" s="25"/>
       <c r="AK19" s="25"/>
     </row>
-    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="155"/>
+    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="150"/>
       <c r="C20" s="62"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -5248,8 +5276,8 @@
       <c r="AJ20" s="25"/>
       <c r="AK20" s="25"/>
     </row>
-    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="155"/>
+    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="150"/>
       <c r="C21" s="62"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -5289,8 +5317,8 @@
       <c r="AJ21" s="25"/>
       <c r="AK21" s="25"/>
     </row>
-    <row r="22" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="156"/>
+    <row r="22" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="151"/>
       <c r="C22" s="62"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -5330,7 +5358,7 @@
       <c r="AJ22" s="25"/>
       <c r="AK22" s="25"/>
     </row>
-    <row r="23" spans="2:37" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:37" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="34" t="s">
         <v>38</v>
       </c>
@@ -5375,11 +5403,11 @@
       <c r="AJ23" s="25"/>
       <c r="AK23" s="25"/>
     </row>
-    <row r="24" spans="2:37" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="142" t="s">
+    <row r="24" spans="2:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="144" t="s">
+      <c r="C24" s="142" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -5422,9 +5450,9 @@
       <c r="AJ24" s="37"/>
       <c r="AK24" s="25"/>
     </row>
-    <row r="25" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="117"/>
-      <c r="C25" s="120"/>
+    <row r="25" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="131"/>
+      <c r="C25" s="138"/>
       <c r="D25" s="25" t="s">
         <v>41</v>
       </c>
@@ -5465,9 +5493,9 @@
       <c r="AJ25" s="37"/>
       <c r="AK25" s="25"/>
     </row>
-    <row r="26" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="143"/>
-      <c r="C26" s="145"/>
+    <row r="26" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="141"/>
+      <c r="C26" s="143"/>
       <c r="D26" s="25" t="s">
         <v>48</v>
       </c>
@@ -5508,8 +5536,8 @@
       <c r="AJ26" s="37"/>
       <c r="AK26" s="25"/>
     </row>
-    <row r="27" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="142" t="s">
+    <row r="27" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="140" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="69" t="s">
@@ -5553,8 +5581,8 @@
       <c r="AJ27" s="37"/>
       <c r="AK27" s="25"/>
     </row>
-    <row r="28" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="117"/>
+    <row r="28" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="131"/>
       <c r="C28" s="64" t="s">
         <v>54</v>
       </c>
@@ -5593,8 +5621,8 @@
       <c r="AJ28" s="37"/>
       <c r="AK28" s="25"/>
     </row>
-    <row r="29" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="117"/>
+    <row r="29" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="131"/>
       <c r="C29" s="68" t="s">
         <v>44</v>
       </c>
@@ -5636,8 +5664,8 @@
       <c r="AJ29" s="38"/>
       <c r="AK29" s="37"/>
     </row>
-    <row r="30" spans="2:37" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="143"/>
+    <row r="30" spans="2:37" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="141"/>
       <c r="C30" s="63" t="s">
         <v>53</v>
       </c>
@@ -5679,11 +5707,11 @@
       <c r="AJ30" s="37"/>
       <c r="AK30" s="37"/>
     </row>
-    <row r="31" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="142" t="s">
+    <row r="31" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="144" t="s">
+      <c r="C31" s="142" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="25" t="s">
@@ -5726,9 +5754,9 @@
       <c r="AJ31" s="37"/>
       <c r="AK31" s="37"/>
     </row>
-    <row r="32" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="117"/>
-      <c r="C32" s="120"/>
+    <row r="32" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="131"/>
+      <c r="C32" s="138"/>
       <c r="D32" s="25" t="s">
         <v>46</v>
       </c>
@@ -5769,9 +5797,9 @@
       <c r="AJ32" s="37"/>
       <c r="AK32" s="37"/>
     </row>
-    <row r="33" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="117"/>
-      <c r="C33" s="145"/>
+    <row r="33" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="131"/>
+      <c r="C33" s="143"/>
       <c r="D33" s="25" t="s">
         <v>47</v>
       </c>
@@ -5812,8 +5840,8 @@
       <c r="AJ33" s="37"/>
       <c r="AK33" s="37"/>
     </row>
-    <row r="34" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="143"/>
+    <row r="34" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="141"/>
       <c r="C34" s="63"/>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
@@ -5853,8 +5881,8 @@
       <c r="AJ34" s="37"/>
       <c r="AK34" s="37"/>
     </row>
-    <row r="35" spans="2:37" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="142" t="s">
+    <row r="35" spans="2:37" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="140" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="63" t="s">
@@ -5898,8 +5926,8 @@
       <c r="AJ35" s="37"/>
       <c r="AK35" s="37"/>
     </row>
-    <row r="36" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="117"/>
+    <row r="36" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="131"/>
       <c r="C36" s="58" t="s">
         <v>51</v>
       </c>
@@ -5941,8 +5969,8 @@
       <c r="AJ36" s="25"/>
       <c r="AK36" s="37"/>
     </row>
-    <row r="37" spans="2:37" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="117"/>
+    <row r="37" spans="2:37" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="131"/>
       <c r="C37" s="58"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
@@ -5982,8 +6010,8 @@
       <c r="AJ37" s="25"/>
       <c r="AK37" s="37"/>
     </row>
-    <row r="38" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="143"/>
+    <row r="38" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="141"/>
       <c r="C38" s="54"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -6023,7 +6051,7 @@
       <c r="AJ38" s="37"/>
       <c r="AK38" s="37"/>
     </row>
-    <row r="39" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="65"/>
       <c r="C39" s="58"/>
       <c r="D39" s="25"/>
@@ -6064,7 +6092,7 @@
       <c r="AJ39" s="38"/>
       <c r="AK39" s="37"/>
     </row>
-    <row r="40" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="65"/>
       <c r="C40" s="58"/>
       <c r="D40" s="25"/>
@@ -6105,7 +6133,7 @@
       <c r="AJ40" s="25"/>
       <c r="AK40" s="37"/>
     </row>
-    <row r="41" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="65"/>
       <c r="C41" s="58"/>
       <c r="D41" s="25"/>
@@ -6146,7 +6174,7 @@
       <c r="AJ41" s="25"/>
       <c r="AK41" s="37"/>
     </row>
-    <row r="42" spans="2:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="65"/>
       <c r="C42" s="58"/>
       <c r="D42" s="25"/>
@@ -6187,7 +6215,7 @@
       <c r="AJ42" s="25"/>
       <c r="AK42" s="37"/>
     </row>
-    <row r="43" spans="2:37" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="65"/>
       <c r="C43" s="58"/>
       <c r="D43" s="25"/>
@@ -6228,7 +6256,7 @@
       <c r="AJ43" s="25"/>
       <c r="AK43" s="37"/>
     </row>
-    <row r="44" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="65"/>
       <c r="C44" s="58"/>
       <c r="D44" s="25"/>
@@ -6269,7 +6297,7 @@
       <c r="AJ44" s="25"/>
       <c r="AK44" s="37"/>
     </row>
-    <row r="45" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="65"/>
       <c r="C45" s="64"/>
       <c r="D45" s="25"/>
@@ -6310,7 +6338,7 @@
       <c r="AJ45" s="38"/>
       <c r="AK45" s="38"/>
     </row>
-    <row r="46" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="65"/>
       <c r="C46" s="64"/>
       <c r="D46" s="25"/>
@@ -6351,7 +6379,7 @@
       <c r="AJ46" s="38"/>
       <c r="AK46" s="38"/>
     </row>
-    <row r="47" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="65"/>
       <c r="C47" s="55"/>
       <c r="D47" s="25"/>
@@ -6392,7 +6420,7 @@
       <c r="AJ47" s="25"/>
       <c r="AK47" s="37"/>
     </row>
-    <row r="48" spans="2:37" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:37" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="65"/>
       <c r="C48" s="58"/>
       <c r="D48" s="25"/>
@@ -6433,8 +6461,8 @@
       <c r="AJ48" s="37"/>
       <c r="AK48" s="37"/>
     </row>
-    <row r="49" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="146"/>
+    <row r="49" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="157"/>
       <c r="C49" s="37"/>
       <c r="D49" s="25"/>
       <c r="E49" s="37"/>
@@ -6474,8 +6502,8 @@
       <c r="AJ49" s="25"/>
       <c r="AK49" s="25"/>
     </row>
-    <row r="50" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="146"/>
+    <row r="50" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="157"/>
       <c r="C50" s="37"/>
       <c r="D50" s="25"/>
       <c r="E50" s="37"/>
@@ -6515,8 +6543,8 @@
       <c r="AJ50" s="25"/>
       <c r="AK50" s="25"/>
     </row>
-    <row r="51" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="146"/>
+    <row r="51" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="157"/>
       <c r="C51" s="62"/>
       <c r="D51" s="25"/>
       <c r="E51" s="37"/>
@@ -6556,8 +6584,8 @@
       <c r="AJ51" s="25"/>
       <c r="AK51" s="25"/>
     </row>
-    <row r="52" spans="2:37" ht="21" x14ac:dyDescent="0.25">
-      <c r="B52" s="147"/>
+    <row r="52" spans="2:37" ht="21" x14ac:dyDescent="0.3">
+      <c r="B52" s="158"/>
       <c r="C52" s="62"/>
       <c r="D52" s="25"/>
       <c r="E52" s="37"/>
@@ -6597,8 +6625,8 @@
       <c r="AJ52" s="25"/>
       <c r="AK52" s="25"/>
     </row>
-    <row r="53" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="148"/>
+    <row r="53" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="159"/>
       <c r="C53" s="56"/>
       <c r="D53" s="25"/>
       <c r="E53" s="37"/>
@@ -6638,8 +6666,8 @@
       <c r="AJ53" s="25"/>
       <c r="AK53" s="25"/>
     </row>
-    <row r="54" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="148"/>
+    <row r="54" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="159"/>
       <c r="C54" s="56"/>
       <c r="D54" s="25"/>
       <c r="E54" s="37"/>
@@ -6679,8 +6707,8 @@
       <c r="AJ54" s="25"/>
       <c r="AK54" s="25"/>
     </row>
-    <row r="55" spans="2:37" ht="21" x14ac:dyDescent="0.25">
-      <c r="B55" s="148"/>
+    <row r="55" spans="2:37" ht="21" x14ac:dyDescent="0.3">
+      <c r="B55" s="159"/>
       <c r="C55" s="37"/>
       <c r="D55" s="25"/>
       <c r="E55" s="37"/>
@@ -6720,8 +6748,8 @@
       <c r="AJ55" s="25"/>
       <c r="AK55" s="25"/>
     </row>
-    <row r="56" spans="2:37" ht="21" x14ac:dyDescent="0.25">
-      <c r="B56" s="148"/>
+    <row r="56" spans="2:37" ht="21" x14ac:dyDescent="0.3">
+      <c r="B56" s="159"/>
       <c r="C56" s="37"/>
       <c r="D56" s="25"/>
       <c r="E56" s="37"/>
@@ -6761,15 +6789,15 @@
       <c r="AJ56" s="38"/>
       <c r="AK56" s="38"/>
     </row>
-    <row r="57" spans="2:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="140" t="s">
+    <row r="57" spans="2:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="141"/>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141"/>
-      <c r="F57" s="141"/>
-      <c r="G57" s="141"/>
+      <c r="C57" s="156"/>
+      <c r="D57" s="156"/>
+      <c r="E57" s="156"/>
+      <c r="F57" s="156"/>
+      <c r="G57" s="156"/>
       <c r="H57" s="60">
         <f t="shared" ref="H57:I57" si="2">SUM(H4:H56)</f>
         <v>0</v>
@@ -6807,7 +6835,7 @@
       <c r="AJ57" s="35"/>
       <c r="AK57" s="35"/>
     </row>
-    <row r="58" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -6847,7 +6875,7 @@
       <c r="AJ58" s="42"/>
       <c r="AK58" s="42"/>
     </row>
-    <row r="59" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="16" t="s">
         <v>19</v>
       </c>
@@ -6891,7 +6919,7 @@
       <c r="AJ59" s="45"/>
       <c r="AK59" s="45"/>
     </row>
-    <row r="60" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="22" t="s">
         <v>14</v>
       </c>
@@ -6900,10 +6928,10 @@
       <c r="E60" s="29"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="122" t="s">
+      <c r="H60" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="I60" s="128"/>
+      <c r="I60" s="121"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -6933,7 +6961,7 @@
       <c r="AJ60" s="35"/>
       <c r="AK60" s="35"/>
     </row>
-    <row r="61" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="20" t="s">
         <v>13</v>
       </c>
@@ -6969,7 +6997,7 @@
       <c r="AJ61" s="45"/>
       <c r="AK61" s="45"/>
     </row>
-    <row r="62" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="20" t="s">
         <v>15</v>
       </c>
@@ -6977,21 +7005,21 @@
       <c r="D62" s="31"/>
       <c r="E62" s="32"/>
       <c r="F62" s="3"/>
-      <c r="H62" s="122" t="s">
+      <c r="H62" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="I62" s="123"/>
-      <c r="J62" s="122">
+      <c r="I62" s="116"/>
+      <c r="J62" s="115">
         <f>H57-I57</f>
         <v>0</v>
       </c>
-      <c r="K62" s="123"/>
-      <c r="L62" s="123"/>
-      <c r="M62" s="123"/>
-      <c r="N62" s="123"/>
-      <c r="O62" s="123"/>
-      <c r="P62" s="123"/>
-      <c r="Q62" s="128"/>
+      <c r="K62" s="116"/>
+      <c r="L62" s="116"/>
+      <c r="M62" s="116"/>
+      <c r="N62" s="116"/>
+      <c r="O62" s="116"/>
+      <c r="P62" s="116"/>
+      <c r="Q62" s="121"/>
       <c r="R62" s="42"/>
       <c r="S62" s="42"/>
       <c r="T62" s="42"/>
@@ -7013,7 +7041,7 @@
       <c r="AJ62" s="42"/>
       <c r="AK62" s="42"/>
     </row>
-    <row r="63" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -7027,7 +7055,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -7041,7 +7069,7 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -7055,49 +7083,42 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="6"/>
     </row>
-    <row r="73" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B73" s="6"/>
     </row>
-    <row r="74" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B78" s="6"/>
     </row>
-    <row r="79" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="6"/>
     </row>
-    <row r="80" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="6"/>
     </row>
-    <row r="81" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="6"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="C16:C18"/>
     <mergeCell ref="B57:G57"/>
     <mergeCell ref="H60:I60"/>
     <mergeCell ref="H62:I62"/>
@@ -7108,6 +7129,13 @@
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7115,12 +7143,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sprint-1_Mecanicas.xlsx
+++ b/Sprint-1_Mecanicas.xlsx
@@ -1239,6 +1239,27 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1282,15 +1303,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1302,17 +1314,11 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1326,6 +1332,15 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1357,21 +1372,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1474,28 +1474,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>19.05</c:v>
+                  <c:v>17.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.05</c:v>
+                  <c:v>17.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.05</c:v>
+                  <c:v>17.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.38</c:v>
+                  <c:v>16.579999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.676600000000001</c:v>
+                  <c:v>14.876599999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.944600000000001</c:v>
+                  <c:v>13.078599999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.944600000000001</c:v>
+                  <c:v>13.078599999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.944600000000001</c:v>
+                  <c:v>13.078599999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1659,28 +1659,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>19.05</c:v>
+                  <c:v>17.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.05</c:v>
+                  <c:v>17.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.05</c:v>
+                  <c:v>17.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.38</c:v>
+                  <c:v>16.579999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.676600000000001</c:v>
+                  <c:v>14.876599999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.944600000000001</c:v>
+                  <c:v>13.078599999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.944600000000001</c:v>
+                  <c:v>13.078599999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.944600000000001</c:v>
+                  <c:v>13.078599999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2169,7 +2169,7 @@
   <dimension ref="A1:AK56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2196,27 +2196,27 @@
       <c r="B1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="115" t="s">
+      <c r="J2" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="117"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="124"/>
       <c r="R2" s="52"/>
       <c r="S2" s="42"/>
       <c r="T2" s="42"/>
@@ -2309,7 +2309,7 @@
       <c r="AK3" s="41"/>
     </row>
     <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="125" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="82" t="s">
@@ -2374,7 +2374,7 @@
       <c r="AK4" s="25"/>
     </row>
     <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="119"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="85" t="s">
         <v>31</v>
       </c>
@@ -2437,7 +2437,7 @@
       <c r="AK5" s="25"/>
     </row>
     <row r="6" spans="1:37" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="119"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="85" t="s">
         <v>30</v>
       </c>
@@ -2500,7 +2500,7 @@
       <c r="AK6" s="25"/>
     </row>
     <row r="7" spans="1:37" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="120"/>
+      <c r="B7" s="127"/>
       <c r="C7" s="88" t="s">
         <v>32</v>
       </c>
@@ -2563,10 +2563,10 @@
       <c r="AK7" s="37"/>
     </row>
     <row r="8" spans="1:37" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="134" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="91" t="s">
@@ -2628,8 +2628,8 @@
       <c r="AK8" s="25"/>
     </row>
     <row r="9" spans="1:37" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="125"/>
-      <c r="C9" s="128"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="135"/>
       <c r="D9" s="92" t="s">
         <v>59</v>
       </c>
@@ -2689,8 +2689,8 @@
       <c r="AK9" s="25"/>
     </row>
     <row r="10" spans="1:37" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="125"/>
-      <c r="C10" s="128"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="92" t="s">
         <v>36</v>
       </c>
@@ -2750,8 +2750,8 @@
       <c r="AK10" s="25"/>
     </row>
     <row r="11" spans="1:37" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="126"/>
-      <c r="C11" s="129"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="136"/>
       <c r="D11" s="93" t="s">
         <v>66</v>
       </c>
@@ -2876,10 +2876,10 @@
       <c r="AK12" s="25"/>
     </row>
     <row r="13" spans="1:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="137" t="s">
+      <c r="C13" s="119" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="83" t="s">
@@ -2941,8 +2941,8 @@
       <c r="AK13" s="25"/>
     </row>
     <row r="14" spans="1:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="131"/>
-      <c r="C14" s="138"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="120"/>
       <c r="D14" s="86" t="s">
         <v>65</v>
       </c>
@@ -3004,8 +3004,8 @@
       <c r="AK14" s="25"/>
     </row>
     <row r="15" spans="1:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="131"/>
-      <c r="C15" s="138"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="99" t="s">
         <v>64</v>
       </c>
@@ -3065,8 +3065,8 @@
       <c r="AK15" s="25"/>
     </row>
     <row r="16" spans="1:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="131"/>
-      <c r="C16" s="138"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="86" t="s">
         <v>61</v>
       </c>
@@ -3126,8 +3126,8 @@
       <c r="AK16" s="25"/>
     </row>
     <row r="17" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="131"/>
-      <c r="C17" s="138"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="86" t="s">
         <v>41</v>
       </c>
@@ -3189,8 +3189,8 @@
       <c r="AK17" s="25"/>
     </row>
     <row r="18" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="132"/>
-      <c r="C18" s="139"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="121"/>
       <c r="D18" s="89" t="s">
         <v>48</v>
       </c>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="I18" s="60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="J18" s="107">
         <v>0</v>
@@ -3225,7 +3225,9 @@
       <c r="N18" s="111">
         <v>0</v>
       </c>
-      <c r="O18" s="70"/>
+      <c r="O18" s="104">
+        <v>6.6000000000000003E-2</v>
+      </c>
       <c r="P18" s="70"/>
       <c r="Q18" s="72"/>
       <c r="R18" s="48"/>
@@ -3250,10 +3252,10 @@
       <c r="AK18" s="25"/>
     </row>
     <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="119" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="83" t="s">
@@ -3315,8 +3317,8 @@
       <c r="AK19" s="25"/>
     </row>
     <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="131"/>
-      <c r="C20" s="138"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
       <c r="D20" s="92" t="s">
         <v>59</v>
       </c>
@@ -3376,8 +3378,8 @@
       <c r="AK20" s="25"/>
     </row>
     <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="131"/>
-      <c r="C21" s="138"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="120"/>
       <c r="D21" s="92" t="s">
         <v>60</v>
       </c>
@@ -3437,8 +3439,8 @@
       <c r="AK21" s="25"/>
     </row>
     <row r="22" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="132"/>
-      <c r="C22" s="139"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="121"/>
       <c r="D22" s="93" t="s">
         <v>61</v>
       </c>
@@ -3498,7 +3500,7 @@
       <c r="AK22" s="25"/>
     </row>
     <row r="23" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="116" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="97" t="s">
@@ -3515,7 +3517,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="76">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="I23" s="59">
         <f t="shared" si="0"/>
@@ -3561,7 +3563,7 @@
       <c r="AK23" s="25"/>
     </row>
     <row r="24" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="131"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="100" t="s">
         <v>54</v>
       </c>
@@ -3620,7 +3622,7 @@
       <c r="AK24" s="25"/>
     </row>
     <row r="25" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="131"/>
+      <c r="B25" s="117"/>
       <c r="C25" s="101" t="s">
         <v>44</v>
       </c>
@@ -3679,7 +3681,7 @@
       <c r="AK25" s="37"/>
     </row>
     <row r="26" spans="2:37" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="132"/>
+      <c r="B26" s="118"/>
       <c r="C26" s="102" t="s">
         <v>53</v>
       </c>
@@ -3744,10 +3746,10 @@
       <c r="AK26" s="37"/>
     </row>
     <row r="27" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="130" t="s">
+      <c r="B27" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="133" t="s">
+      <c r="C27" s="137" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="91" t="s">
@@ -3807,8 +3809,8 @@
       <c r="AK27" s="37"/>
     </row>
     <row r="28" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="131"/>
-      <c r="C28" s="134"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="138"/>
       <c r="D28" s="92" t="s">
         <v>67</v>
       </c>
@@ -3866,8 +3868,8 @@
       <c r="AK28" s="37"/>
     </row>
     <row r="29" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="131"/>
-      <c r="C29" s="134"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="138"/>
       <c r="D29" s="92" t="s">
         <v>46</v>
       </c>
@@ -3925,8 +3927,8 @@
       <c r="AK29" s="37"/>
     </row>
     <row r="30" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="132"/>
-      <c r="C30" s="135"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="139"/>
       <c r="D30" s="93" t="s">
         <v>47</v>
       </c>
@@ -3984,21 +3986,21 @@
       <c r="AK30" s="37"/>
     </row>
     <row r="31" spans="2:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="122" t="s">
+      <c r="B31" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
       <c r="H31" s="78">
         <f>SUM(H4:H30)</f>
-        <v>19.8</v>
+        <v>18</v>
       </c>
       <c r="I31" s="78">
         <f>SUM(I4:I30)</f>
-        <v>4.8554000000000004</v>
+        <v>4.9214000000000002</v>
       </c>
       <c r="J31" s="78">
         <f>SUM(J4:J30)</f>
@@ -4022,7 +4024,7 @@
       </c>
       <c r="O31" s="78">
         <f t="shared" si="1"/>
-        <v>1.732</v>
+        <v>1.798</v>
       </c>
       <c r="P31" s="78">
         <f t="shared" si="1"/>
@@ -4062,16 +4064,16 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="115" t="s">
+      <c r="J32" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="116"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="121"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="128"/>
       <c r="R32" s="42"/>
       <c r="S32" s="42"/>
       <c r="T32" s="42"/>
@@ -4155,41 +4157,41 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="115" t="s">
+      <c r="H34" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="I34" s="121"/>
+      <c r="I34" s="128"/>
       <c r="J34" s="9">
         <f>SUM(H31,-J31)</f>
-        <v>19.05</v>
+        <v>17.25</v>
       </c>
       <c r="K34" s="9">
         <f>SUM(J34,-K31)</f>
-        <v>19.05</v>
+        <v>17.25</v>
       </c>
       <c r="L34" s="9">
         <f t="shared" ref="L34:Q34" si="2">SUM(K34,-L31)</f>
-        <v>19.05</v>
+        <v>17.25</v>
       </c>
       <c r="M34" s="9">
         <f t="shared" si="2"/>
-        <v>18.38</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="N34" s="9">
         <f t="shared" si="2"/>
-        <v>16.676600000000001</v>
+        <v>14.876599999999998</v>
       </c>
       <c r="O34" s="9">
         <f t="shared" si="2"/>
-        <v>14.944600000000001</v>
+        <v>13.078599999999998</v>
       </c>
       <c r="P34" s="9">
         <f t="shared" si="2"/>
-        <v>14.944600000000001</v>
+        <v>13.078599999999998</v>
       </c>
       <c r="Q34" s="9">
         <f t="shared" si="2"/>
-        <v>14.944600000000001</v>
+        <v>13.078599999999998</v>
       </c>
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
@@ -4218,15 +4220,15 @@
       </c>
       <c r="C35" s="19">
         <f>SUM(H4:H7,H13:H14,H16:H19,H23)</f>
-        <v>8.1999999999999993</v>
+        <v>6.4</v>
       </c>
       <c r="D35" s="28">
         <f>SUM(I4:I7,I13:I14,I16:I19,I23)</f>
-        <v>1.9353999999999998</v>
+        <v>2.0013999999999998</v>
       </c>
       <c r="E35" s="29">
         <f t="shared" ref="E35:E36" si="3">SUM(C35,-D35)</f>
-        <v>6.2645999999999997</v>
+        <v>4.3986000000000001</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -4274,21 +4276,21 @@
         <v>3.38</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="H36" s="115" t="s">
+      <c r="H36" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="116"/>
-      <c r="J36" s="115">
+      <c r="I36" s="123"/>
+      <c r="J36" s="122">
         <f>H31-I31</f>
-        <v>14.944600000000001</v>
-      </c>
-      <c r="K36" s="116"/>
-      <c r="L36" s="116"/>
-      <c r="M36" s="116"/>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="116"/>
-      <c r="Q36" s="121"/>
+        <v>13.0786</v>
+      </c>
+      <c r="K36" s="123"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="123"/>
+      <c r="N36" s="123"/>
+      <c r="O36" s="123"/>
+      <c r="P36" s="123"/>
+      <c r="Q36" s="128"/>
       <c r="R36" s="42"/>
       <c r="S36" s="42"/>
       <c r="T36" s="42"/>
@@ -4388,11 +4390,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="H34:I34"/>
@@ -4405,6 +4402,11 @@
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4446,16 +4448,16 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="115" t="s">
+      <c r="J2" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="117"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="124"/>
       <c r="R2" s="52"/>
       <c r="S2" s="42"/>
       <c r="T2" s="42"/>
@@ -4548,7 +4550,7 @@
       <c r="AK3" s="41"/>
     </row>
     <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="149" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="66" t="s">
@@ -4593,7 +4595,7 @@
       <c r="AK4" s="25"/>
     </row>
     <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="145"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="67" t="s">
         <v>24</v>
       </c>
@@ -4636,7 +4638,7 @@
       <c r="AK5" s="25"/>
     </row>
     <row r="6" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="145"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="56" t="s">
         <v>25</v>
       </c>
@@ -4679,7 +4681,7 @@
       <c r="AK6" s="25"/>
     </row>
     <row r="7" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="145"/>
+      <c r="B7" s="150"/>
       <c r="C7" s="56" t="s">
         <v>26</v>
       </c>
@@ -4722,7 +4724,7 @@
       <c r="AK7" s="25"/>
     </row>
     <row r="8" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="145"/>
+      <c r="B8" s="150"/>
       <c r="C8" s="56" t="s">
         <v>56</v>
       </c>
@@ -4762,7 +4764,7 @@
       <c r="AK8" s="25"/>
     </row>
     <row r="9" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="145"/>
+      <c r="B9" s="150"/>
       <c r="C9" s="56" t="s">
         <v>55</v>
       </c>
@@ -4802,7 +4804,7 @@
       <c r="AK9" s="25"/>
     </row>
     <row r="10" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="145"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="56" t="s">
         <v>27</v>
       </c>
@@ -4845,7 +4847,7 @@
       <c r="AK10" s="25"/>
     </row>
     <row r="11" spans="1:37" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="145"/>
+      <c r="B11" s="150"/>
       <c r="C11" s="56" t="s">
         <v>52</v>
       </c>
@@ -4888,7 +4890,7 @@
       <c r="AK11" s="25"/>
     </row>
     <row r="12" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="146" t="s">
+      <c r="B12" s="151" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="56" t="s">
@@ -4933,7 +4935,7 @@
       <c r="AK12" s="25"/>
     </row>
     <row r="13" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="147"/>
+      <c r="B13" s="152"/>
       <c r="C13" s="56" t="s">
         <v>31</v>
       </c>
@@ -4976,7 +4978,7 @@
       <c r="AK13" s="25"/>
     </row>
     <row r="14" spans="1:37" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="147"/>
+      <c r="B14" s="152"/>
       <c r="C14" s="56" t="s">
         <v>30</v>
       </c>
@@ -5019,7 +5021,7 @@
       <c r="AK14" s="25"/>
     </row>
     <row r="15" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="148"/>
+      <c r="B15" s="153"/>
       <c r="C15" s="56" t="s">
         <v>32</v>
       </c>
@@ -5062,10 +5064,10 @@
       <c r="AK15" s="37"/>
     </row>
     <row r="16" spans="1:37" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="149" t="s">
+      <c r="B16" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="152" t="s">
+      <c r="C16" s="157" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -5109,8 +5111,8 @@
       <c r="AK16" s="25"/>
     </row>
     <row r="17" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="150"/>
-      <c r="C17" s="153"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="158"/>
       <c r="D17" s="25" t="s">
         <v>36</v>
       </c>
@@ -5152,8 +5154,8 @@
       <c r="AK17" s="25"/>
     </row>
     <row r="18" spans="2:37" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="150"/>
-      <c r="C18" s="154"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="159"/>
       <c r="D18" s="25" t="s">
         <v>37</v>
       </c>
@@ -5195,7 +5197,7 @@
       <c r="AK18" s="25"/>
     </row>
     <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="150"/>
+      <c r="B19" s="155"/>
       <c r="C19" s="62"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -5236,7 +5238,7 @@
       <c r="AK19" s="25"/>
     </row>
     <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="150"/>
+      <c r="B20" s="155"/>
       <c r="C20" s="62"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -5277,7 +5279,7 @@
       <c r="AK20" s="25"/>
     </row>
     <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="150"/>
+      <c r="B21" s="155"/>
       <c r="C21" s="62"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -5318,7 +5320,7 @@
       <c r="AK21" s="25"/>
     </row>
     <row r="22" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="151"/>
+      <c r="B22" s="156"/>
       <c r="C22" s="62"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -5404,10 +5406,10 @@
       <c r="AK23" s="25"/>
     </row>
     <row r="24" spans="2:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="140" t="s">
+      <c r="B24" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="142" t="s">
+      <c r="C24" s="144" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -5451,8 +5453,8 @@
       <c r="AK24" s="25"/>
     </row>
     <row r="25" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="131"/>
-      <c r="C25" s="138"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="120"/>
       <c r="D25" s="25" t="s">
         <v>41</v>
       </c>
@@ -5494,8 +5496,8 @@
       <c r="AK25" s="25"/>
     </row>
     <row r="26" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="141"/>
-      <c r="C26" s="143"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="145"/>
       <c r="D26" s="25" t="s">
         <v>48</v>
       </c>
@@ -5537,7 +5539,7 @@
       <c r="AK26" s="25"/>
     </row>
     <row r="27" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="140" t="s">
+      <c r="B27" s="142" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="69" t="s">
@@ -5582,7 +5584,7 @@
       <c r="AK27" s="25"/>
     </row>
     <row r="28" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="131"/>
+      <c r="B28" s="117"/>
       <c r="C28" s="64" t="s">
         <v>54</v>
       </c>
@@ -5622,7 +5624,7 @@
       <c r="AK28" s="25"/>
     </row>
     <row r="29" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="131"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="68" t="s">
         <v>44</v>
       </c>
@@ -5665,7 +5667,7 @@
       <c r="AK29" s="37"/>
     </row>
     <row r="30" spans="2:37" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="141"/>
+      <c r="B30" s="143"/>
       <c r="C30" s="63" t="s">
         <v>53</v>
       </c>
@@ -5708,10 +5710,10 @@
       <c r="AK30" s="37"/>
     </row>
     <row r="31" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="140" t="s">
+      <c r="B31" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="142" t="s">
+      <c r="C31" s="144" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="25" t="s">
@@ -5755,8 +5757,8 @@
       <c r="AK31" s="37"/>
     </row>
     <row r="32" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="131"/>
-      <c r="C32" s="138"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="120"/>
       <c r="D32" s="25" t="s">
         <v>46</v>
       </c>
@@ -5798,8 +5800,8 @@
       <c r="AK32" s="37"/>
     </row>
     <row r="33" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="131"/>
-      <c r="C33" s="143"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="145"/>
       <c r="D33" s="25" t="s">
         <v>47</v>
       </c>
@@ -5841,7 +5843,7 @@
       <c r="AK33" s="37"/>
     </row>
     <row r="34" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="141"/>
+      <c r="B34" s="143"/>
       <c r="C34" s="63"/>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
@@ -5882,7 +5884,7 @@
       <c r="AK34" s="37"/>
     </row>
     <row r="35" spans="2:37" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="140" t="s">
+      <c r="B35" s="142" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="63" t="s">
@@ -5927,7 +5929,7 @@
       <c r="AK35" s="37"/>
     </row>
     <row r="36" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="131"/>
+      <c r="B36" s="117"/>
       <c r="C36" s="58" t="s">
         <v>51</v>
       </c>
@@ -5970,7 +5972,7 @@
       <c r="AK36" s="37"/>
     </row>
     <row r="37" spans="2:37" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="131"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="58"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
@@ -6011,7 +6013,7 @@
       <c r="AK37" s="37"/>
     </row>
     <row r="38" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="141"/>
+      <c r="B38" s="143"/>
       <c r="C38" s="54"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -6462,7 +6464,7 @@
       <c r="AK48" s="37"/>
     </row>
     <row r="49" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="157"/>
+      <c r="B49" s="146"/>
       <c r="C49" s="37"/>
       <c r="D49" s="25"/>
       <c r="E49" s="37"/>
@@ -6503,7 +6505,7 @@
       <c r="AK49" s="25"/>
     </row>
     <row r="50" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="157"/>
+      <c r="B50" s="146"/>
       <c r="C50" s="37"/>
       <c r="D50" s="25"/>
       <c r="E50" s="37"/>
@@ -6544,7 +6546,7 @@
       <c r="AK50" s="25"/>
     </row>
     <row r="51" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="157"/>
+      <c r="B51" s="146"/>
       <c r="C51" s="62"/>
       <c r="D51" s="25"/>
       <c r="E51" s="37"/>
@@ -6585,7 +6587,7 @@
       <c r="AK51" s="25"/>
     </row>
     <row r="52" spans="2:37" ht="21" x14ac:dyDescent="0.3">
-      <c r="B52" s="158"/>
+      <c r="B52" s="147"/>
       <c r="C52" s="62"/>
       <c r="D52" s="25"/>
       <c r="E52" s="37"/>
@@ -6626,7 +6628,7 @@
       <c r="AK52" s="25"/>
     </row>
     <row r="53" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="159"/>
+      <c r="B53" s="148"/>
       <c r="C53" s="56"/>
       <c r="D53" s="25"/>
       <c r="E53" s="37"/>
@@ -6667,7 +6669,7 @@
       <c r="AK53" s="25"/>
     </row>
     <row r="54" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="159"/>
+      <c r="B54" s="148"/>
       <c r="C54" s="56"/>
       <c r="D54" s="25"/>
       <c r="E54" s="37"/>
@@ -6708,7 +6710,7 @@
       <c r="AK54" s="25"/>
     </row>
     <row r="55" spans="2:37" ht="21" x14ac:dyDescent="0.3">
-      <c r="B55" s="159"/>
+      <c r="B55" s="148"/>
       <c r="C55" s="37"/>
       <c r="D55" s="25"/>
       <c r="E55" s="37"/>
@@ -6749,7 +6751,7 @@
       <c r="AK55" s="25"/>
     </row>
     <row r="56" spans="2:37" ht="21" x14ac:dyDescent="0.3">
-      <c r="B56" s="159"/>
+      <c r="B56" s="148"/>
       <c r="C56" s="37"/>
       <c r="D56" s="25"/>
       <c r="E56" s="37"/>
@@ -6790,14 +6792,14 @@
       <c r="AK56" s="38"/>
     </row>
     <row r="57" spans="2:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="155" t="s">
+      <c r="B57" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="156"/>
-      <c r="D57" s="156"/>
-      <c r="E57" s="156"/>
-      <c r="F57" s="156"/>
-      <c r="G57" s="156"/>
+      <c r="C57" s="141"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="141"/>
+      <c r="F57" s="141"/>
+      <c r="G57" s="141"/>
       <c r="H57" s="60">
         <f t="shared" ref="H57:I57" si="2">SUM(H4:H56)</f>
         <v>0</v>
@@ -6928,10 +6930,10 @@
       <c r="E60" s="29"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="115" t="s">
+      <c r="H60" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="I60" s="121"/>
+      <c r="I60" s="128"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -7005,21 +7007,21 @@
       <c r="D62" s="31"/>
       <c r="E62" s="32"/>
       <c r="F62" s="3"/>
-      <c r="H62" s="115" t="s">
+      <c r="H62" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="I62" s="116"/>
-      <c r="J62" s="115">
+      <c r="I62" s="123"/>
+      <c r="J62" s="122">
         <f>H57-I57</f>
         <v>0</v>
       </c>
-      <c r="K62" s="116"/>
-      <c r="L62" s="116"/>
-      <c r="M62" s="116"/>
-      <c r="N62" s="116"/>
-      <c r="O62" s="116"/>
-      <c r="P62" s="116"/>
-      <c r="Q62" s="121"/>
+      <c r="K62" s="123"/>
+      <c r="L62" s="123"/>
+      <c r="M62" s="123"/>
+      <c r="N62" s="123"/>
+      <c r="O62" s="123"/>
+      <c r="P62" s="123"/>
+      <c r="Q62" s="128"/>
       <c r="R62" s="42"/>
       <c r="S62" s="42"/>
       <c r="T62" s="42"/>
@@ -7119,6 +7121,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="B57:G57"/>
     <mergeCell ref="H60:I60"/>
     <mergeCell ref="H62:I62"/>
@@ -7129,13 +7138,6 @@
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Sprint-1_Mecanicas.xlsx
+++ b/Sprint-1_Mecanicas.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI-D\Documents\MecanicasAvanzao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\MecanicasAvanzadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -903,11 +903,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1239,18 +1263,72 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1260,66 +1338,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1332,6 +1350,45 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1341,37 +1398,28 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1483,19 +1531,19 @@
                   <c:v>17.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.579999999999998</c:v>
+                  <c:v>16.079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.876599999999998</c:v>
+                  <c:v>13.976599999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.078599999999998</c:v>
+                  <c:v>10.228599999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.078599999999998</c:v>
+                  <c:v>10.228599999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.078599999999998</c:v>
+                  <c:v>10.228599999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1562,6 +1610,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1668,19 +1717,19 @@
                   <c:v>17.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.579999999999998</c:v>
+                  <c:v>16.079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.876599999999998</c:v>
+                  <c:v>13.976599999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.078599999999998</c:v>
+                  <c:v>10.228599999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.078599999999998</c:v>
+                  <c:v>10.228599999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.078599999999998</c:v>
+                  <c:v>10.228599999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1921,23 +1970,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1973,23 +2005,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2169,54 +2184,54 @@
   <dimension ref="A1:AK56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" customWidth="1"/>
-    <col min="4" max="4" width="55.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="55.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="46.8" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:37" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="136" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-    </row>
-    <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="122" t="s">
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+    </row>
+    <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="124"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="117"/>
       <c r="R2" s="52"/>
       <c r="S2" s="42"/>
       <c r="T2" s="42"/>
@@ -2238,7 +2253,7 @@
       <c r="AJ2" s="42"/>
       <c r="AK2" s="42"/>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
@@ -2308,8 +2323,8 @@
       <c r="AJ3" s="41"/>
       <c r="AK3" s="41"/>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="125" t="s">
+    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="118" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="82" t="s">
@@ -2373,8 +2388,8 @@
       <c r="AJ4" s="25"/>
       <c r="AK4" s="25"/>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="126"/>
+    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="119"/>
       <c r="C5" s="85" t="s">
         <v>31</v>
       </c>
@@ -2436,8 +2451,8 @@
       <c r="AJ5" s="25"/>
       <c r="AK5" s="25"/>
     </row>
-    <row r="6" spans="1:37" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="126"/>
+    <row r="6" spans="1:37" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="119"/>
       <c r="C6" s="85" t="s">
         <v>30</v>
       </c>
@@ -2499,8 +2514,8 @@
       <c r="AJ6" s="25"/>
       <c r="AK6" s="25"/>
     </row>
-    <row r="7" spans="1:37" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="127"/>
+    <row r="7" spans="1:37" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="120"/>
       <c r="C7" s="88" t="s">
         <v>32</v>
       </c>
@@ -2562,11 +2577,11 @@
       <c r="AJ7" s="25"/>
       <c r="AK7" s="37"/>
     </row>
-    <row r="8" spans="1:37" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="131" t="s">
+    <row r="8" spans="1:37" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="134" t="s">
+      <c r="C8" s="127" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="91" t="s">
@@ -2586,7 +2601,7 @@
       </c>
       <c r="I8" s="59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J8" s="105">
         <v>0</v>
@@ -2597,15 +2612,21 @@
       <c r="L8" s="105">
         <v>0</v>
       </c>
-      <c r="M8" s="105">
-        <v>0</v>
-      </c>
-      <c r="N8" s="105">
-        <v>0</v>
-      </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="40"/>
+      <c r="M8" s="162">
+        <v>0</v>
+      </c>
+      <c r="N8" s="160">
+        <v>0.2</v>
+      </c>
+      <c r="O8" s="112">
+        <v>0</v>
+      </c>
+      <c r="P8" s="112">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="167">
+        <v>0</v>
+      </c>
       <c r="R8" s="48"/>
       <c r="S8" s="25"/>
       <c r="T8" s="25"/>
@@ -2627,9 +2648,9 @@
       <c r="AJ8" s="25"/>
       <c r="AK8" s="25"/>
     </row>
-    <row r="9" spans="1:37" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="132"/>
-      <c r="C9" s="135"/>
+    <row r="9" spans="1:37" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="125"/>
+      <c r="C9" s="128"/>
       <c r="D9" s="92" t="s">
         <v>59</v>
       </c>
@@ -2647,7 +2668,7 @@
       </c>
       <c r="I9" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J9" s="105">
         <v>0</v>
@@ -2655,18 +2676,24 @@
       <c r="K9" s="105">
         <v>0</v>
       </c>
-      <c r="L9" s="105">
-        <v>0</v>
-      </c>
-      <c r="M9" s="105">
-        <v>0</v>
-      </c>
-      <c r="N9" s="105">
-        <v>0</v>
-      </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="36"/>
+      <c r="L9" s="162">
+        <v>0</v>
+      </c>
+      <c r="M9" s="160">
+        <v>0.1</v>
+      </c>
+      <c r="N9" s="160">
+        <v>0</v>
+      </c>
+      <c r="O9" s="110">
+        <v>0</v>
+      </c>
+      <c r="P9" s="110">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="161">
+        <v>0</v>
+      </c>
       <c r="R9" s="48"/>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
@@ -2688,9 +2715,9 @@
       <c r="AJ9" s="25"/>
       <c r="AK9" s="25"/>
     </row>
-    <row r="10" spans="1:37" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="132"/>
-      <c r="C10" s="135"/>
+    <row r="10" spans="1:37" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="125"/>
+      <c r="C10" s="128"/>
       <c r="D10" s="92" t="s">
         <v>36</v>
       </c>
@@ -2708,7 +2735,7 @@
       </c>
       <c r="I10" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J10" s="105">
         <v>0</v>
@@ -2725,9 +2752,15 @@
       <c r="N10" s="105">
         <v>0</v>
       </c>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="36"/>
+      <c r="O10" s="110">
+        <v>0.4</v>
+      </c>
+      <c r="P10" s="110">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="161">
+        <v>0</v>
+      </c>
       <c r="R10" s="48"/>
       <c r="S10" s="25"/>
       <c r="T10" s="25"/>
@@ -2749,9 +2782,9 @@
       <c r="AJ10" s="25"/>
       <c r="AK10" s="25"/>
     </row>
-    <row r="11" spans="1:37" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="133"/>
-      <c r="C11" s="136"/>
+    <row r="11" spans="1:37" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="126"/>
+      <c r="C11" s="129"/>
       <c r="D11" s="93" t="s">
         <v>66</v>
       </c>
@@ -2769,7 +2802,7 @@
       </c>
       <c r="I11" s="60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J11" s="105">
         <v>0</v>
@@ -2786,9 +2819,15 @@
       <c r="N11" s="105">
         <v>0</v>
       </c>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="72"/>
+      <c r="O11" s="104">
+        <v>0.25</v>
+      </c>
+      <c r="P11" s="104">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="166">
+        <v>0</v>
+      </c>
       <c r="R11" s="48"/>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
@@ -2810,7 +2849,7 @@
       <c r="AJ11" s="25"/>
       <c r="AK11" s="25"/>
     </row>
-    <row r="12" spans="1:37" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="94" t="s">
         <v>38</v>
       </c>
@@ -2875,11 +2914,11 @@
       <c r="AJ12" s="25"/>
       <c r="AK12" s="25"/>
     </row>
-    <row r="13" spans="1:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="116" t="s">
+    <row r="13" spans="1:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="119" t="s">
+      <c r="C13" s="137" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="83" t="s">
@@ -2940,9 +2979,9 @@
       <c r="AJ13" s="25"/>
       <c r="AK13" s="25"/>
     </row>
-    <row r="14" spans="1:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="117"/>
-      <c r="C14" s="120"/>
+    <row r="14" spans="1:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="131"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="86" t="s">
         <v>65</v>
       </c>
@@ -3003,9 +3042,9 @@
       <c r="AJ14" s="25"/>
       <c r="AK14" s="25"/>
     </row>
-    <row r="15" spans="1:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="117"/>
-      <c r="C15" s="120"/>
+    <row r="15" spans="1:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="131"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="99" t="s">
         <v>64</v>
       </c>
@@ -3064,9 +3103,9 @@
       <c r="AJ15" s="25"/>
       <c r="AK15" s="25"/>
     </row>
-    <row r="16" spans="1:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="117"/>
-      <c r="C16" s="120"/>
+    <row r="16" spans="1:37" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="131"/>
+      <c r="C16" s="138"/>
       <c r="D16" s="86" t="s">
         <v>61</v>
       </c>
@@ -3125,9 +3164,9 @@
       <c r="AJ16" s="37"/>
       <c r="AK16" s="25"/>
     </row>
-    <row r="17" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="117"/>
-      <c r="C17" s="120"/>
+    <row r="17" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="131"/>
+      <c r="C17" s="138"/>
       <c r="D17" s="86" t="s">
         <v>41</v>
       </c>
@@ -3188,9 +3227,9 @@
       <c r="AJ17" s="37"/>
       <c r="AK17" s="25"/>
     </row>
-    <row r="18" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="118"/>
-      <c r="C18" s="121"/>
+    <row r="18" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="132"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="89" t="s">
         <v>48</v>
       </c>
@@ -3251,11 +3290,11 @@
       <c r="AJ18" s="37"/>
       <c r="AK18" s="25"/>
     </row>
-    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="116" t="s">
+    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="137" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="83" t="s">
@@ -3316,9 +3355,9 @@
       <c r="AJ19" s="37"/>
       <c r="AK19" s="25"/>
     </row>
-    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="117"/>
-      <c r="C20" s="120"/>
+    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="131"/>
+      <c r="C20" s="138"/>
       <c r="D20" s="92" t="s">
         <v>59</v>
       </c>
@@ -3336,7 +3375,7 @@
       </c>
       <c r="I20" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J20" s="107">
         <v>0</v>
@@ -3347,15 +3386,21 @@
       <c r="L20" s="107">
         <v>0</v>
       </c>
-      <c r="M20" s="107">
-        <v>0</v>
-      </c>
-      <c r="N20" s="107">
-        <v>0</v>
-      </c>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="36"/>
+      <c r="M20" s="110">
+        <v>0.1</v>
+      </c>
+      <c r="N20" s="110">
+        <v>0</v>
+      </c>
+      <c r="O20" s="110">
+        <v>0</v>
+      </c>
+      <c r="P20" s="110">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="110">
+        <v>0</v>
+      </c>
       <c r="R20" s="48"/>
       <c r="S20" s="25"/>
       <c r="T20" s="37"/>
@@ -3377,9 +3422,9 @@
       <c r="AJ20" s="37"/>
       <c r="AK20" s="25"/>
     </row>
-    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="117"/>
-      <c r="C21" s="120"/>
+    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="131"/>
+      <c r="C21" s="138"/>
       <c r="D21" s="92" t="s">
         <v>60</v>
       </c>
@@ -3397,7 +3442,7 @@
       </c>
       <c r="I21" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J21" s="107">
         <v>0</v>
@@ -3408,15 +3453,21 @@
       <c r="L21" s="107">
         <v>0</v>
       </c>
-      <c r="M21" s="107">
-        <v>0</v>
-      </c>
-      <c r="N21" s="107">
-        <v>0</v>
-      </c>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="36"/>
+      <c r="M21" s="110">
+        <v>0.1</v>
+      </c>
+      <c r="N21" s="110">
+        <v>0</v>
+      </c>
+      <c r="O21" s="110">
+        <v>0</v>
+      </c>
+      <c r="P21" s="110">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="110">
+        <v>0</v>
+      </c>
       <c r="R21" s="48"/>
       <c r="S21" s="25"/>
       <c r="T21" s="37"/>
@@ -3438,9 +3489,9 @@
       <c r="AJ21" s="37"/>
       <c r="AK21" s="25"/>
     </row>
-    <row r="22" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="118"/>
-      <c r="C22" s="121"/>
+    <row r="22" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="132"/>
+      <c r="C22" s="139"/>
       <c r="D22" s="93" t="s">
         <v>61</v>
       </c>
@@ -3458,7 +3509,7 @@
       </c>
       <c r="I22" s="60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J22" s="107">
         <v>0</v>
@@ -3466,18 +3517,24 @@
       <c r="K22" s="107">
         <v>0</v>
       </c>
-      <c r="L22" s="107">
-        <v>0</v>
-      </c>
-      <c r="M22" s="107">
-        <v>0</v>
-      </c>
-      <c r="N22" s="107">
-        <v>0</v>
-      </c>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="72"/>
+      <c r="L22" s="162">
+        <v>0</v>
+      </c>
+      <c r="M22" s="110">
+        <v>0.2</v>
+      </c>
+      <c r="N22" s="110">
+        <v>0</v>
+      </c>
+      <c r="O22" s="110">
+        <v>0</v>
+      </c>
+      <c r="P22" s="110">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="110">
+        <v>0</v>
+      </c>
       <c r="R22" s="48"/>
       <c r="S22" s="25"/>
       <c r="T22" s="37"/>
@@ -3499,8 +3556,8 @@
       <c r="AJ22" s="37"/>
       <c r="AK22" s="25"/>
     </row>
-    <row r="23" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="116" t="s">
+    <row r="23" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="130" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="97" t="s">
@@ -3562,8 +3619,8 @@
       <c r="AJ23" s="37"/>
       <c r="AK23" s="25"/>
     </row>
-    <row r="24" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="117"/>
+    <row r="24" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="131"/>
       <c r="C24" s="100" t="s">
         <v>54</v>
       </c>
@@ -3621,8 +3678,8 @@
       <c r="AJ24" s="37"/>
       <c r="AK24" s="25"/>
     </row>
-    <row r="25" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="117"/>
+    <row r="25" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="131"/>
       <c r="C25" s="101" t="s">
         <v>44</v>
       </c>
@@ -3680,8 +3737,8 @@
       <c r="AJ25" s="38"/>
       <c r="AK25" s="37"/>
     </row>
-    <row r="26" spans="2:37" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="118"/>
+    <row r="26" spans="2:37" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="132"/>
       <c r="C26" s="102" t="s">
         <v>53</v>
       </c>
@@ -3745,11 +3802,11 @@
       <c r="AJ26" s="37"/>
       <c r="AK26" s="37"/>
     </row>
-    <row r="27" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="116" t="s">
+    <row r="27" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="137" t="s">
+      <c r="C27" s="133" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="91" t="s">
@@ -3767,7 +3824,7 @@
       </c>
       <c r="I27" s="59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J27" s="108">
         <v>0</v>
@@ -3784,9 +3841,15 @@
       <c r="N27" s="108">
         <v>0</v>
       </c>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="40"/>
+      <c r="O27" s="112">
+        <v>0.8</v>
+      </c>
+      <c r="P27" s="112">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="167">
+        <v>0</v>
+      </c>
       <c r="R27" s="48"/>
       <c r="S27" s="25"/>
       <c r="T27" s="37"/>
@@ -3808,9 +3871,9 @@
       <c r="AJ27" s="37"/>
       <c r="AK27" s="37"/>
     </row>
-    <row r="28" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="117"/>
-      <c r="C28" s="138"/>
+    <row r="28" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="131"/>
+      <c r="C28" s="134"/>
       <c r="D28" s="92" t="s">
         <v>67</v>
       </c>
@@ -3826,7 +3889,7 @@
       </c>
       <c r="I28" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J28" s="108">
         <v>0</v>
@@ -3834,18 +3897,24 @@
       <c r="K28" s="108">
         <v>0</v>
       </c>
-      <c r="L28" s="108">
-        <v>0</v>
-      </c>
-      <c r="M28" s="108">
-        <v>0</v>
-      </c>
-      <c r="N28" s="108">
-        <v>0</v>
-      </c>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="36"/>
+      <c r="L28" s="107">
+        <v>0</v>
+      </c>
+      <c r="M28" s="107">
+        <v>0</v>
+      </c>
+      <c r="N28" s="112">
+        <v>0.2</v>
+      </c>
+      <c r="O28" s="112">
+        <v>0</v>
+      </c>
+      <c r="P28" s="110">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="161">
+        <v>0</v>
+      </c>
       <c r="R28" s="48"/>
       <c r="S28" s="25"/>
       <c r="T28" s="37"/>
@@ -3867,9 +3936,9 @@
       <c r="AJ28" s="37"/>
       <c r="AK28" s="37"/>
     </row>
-    <row r="29" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="117"/>
-      <c r="C29" s="138"/>
+    <row r="29" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="131"/>
+      <c r="C29" s="134"/>
       <c r="D29" s="92" t="s">
         <v>46</v>
       </c>
@@ -3885,7 +3954,7 @@
       </c>
       <c r="I29" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J29" s="108">
         <v>0</v>
@@ -3893,18 +3962,24 @@
       <c r="K29" s="108">
         <v>0</v>
       </c>
-      <c r="L29" s="108">
-        <v>0</v>
-      </c>
-      <c r="M29" s="108">
+      <c r="L29" s="165">
+        <v>0</v>
+      </c>
+      <c r="M29" s="107">
         <v>0</v>
       </c>
       <c r="N29" s="108">
         <v>0</v>
       </c>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="36"/>
+      <c r="O29" s="112">
+        <v>0.3</v>
+      </c>
+      <c r="P29" s="110">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="161">
+        <v>0</v>
+      </c>
       <c r="R29" s="48"/>
       <c r="S29" s="25"/>
       <c r="T29" s="37"/>
@@ -3926,9 +4001,9 @@
       <c r="AJ29" s="37"/>
       <c r="AK29" s="37"/>
     </row>
-    <row r="30" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="118"/>
-      <c r="C30" s="139"/>
+    <row r="30" spans="2:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="132"/>
+      <c r="C30" s="135"/>
       <c r="D30" s="93" t="s">
         <v>47</v>
       </c>
@@ -3944,7 +4019,7 @@
       </c>
       <c r="I30" s="60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J30" s="108">
         <v>0</v>
@@ -3952,18 +4027,24 @@
       <c r="K30" s="108">
         <v>0</v>
       </c>
-      <c r="L30" s="108">
-        <v>0</v>
-      </c>
-      <c r="M30" s="108">
+      <c r="L30" s="163">
+        <v>0</v>
+      </c>
+      <c r="M30" s="164">
         <v>0</v>
       </c>
       <c r="N30" s="108">
         <v>0</v>
       </c>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="72"/>
+      <c r="O30" s="112">
+        <v>0.2</v>
+      </c>
+      <c r="P30" s="104">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="166">
+        <v>0</v>
+      </c>
       <c r="R30" s="48"/>
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
@@ -3985,22 +4066,22 @@
       <c r="AJ30" s="37"/>
       <c r="AK30" s="37"/>
     </row>
-    <row r="31" spans="2:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="129" t="s">
+    <row r="31" spans="2:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="130"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
       <c r="H31" s="78">
         <f>SUM(H4:H30)</f>
         <v>18</v>
       </c>
       <c r="I31" s="78">
         <f>SUM(I4:I30)</f>
-        <v>4.9214000000000002</v>
+        <v>7.771399999999999</v>
       </c>
       <c r="J31" s="78">
         <f>SUM(J4:J30)</f>
@@ -4016,15 +4097,15 @@
       </c>
       <c r="M31" s="78">
         <f t="shared" si="1"/>
-        <v>0.67</v>
+        <v>1.17</v>
       </c>
       <c r="N31" s="78">
-        <f t="shared" si="1"/>
-        <v>1.7033999999999998</v>
+        <f>SUM(N4:N30)</f>
+        <v>2.1034000000000002</v>
       </c>
       <c r="O31" s="78">
-        <f t="shared" si="1"/>
-        <v>1.798</v>
+        <f>SUM(O4:O30)</f>
+        <v>3.7479999999999993</v>
       </c>
       <c r="P31" s="78">
         <f t="shared" si="1"/>
@@ -4055,7 +4136,7 @@
       <c r="AJ31" s="35"/>
       <c r="AK31" s="35"/>
     </row>
-    <row r="32" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4064,16 +4145,16 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="122" t="s">
+      <c r="J32" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="123"/>
-      <c r="Q32" s="128"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="116"/>
+      <c r="P32" s="116"/>
+      <c r="Q32" s="121"/>
       <c r="R32" s="42"/>
       <c r="S32" s="42"/>
       <c r="T32" s="42"/>
@@ -4095,7 +4176,7 @@
       <c r="AJ32" s="42"/>
       <c r="AK32" s="42"/>
     </row>
-    <row r="33" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>19</v>
       </c>
@@ -4139,7 +4220,7 @@
       <c r="AJ33" s="45"/>
       <c r="AK33" s="45"/>
     </row>
-    <row r="34" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="79" t="s">
         <v>14</v>
       </c>
@@ -4149,18 +4230,18 @@
       </c>
       <c r="D34" s="13">
         <f>SUM(I8:I11,I20:I22,I27:I30,I28)</f>
-        <v>0</v>
+        <v>3.0500000000000007</v>
       </c>
       <c r="E34" s="29">
         <f>SUM(C34,-D34)</f>
-        <v>5.6</v>
+        <v>2.5499999999999989</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="122" t="s">
+      <c r="H34" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="I34" s="128"/>
+      <c r="I34" s="121"/>
       <c r="J34" s="9">
         <f>SUM(H31,-J31)</f>
         <v>17.25</v>
@@ -4175,23 +4256,23 @@
       </c>
       <c r="M34" s="9">
         <f t="shared" si="2"/>
-        <v>16.579999999999998</v>
+        <v>16.079999999999998</v>
       </c>
       <c r="N34" s="9">
         <f t="shared" si="2"/>
-        <v>14.876599999999998</v>
+        <v>13.976599999999998</v>
       </c>
       <c r="O34" s="9">
         <f t="shared" si="2"/>
-        <v>13.078599999999998</v>
+        <v>10.228599999999998</v>
       </c>
       <c r="P34" s="9">
         <f t="shared" si="2"/>
-        <v>13.078599999999998</v>
+        <v>10.228599999999998</v>
       </c>
       <c r="Q34" s="9">
         <f t="shared" si="2"/>
-        <v>13.078599999999998</v>
+        <v>10.228599999999998</v>
       </c>
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
@@ -4214,7 +4295,7 @@
       <c r="AJ34" s="35"/>
       <c r="AK34" s="35"/>
     </row>
-    <row r="35" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="80" t="s">
         <v>13</v>
       </c>
@@ -4259,7 +4340,7 @@
       <c r="AJ35" s="45"/>
       <c r="AK35" s="45"/>
     </row>
-    <row r="36" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="81" t="s">
         <v>15</v>
       </c>
@@ -4276,21 +4357,21 @@
         <v>3.38</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="H36" s="122" t="s">
+      <c r="H36" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="123"/>
-      <c r="J36" s="122">
+      <c r="I36" s="116"/>
+      <c r="J36" s="115">
         <f>H31-I31</f>
-        <v>13.0786</v>
-      </c>
-      <c r="K36" s="123"/>
-      <c r="L36" s="123"/>
-      <c r="M36" s="123"/>
-      <c r="N36" s="123"/>
-      <c r="O36" s="123"/>
-      <c r="P36" s="123"/>
-      <c r="Q36" s="128"/>
+        <v>10.2286</v>
+      </c>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="116"/>
+      <c r="P36" s="116"/>
+      <c r="Q36" s="121"/>
       <c r="R36" s="42"/>
       <c r="S36" s="42"/>
       <c r="T36" s="42"/>
@@ -4312,7 +4393,7 @@
       <c r="AJ36" s="42"/>
       <c r="AK36" s="42"/>
     </row>
-    <row r="37" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -4326,7 +4407,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -4340,7 +4421,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -4354,42 +4435,47 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
     </row>
-    <row r="53" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
     </row>
-    <row r="55" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="H34:I34"/>
@@ -4402,11 +4488,6 @@
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4422,24 +4503,24 @@
       <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" customWidth="1"/>
-    <col min="4" max="4" width="55.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="55.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -4447,17 +4528,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="122" t="s">
+    <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="124"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="117"/>
       <c r="R2" s="52"/>
       <c r="S2" s="42"/>
       <c r="T2" s="42"/>
@@ -4479,7 +4560,7 @@
       <c r="AJ2" s="42"/>
       <c r="AK2" s="42"/>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
@@ -4549,8 +4630,8 @@
       <c r="AJ3" s="41"/>
       <c r="AK3" s="41"/>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="149" t="s">
+    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="144" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="66" t="s">
@@ -4594,8 +4675,8 @@
       <c r="AJ4" s="25"/>
       <c r="AK4" s="25"/>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="150"/>
+    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="145"/>
       <c r="C5" s="67" t="s">
         <v>24</v>
       </c>
@@ -4637,8 +4718,8 @@
       <c r="AJ5" s="25"/>
       <c r="AK5" s="25"/>
     </row>
-    <row r="6" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="150"/>
+    <row r="6" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="145"/>
       <c r="C6" s="56" t="s">
         <v>25</v>
       </c>
@@ -4680,8 +4761,8 @@
       <c r="AJ6" s="25"/>
       <c r="AK6" s="25"/>
     </row>
-    <row r="7" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="150"/>
+    <row r="7" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="145"/>
       <c r="C7" s="56" t="s">
         <v>26</v>
       </c>
@@ -4723,8 +4804,8 @@
       <c r="AJ7" s="25"/>
       <c r="AK7" s="25"/>
     </row>
-    <row r="8" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="150"/>
+    <row r="8" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="145"/>
       <c r="C8" s="56" t="s">
         <v>56</v>
       </c>
@@ -4763,8 +4844,8 @@
       <c r="AJ8" s="25"/>
       <c r="AK8" s="25"/>
     </row>
-    <row r="9" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="150"/>
+    <row r="9" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="145"/>
       <c r="C9" s="56" t="s">
         <v>55</v>
       </c>
@@ -4803,8 +4884,8 @@
       <c r="AJ9" s="25"/>
       <c r="AK9" s="25"/>
     </row>
-    <row r="10" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="150"/>
+    <row r="10" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="145"/>
       <c r="C10" s="56" t="s">
         <v>27</v>
       </c>
@@ -4846,8 +4927,8 @@
       <c r="AJ10" s="25"/>
       <c r="AK10" s="25"/>
     </row>
-    <row r="11" spans="1:37" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="150"/>
+    <row r="11" spans="1:37" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="145"/>
       <c r="C11" s="56" t="s">
         <v>52</v>
       </c>
@@ -4889,8 +4970,8 @@
       <c r="AJ11" s="25"/>
       <c r="AK11" s="25"/>
     </row>
-    <row r="12" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="151" t="s">
+    <row r="12" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="146" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="56" t="s">
@@ -4934,8 +5015,8 @@
       <c r="AJ12" s="25"/>
       <c r="AK12" s="25"/>
     </row>
-    <row r="13" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="152"/>
+    <row r="13" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="147"/>
       <c r="C13" s="56" t="s">
         <v>31</v>
       </c>
@@ -4977,8 +5058,8 @@
       <c r="AJ13" s="25"/>
       <c r="AK13" s="25"/>
     </row>
-    <row r="14" spans="1:37" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="152"/>
+    <row r="14" spans="1:37" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="147"/>
       <c r="C14" s="56" t="s">
         <v>30</v>
       </c>
@@ -5020,8 +5101,8 @@
       <c r="AJ14" s="25"/>
       <c r="AK14" s="25"/>
     </row>
-    <row r="15" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="153"/>
+    <row r="15" spans="1:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="148"/>
       <c r="C15" s="56" t="s">
         <v>32</v>
       </c>
@@ -5063,11 +5144,11 @@
       <c r="AJ15" s="25"/>
       <c r="AK15" s="37"/>
     </row>
-    <row r="16" spans="1:37" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="154" t="s">
+    <row r="16" spans="1:37" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="152" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -5110,9 +5191,9 @@
       <c r="AJ16" s="25"/>
       <c r="AK16" s="25"/>
     </row>
-    <row r="17" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="155"/>
-      <c r="C17" s="158"/>
+    <row r="17" spans="2:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="150"/>
+      <c r="C17" s="153"/>
       <c r="D17" s="25" t="s">
         <v>36</v>
       </c>
@@ -5153,9 +5234,9 @@
       <c r="AJ17" s="25"/>
       <c r="AK17" s="25"/>
     </row>
-    <row r="18" spans="2:37" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="155"/>
-      <c r="C18" s="159"/>
+    <row r="18" spans="2:37" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="150"/>
+      <c r="C18" s="154"/>
       <c r="D18" s="25" t="s">
         <v>37</v>
       </c>
@@ -5196,8 +5277,8 @@
       <c r="AJ18" s="25"/>
       <c r="AK18" s="25"/>
     </row>
-    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="155"/>
+    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="150"/>
       <c r="C19" s="62"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -5237,8 +5318,8 @@
       <c r="AJ19" s="25"/>
       <c r="AK19" s="25"/>
     </row>
-    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="155"/>
+    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="150"/>
       <c r="C20" s="62"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -5278,8 +5359,8 @@
       <c r="AJ20" s="25"/>
       <c r="AK20" s="25"/>
     </row>
-    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="155"/>
+    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="150"/>
       <c r="C21" s="62"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -5319,8 +5400,8 @@
       <c r="AJ21" s="25"/>
       <c r="AK21" s="25"/>
     </row>
-    <row r="22" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="156"/>
+    <row r="22" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="151"/>
       <c r="C22" s="62"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -5360,7 +5441,7 @@
       <c r="AJ22" s="25"/>
       <c r="AK22" s="25"/>
     </row>
-    <row r="23" spans="2:37" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:37" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="34" t="s">
         <v>38</v>
       </c>
@@ -5405,11 +5486,11 @@
       <c r="AJ23" s="25"/>
       <c r="AK23" s="25"/>
     </row>
-    <row r="24" spans="2:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="142" t="s">
+    <row r="24" spans="2:37" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="144" t="s">
+      <c r="C24" s="142" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -5452,9 +5533,9 @@
       <c r="AJ24" s="37"/>
       <c r="AK24" s="25"/>
     </row>
-    <row r="25" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="117"/>
-      <c r="C25" s="120"/>
+    <row r="25" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="131"/>
+      <c r="C25" s="138"/>
       <c r="D25" s="25" t="s">
         <v>41</v>
       </c>
@@ -5495,9 +5576,9 @@
       <c r="AJ25" s="37"/>
       <c r="AK25" s="25"/>
     </row>
-    <row r="26" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="143"/>
-      <c r="C26" s="145"/>
+    <row r="26" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="141"/>
+      <c r="C26" s="143"/>
       <c r="D26" s="25" t="s">
         <v>48</v>
       </c>
@@ -5538,8 +5619,8 @@
       <c r="AJ26" s="37"/>
       <c r="AK26" s="25"/>
     </row>
-    <row r="27" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="142" t="s">
+    <row r="27" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="140" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="69" t="s">
@@ -5583,8 +5664,8 @@
       <c r="AJ27" s="37"/>
       <c r="AK27" s="25"/>
     </row>
-    <row r="28" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="117"/>
+    <row r="28" spans="2:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="131"/>
       <c r="C28" s="64" t="s">
         <v>54</v>
       </c>
@@ -5623,8 +5704,8 @@
       <c r="AJ28" s="37"/>
       <c r="AK28" s="25"/>
     </row>
-    <row r="29" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="117"/>
+    <row r="29" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="131"/>
       <c r="C29" s="68" t="s">
         <v>44</v>
       </c>
@@ -5666,8 +5747,8 @@
       <c r="AJ29" s="38"/>
       <c r="AK29" s="37"/>
     </row>
-    <row r="30" spans="2:37" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="143"/>
+    <row r="30" spans="2:37" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="141"/>
       <c r="C30" s="63" t="s">
         <v>53</v>
       </c>
@@ -5709,11 +5790,11 @@
       <c r="AJ30" s="37"/>
       <c r="AK30" s="37"/>
     </row>
-    <row r="31" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="142" t="s">
+    <row r="31" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="144" t="s">
+      <c r="C31" s="142" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="25" t="s">
@@ -5756,9 +5837,9 @@
       <c r="AJ31" s="37"/>
       <c r="AK31" s="37"/>
     </row>
-    <row r="32" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="117"/>
-      <c r="C32" s="120"/>
+    <row r="32" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="131"/>
+      <c r="C32" s="138"/>
       <c r="D32" s="25" t="s">
         <v>46</v>
       </c>
@@ -5799,9 +5880,9 @@
       <c r="AJ32" s="37"/>
       <c r="AK32" s="37"/>
     </row>
-    <row r="33" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="117"/>
-      <c r="C33" s="145"/>
+    <row r="33" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="131"/>
+      <c r="C33" s="143"/>
       <c r="D33" s="25" t="s">
         <v>47</v>
       </c>
@@ -5842,8 +5923,8 @@
       <c r="AJ33" s="37"/>
       <c r="AK33" s="37"/>
     </row>
-    <row r="34" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="143"/>
+    <row r="34" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="141"/>
       <c r="C34" s="63"/>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
@@ -5883,8 +5964,8 @@
       <c r="AJ34" s="37"/>
       <c r="AK34" s="37"/>
     </row>
-    <row r="35" spans="2:37" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="142" t="s">
+    <row r="35" spans="2:37" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="140" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="63" t="s">
@@ -5928,8 +6009,8 @@
       <c r="AJ35" s="37"/>
       <c r="AK35" s="37"/>
     </row>
-    <row r="36" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="117"/>
+    <row r="36" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="131"/>
       <c r="C36" s="58" t="s">
         <v>51</v>
       </c>
@@ -5971,8 +6052,8 @@
       <c r="AJ36" s="25"/>
       <c r="AK36" s="37"/>
     </row>
-    <row r="37" spans="2:37" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="117"/>
+    <row r="37" spans="2:37" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="131"/>
       <c r="C37" s="58"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
@@ -6012,8 +6093,8 @@
       <c r="AJ37" s="25"/>
       <c r="AK37" s="37"/>
     </row>
-    <row r="38" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="143"/>
+    <row r="38" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="141"/>
       <c r="C38" s="54"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -6053,7 +6134,7 @@
       <c r="AJ38" s="37"/>
       <c r="AK38" s="37"/>
     </row>
-    <row r="39" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="65"/>
       <c r="C39" s="58"/>
       <c r="D39" s="25"/>
@@ -6094,7 +6175,7 @@
       <c r="AJ39" s="38"/>
       <c r="AK39" s="37"/>
     </row>
-    <row r="40" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="65"/>
       <c r="C40" s="58"/>
       <c r="D40" s="25"/>
@@ -6135,7 +6216,7 @@
       <c r="AJ40" s="25"/>
       <c r="AK40" s="37"/>
     </row>
-    <row r="41" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="65"/>
       <c r="C41" s="58"/>
       <c r="D41" s="25"/>
@@ -6176,7 +6257,7 @@
       <c r="AJ41" s="25"/>
       <c r="AK41" s="37"/>
     </row>
-    <row r="42" spans="2:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="65"/>
       <c r="C42" s="58"/>
       <c r="D42" s="25"/>
@@ -6217,7 +6298,7 @@
       <c r="AJ42" s="25"/>
       <c r="AK42" s="37"/>
     </row>
-    <row r="43" spans="2:37" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:37" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="65"/>
       <c r="C43" s="58"/>
       <c r="D43" s="25"/>
@@ -6258,7 +6339,7 @@
       <c r="AJ43" s="25"/>
       <c r="AK43" s="37"/>
     </row>
-    <row r="44" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="65"/>
       <c r="C44" s="58"/>
       <c r="D44" s="25"/>
@@ -6299,7 +6380,7 @@
       <c r="AJ44" s="25"/>
       <c r="AK44" s="37"/>
     </row>
-    <row r="45" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="65"/>
       <c r="C45" s="64"/>
       <c r="D45" s="25"/>
@@ -6340,7 +6421,7 @@
       <c r="AJ45" s="38"/>
       <c r="AK45" s="38"/>
     </row>
-    <row r="46" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="65"/>
       <c r="C46" s="64"/>
       <c r="D46" s="25"/>
@@ -6381,7 +6462,7 @@
       <c r="AJ46" s="38"/>
       <c r="AK46" s="38"/>
     </row>
-    <row r="47" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="65"/>
       <c r="C47" s="55"/>
       <c r="D47" s="25"/>
@@ -6422,7 +6503,7 @@
       <c r="AJ47" s="25"/>
       <c r="AK47" s="37"/>
     </row>
-    <row r="48" spans="2:37" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:37" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="65"/>
       <c r="C48" s="58"/>
       <c r="D48" s="25"/>
@@ -6463,8 +6544,8 @@
       <c r="AJ48" s="37"/>
       <c r="AK48" s="37"/>
     </row>
-    <row r="49" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="146"/>
+    <row r="49" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="157"/>
       <c r="C49" s="37"/>
       <c r="D49" s="25"/>
       <c r="E49" s="37"/>
@@ -6504,8 +6585,8 @@
       <c r="AJ49" s="25"/>
       <c r="AK49" s="25"/>
     </row>
-    <row r="50" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="146"/>
+    <row r="50" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="157"/>
       <c r="C50" s="37"/>
       <c r="D50" s="25"/>
       <c r="E50" s="37"/>
@@ -6545,8 +6626,8 @@
       <c r="AJ50" s="25"/>
       <c r="AK50" s="25"/>
     </row>
-    <row r="51" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="146"/>
+    <row r="51" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="157"/>
       <c r="C51" s="62"/>
       <c r="D51" s="25"/>
       <c r="E51" s="37"/>
@@ -6586,8 +6667,8 @@
       <c r="AJ51" s="25"/>
       <c r="AK51" s="25"/>
     </row>
-    <row r="52" spans="2:37" ht="21" x14ac:dyDescent="0.3">
-      <c r="B52" s="147"/>
+    <row r="52" spans="2:37" ht="21" x14ac:dyDescent="0.25">
+      <c r="B52" s="158"/>
       <c r="C52" s="62"/>
       <c r="D52" s="25"/>
       <c r="E52" s="37"/>
@@ -6627,8 +6708,8 @@
       <c r="AJ52" s="25"/>
       <c r="AK52" s="25"/>
     </row>
-    <row r="53" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="148"/>
+    <row r="53" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="159"/>
       <c r="C53" s="56"/>
       <c r="D53" s="25"/>
       <c r="E53" s="37"/>
@@ -6668,8 +6749,8 @@
       <c r="AJ53" s="25"/>
       <c r="AK53" s="25"/>
     </row>
-    <row r="54" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="148"/>
+    <row r="54" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="159"/>
       <c r="C54" s="56"/>
       <c r="D54" s="25"/>
       <c r="E54" s="37"/>
@@ -6709,8 +6790,8 @@
       <c r="AJ54" s="25"/>
       <c r="AK54" s="25"/>
     </row>
-    <row r="55" spans="2:37" ht="21" x14ac:dyDescent="0.3">
-      <c r="B55" s="148"/>
+    <row r="55" spans="2:37" ht="21" x14ac:dyDescent="0.25">
+      <c r="B55" s="159"/>
       <c r="C55" s="37"/>
       <c r="D55" s="25"/>
       <c r="E55" s="37"/>
@@ -6750,8 +6831,8 @@
       <c r="AJ55" s="25"/>
       <c r="AK55" s="25"/>
     </row>
-    <row r="56" spans="2:37" ht="21" x14ac:dyDescent="0.3">
-      <c r="B56" s="148"/>
+    <row r="56" spans="2:37" ht="21" x14ac:dyDescent="0.25">
+      <c r="B56" s="159"/>
       <c r="C56" s="37"/>
       <c r="D56" s="25"/>
       <c r="E56" s="37"/>
@@ -6791,15 +6872,15 @@
       <c r="AJ56" s="38"/>
       <c r="AK56" s="38"/>
     </row>
-    <row r="57" spans="2:37" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="140" t="s">
+    <row r="57" spans="2:37" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="141"/>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141"/>
-      <c r="F57" s="141"/>
-      <c r="G57" s="141"/>
+      <c r="C57" s="156"/>
+      <c r="D57" s="156"/>
+      <c r="E57" s="156"/>
+      <c r="F57" s="156"/>
+      <c r="G57" s="156"/>
       <c r="H57" s="60">
         <f t="shared" ref="H57:I57" si="2">SUM(H4:H56)</f>
         <v>0</v>
@@ -6837,7 +6918,7 @@
       <c r="AJ57" s="35"/>
       <c r="AK57" s="35"/>
     </row>
-    <row r="58" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -6877,7 +6958,7 @@
       <c r="AJ58" s="42"/>
       <c r="AK58" s="42"/>
     </row>
-    <row r="59" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="16" t="s">
         <v>19</v>
       </c>
@@ -6921,7 +7002,7 @@
       <c r="AJ59" s="45"/>
       <c r="AK59" s="45"/>
     </row>
-    <row r="60" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="22" t="s">
         <v>14</v>
       </c>
@@ -6930,10 +7011,10 @@
       <c r="E60" s="29"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="122" t="s">
+      <c r="H60" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="I60" s="128"/>
+      <c r="I60" s="121"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -6963,7 +7044,7 @@
       <c r="AJ60" s="35"/>
       <c r="AK60" s="35"/>
     </row>
-    <row r="61" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="20" t="s">
         <v>13</v>
       </c>
@@ -6999,7 +7080,7 @@
       <c r="AJ61" s="45"/>
       <c r="AK61" s="45"/>
     </row>
-    <row r="62" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="20" t="s">
         <v>15</v>
       </c>
@@ -7007,21 +7088,21 @@
       <c r="D62" s="31"/>
       <c r="E62" s="32"/>
       <c r="F62" s="3"/>
-      <c r="H62" s="122" t="s">
+      <c r="H62" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="I62" s="123"/>
-      <c r="J62" s="122">
+      <c r="I62" s="116"/>
+      <c r="J62" s="115">
         <f>H57-I57</f>
         <v>0</v>
       </c>
-      <c r="K62" s="123"/>
-      <c r="L62" s="123"/>
-      <c r="M62" s="123"/>
-      <c r="N62" s="123"/>
-      <c r="O62" s="123"/>
-      <c r="P62" s="123"/>
-      <c r="Q62" s="128"/>
+      <c r="K62" s="116"/>
+      <c r="L62" s="116"/>
+      <c r="M62" s="116"/>
+      <c r="N62" s="116"/>
+      <c r="O62" s="116"/>
+      <c r="P62" s="116"/>
+      <c r="Q62" s="121"/>
       <c r="R62" s="42"/>
       <c r="S62" s="42"/>
       <c r="T62" s="42"/>
@@ -7043,7 +7124,7 @@
       <c r="AJ62" s="42"/>
       <c r="AK62" s="42"/>
     </row>
-    <row r="63" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -7057,7 +7138,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -7071,7 +7152,7 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -7085,49 +7166,42 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
     </row>
-    <row r="73" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
     </row>
-    <row r="74" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
     </row>
-    <row r="79" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
     </row>
-    <row r="80" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
     </row>
-    <row r="81" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="C16:C18"/>
     <mergeCell ref="B57:G57"/>
     <mergeCell ref="H60:I60"/>
     <mergeCell ref="H62:I62"/>
@@ -7138,6 +7212,13 @@
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7150,7 +7231,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
